--- a/shaho_filled.xlsx
+++ b/shaho_filled.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="10800" yWindow="560" windowWidth="25160" windowHeight="20820" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="20820" windowWidth="25160" xWindow="10800" yWindow="560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$DZ$272</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">'Sheet1'!$A$1:$DZ$272</definedName>
   </definedNames>
   <calcPr calcId="145621" fullCalcOnLoad="1"/>
 </workbook>
@@ -18,11 +18,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="00000000;;"/>
-    <numFmt numFmtId="165" formatCode="#,##0;[Red]\-#,##0;"/>
-    <numFmt numFmtId="166" formatCode="General;General;"/>
-    <numFmt numFmtId="167" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
-    <numFmt numFmtId="168" formatCode="[$-411]ggg"/>
+    <numFmt formatCode="00000000;;" numFmtId="164"/>
+    <numFmt formatCode="#,##0;[Red]\-#,##0;" numFmtId="165"/>
+    <numFmt formatCode="General;General;" numFmtId="166"/>
+    <numFmt formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000" numFmtId="167"/>
+    <numFmt formatCode="[$-411]ggg" numFmtId="168"/>
   </numFmts>
   <fonts count="53">
     <font>
@@ -1085,2014 +1085,2060 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="44" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="44" numFmtId="38">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="663">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="17" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="6" fillId="2" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="13" fillId="2" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="3" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="3" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="11" fillId="2" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="25" fillId="2" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="11" fillId="3" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="12" fillId="3" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="41" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="42" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="5" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="4" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="4" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="4" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="4" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="6" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="9" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="8" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="12" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="7" fillId="4" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="12" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="9" fillId="4" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="10" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="22" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="48" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="49" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="51" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="52" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="22" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="26" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="26" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="26" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="26" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="26" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="38" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="50" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="20" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="20" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="20" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="20" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="20" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="20" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="51" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="42" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="42" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="26" fillId="3" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="3" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="38" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="38" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="38" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="38" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="38" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="38" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="2" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="2" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="2" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="10" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="2" fontId="9" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="2" fontId="5" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="2" fontId="43" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="2" fontId="43" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="43" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="43" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="14" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="16" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="26" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="4" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="13" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="25" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="22" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="22" fillId="0" fontId="27" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="27" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="0" fontId="27" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="27" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="18" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="18" fillId="0" fontId="27" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="30" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="30" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="30" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="30" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="30" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="30" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="13" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="25" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="4" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="2" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="2" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="2" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="2" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="14" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="16" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="26" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="4" fontId="12" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="12" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="12" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="12" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="21" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="22" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="23" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="25" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="28" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="24" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="16" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="26" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="18" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="19" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="27" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="20" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="46" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="2" fontId="46" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="2" fontId="46" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="46" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="46" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="2" fontId="46" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="2" fontId="46" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="2" fontId="46" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="2" fontId="46" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="13" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="17" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="18" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="19" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="14" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="16" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="27" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="4" fontId="10" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="10" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="10" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="27" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="0" fontId="27" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="10" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="32" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="32" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="32" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="32" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="32" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="32" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="33" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="33" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="45" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="0" fontId="45" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="45" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="45" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="2" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="2" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="2" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="2" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="2" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="29" fillId="2" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="30" fillId="2" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="2" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="2" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="31" fillId="2" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="32" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="32" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="29" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="29" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="33" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="33" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="30" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="30" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="34" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="34" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="31" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="31" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="29" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="29" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="30" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="30" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="31" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="31" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="32" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="32" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="33" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="33" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="34" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="34" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="41" fillId="2" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="29" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyProtection="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyProtection="1" borderId="29" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="3" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyProtection="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="2" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="41" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="41" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="43" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="43" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="44" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="44" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="41" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="41" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="30" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyProtection="1" borderId="33" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyProtection="1" borderId="30" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyProtection="1" borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyProtection="1" borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="31" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyProtection="1" borderId="34" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyProtection="1" borderId="11" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyProtection="1" borderId="31" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyProtection="1" borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyProtection="1" borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="40" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="40" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="40" fillId="0" fontId="45" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="40" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="32" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="40" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="39" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="39" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="46" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="2" fontId="46" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyProtection="1" borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="46" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="38" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="37" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyProtection="1" borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyProtection="1" borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="39" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyProtection="1" borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyProtection="1" borderId="18" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyProtection="1" borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyProtection="1" borderId="27" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyProtection="1" borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="50" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyProtection="1" borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyProtection="1" borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="51" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyProtection="1" borderId="24" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyProtection="1" borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyProtection="1" borderId="26" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="30" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="4" fontId="12" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="12" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="12" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="40" fillId="4" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="40" fillId="2" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="39" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="39" fillId="2" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="48" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="0" fontId="27" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="18" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="52" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="53" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="53" fillId="0" fontId="27" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="35" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="3" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="10" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="22" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="2" fontId="5" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="4" fontId="10" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="10" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="38" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="37" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="2" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="38" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="26" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="38" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="37" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="37" fillId="3" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
+    <cellStyle builtinId="0" name="標準" xfId="0"/>
+    <cellStyle builtinId="6" name="桁区切り" xfId="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>190502</rowOff>
+    </from>
+    <to>
+      <col>18</col>
+      <colOff>66675</colOff>
+      <row>3</row>
+      <rowOff>190501</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="45" name="図 44"/>
+        <cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm>
+          <a:off x="628650" y="533402"/>
+          <a:ext cx="1323975" cy="485774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3414,27 +3460,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A2:EM272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100">
       <selection activeCell="CC32" sqref="CC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col width="1.33203125" customWidth="1" style="57" min="1" max="136"/>
-    <col width="2.6640625" customWidth="1" style="57" min="137" max="140"/>
-    <col width="2.5" customWidth="1" style="57" min="141" max="143"/>
-    <col width="2.5" customWidth="1" style="57" min="144" max="152"/>
-    <col width="9" customWidth="1" style="57" min="153" max="16384"/>
+    <col customWidth="1" max="136" min="1" style="57" width="1.33203125"/>
+    <col customWidth="1" max="140" min="137" style="57" width="2.6640625"/>
+    <col customWidth="1" max="143" min="141" style="57" width="2.5"/>
+    <col customWidth="1" max="152" min="144" style="57" width="2.5"/>
+    <col customWidth="1" max="16384" min="153" style="57" width="9"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="1" s="57">
+    <row customFormat="1" r="2" s="57">
       <c r="A2" s="57" t="n">
         <v>1</v>
       </c>
@@ -3836,7 +3882,7 @@
       <c r="EI2" s="57" t="n"/>
       <c r="EJ2" s="57" t="n"/>
     </row>
-    <row r="3" ht="38.25" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="38.25" r="3" s="57">
       <c r="AD3" s="536" t="inlineStr">
         <is>
           <t>健　康　保　険
@@ -3858,7 +3904,7 @@
       <c r="EI3" s="57" t="n"/>
       <c r="EJ3" s="57" t="n"/>
     </row>
-    <row r="4" ht="24.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="24.75" r="4" s="57">
       <c r="AD4" s="538" t="inlineStr">
         <is>
           <t>厚生年金保険</t>
@@ -3876,10 +3922,10 @@
       <c r="EI4" s="57" t="n"/>
       <c r="EJ4" s="57" t="n"/>
     </row>
-    <row r="5" ht="14.25" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="14.25" r="5" s="57">
       <c r="EG5" s="540" t="n"/>
     </row>
-    <row r="6" ht="16.25" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="16.25" r="6" s="57">
       <c r="B6" s="95" t="n"/>
       <c r="C6" s="95" t="n"/>
       <c r="D6" s="95" t="n"/>
@@ -3925,13 +3971,13 @@
       <c r="EI6" s="84" t="n"/>
       <c r="EJ6" s="84" t="n"/>
     </row>
-    <row r="7" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="7" s="57">
       <c r="EG7" s="57" t="n"/>
       <c r="EH7" s="57" t="n"/>
       <c r="EI7" s="57" t="n"/>
       <c r="EJ7" s="57" t="n"/>
     </row>
-    <row r="8" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="8" s="57">
       <c r="G8" s="545" t="inlineStr">
         <is>
           <t>事 業 所
@@ -4052,7 +4098,7 @@
       <c r="EI8" s="57" t="n"/>
       <c r="EJ8" s="57" t="n"/>
     </row>
-    <row r="9" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="9" s="57">
       <c r="G9" s="563" t="n"/>
       <c r="M9" s="564" t="n"/>
       <c r="N9" s="563" t="n"/>
@@ -4108,7 +4154,7 @@
       <c r="EI9" s="57" t="n"/>
       <c r="EJ9" s="57" t="n"/>
     </row>
-    <row r="10" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="10" s="57">
       <c r="G10" s="563" t="n"/>
       <c r="M10" s="564" t="n"/>
       <c r="N10" s="563" t="n"/>
@@ -4164,7 +4210,7 @@
       <c r="EI10" s="57" t="n"/>
       <c r="EJ10" s="57" t="n"/>
     </row>
-    <row r="11" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="11" s="57">
       <c r="G11" s="563" t="n"/>
       <c r="M11" s="564" t="n"/>
       <c r="N11" s="563" t="n"/>
@@ -4220,7 +4266,7 @@
       <c r="EI11" s="57" t="n"/>
       <c r="EJ11" s="57" t="n"/>
     </row>
-    <row r="12" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="12" s="57">
       <c r="G12" s="563" t="n"/>
       <c r="M12" s="564" t="n"/>
       <c r="N12" s="563" t="n"/>
@@ -4276,7 +4322,7 @@
       <c r="EI12" s="57" t="n"/>
       <c r="EJ12" s="57" t="n"/>
     </row>
-    <row r="13" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="13" s="57">
       <c r="G13" s="570" t="n"/>
       <c r="H13" s="571" t="n"/>
       <c r="I13" s="571" t="n"/>
@@ -4346,7 +4392,7 @@
       <c r="EI13" s="57" t="n"/>
       <c r="EJ13" s="57" t="n"/>
     </row>
-    <row r="14" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="14" s="57">
       <c r="M14" s="90" t="n"/>
       <c r="N14" s="90" t="n"/>
       <c r="O14" s="90" t="n"/>
@@ -4418,7 +4464,7 @@
       <c r="EI14" s="57" t="n"/>
       <c r="EJ14" s="57" t="n"/>
     </row>
-    <row r="15" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="15" s="57">
       <c r="G15" s="101" t="n"/>
       <c r="H15" s="102" t="n"/>
       <c r="I15" s="102" t="n"/>
@@ -4489,7 +4535,7 @@
       <c r="EI15" s="57" t="n"/>
       <c r="EJ15" s="57" t="n"/>
     </row>
-    <row r="16" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="16" s="57">
       <c r="G16" s="104" t="n"/>
       <c r="H16" s="105" t="n"/>
       <c r="I16" s="105" t="n"/>
@@ -4527,7 +4573,7 @@
       <c r="EI16" s="57" t="n"/>
       <c r="EJ16" s="57" t="n"/>
     </row>
-    <row r="17" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="17" s="57">
       <c r="G17" s="104" t="n"/>
       <c r="H17" s="105" t="n"/>
       <c r="I17" s="105" t="n"/>
@@ -4602,7 +4648,7 @@
       <c r="BN17" s="14" t="n"/>
       <c r="BO17" s="8" t="n"/>
     </row>
-    <row r="18" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="18" s="57">
       <c r="G18" s="579" t="inlineStr">
         <is>
           <t>事業所
@@ -4659,7 +4705,7 @@
       <c r="BN18" s="14" t="n"/>
       <c r="BO18" s="8" t="n"/>
     </row>
-    <row r="19" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="19" s="57">
       <c r="G19" s="563" t="n"/>
       <c r="M19" s="564" t="n"/>
       <c r="R19" s="544" t="n"/>
@@ -4705,7 +4751,7 @@
       <c r="BN19" s="14" t="n"/>
       <c r="BO19" s="8" t="n"/>
     </row>
-    <row r="20" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="20" s="57">
       <c r="G20" s="563" t="n"/>
       <c r="M20" s="564" t="n"/>
       <c r="N20" s="580" t="inlineStr">
@@ -4767,7 +4813,7 @@
       <c r="BN20" s="544" t="n"/>
       <c r="BO20" s="568" t="n"/>
     </row>
-    <row r="21" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="21" s="57">
       <c r="G21" s="563" t="n"/>
       <c r="M21" s="564" t="n"/>
       <c r="N21" s="569" t="n"/>
@@ -4825,7 +4871,7 @@
       <c r="BN21" s="544" t="n"/>
       <c r="BO21" s="568" t="n"/>
     </row>
-    <row r="22" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="22" s="57">
       <c r="G22" s="563" t="n"/>
       <c r="M22" s="564" t="n"/>
       <c r="N22" s="569" t="n"/>
@@ -4883,7 +4929,7 @@
       <c r="BN22" s="544" t="n"/>
       <c r="BO22" s="568" t="n"/>
     </row>
-    <row r="23" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="23" s="57">
       <c r="G23" s="563" t="n"/>
       <c r="M23" s="564" t="n"/>
       <c r="N23" s="569" t="n"/>
@@ -4941,7 +4987,7 @@
       <c r="BN23" s="544" t="n"/>
       <c r="BO23" s="568" t="n"/>
     </row>
-    <row r="24" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="24" s="57">
       <c r="G24" s="563" t="n"/>
       <c r="M24" s="564" t="n"/>
       <c r="N24" s="569" t="n"/>
@@ -4999,7 +5045,7 @@
       <c r="BN24" s="544" t="n"/>
       <c r="BO24" s="568" t="n"/>
     </row>
-    <row r="25" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="25" s="57">
       <c r="G25" s="563" t="n"/>
       <c r="M25" s="564" t="n"/>
       <c r="N25" s="569" t="n"/>
@@ -5057,7 +5103,7 @@
       <c r="BN25" s="544" t="n"/>
       <c r="BO25" s="568" t="n"/>
     </row>
-    <row r="26" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="26" s="57">
       <c r="G26" s="563" t="n"/>
       <c r="M26" s="564" t="n"/>
       <c r="N26" s="569" t="n"/>
@@ -5115,7 +5161,7 @@
       <c r="BN26" s="544" t="n"/>
       <c r="BO26" s="568" t="n"/>
     </row>
-    <row r="27" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="27" s="57">
       <c r="G27" s="563" t="n"/>
       <c r="M27" s="564" t="n"/>
       <c r="N27" s="569" t="n"/>
@@ -5173,7 +5219,7 @@
       <c r="BN27" s="544" t="n"/>
       <c r="BO27" s="568" t="n"/>
     </row>
-    <row r="28" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="28" s="57">
       <c r="G28" s="563" t="n"/>
       <c r="M28" s="564" t="n"/>
       <c r="N28" s="569" t="n"/>
@@ -5231,7 +5277,7 @@
       <c r="BN28" s="544" t="n"/>
       <c r="BO28" s="568" t="n"/>
     </row>
-    <row r="29" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="29" s="57">
       <c r="G29" s="563" t="n"/>
       <c r="M29" s="564" t="n"/>
       <c r="N29" s="569" t="n"/>
@@ -5289,7 +5335,7 @@
       <c r="BN29" s="544" t="n"/>
       <c r="BO29" s="568" t="n"/>
     </row>
-    <row r="30" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="30" s="57">
       <c r="G30" s="563" t="n"/>
       <c r="M30" s="564" t="n"/>
       <c r="N30" s="569" t="n"/>
@@ -5347,7 +5393,7 @@
       <c r="BN30" s="544" t="n"/>
       <c r="BO30" s="568" t="n"/>
     </row>
-    <row r="31" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="31" s="57">
       <c r="G31" s="579" t="inlineStr">
         <is>
           <t>事業所
@@ -5414,7 +5460,7 @@
       <c r="BN31" s="544" t="n"/>
       <c r="BO31" s="568" t="n"/>
     </row>
-    <row r="32" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="32" s="57">
       <c r="G32" s="563" t="n"/>
       <c r="M32" s="564" t="n"/>
       <c r="N32" s="569" t="n"/>
@@ -5472,7 +5518,7 @@
       <c r="BN32" s="544" t="n"/>
       <c r="BO32" s="568" t="n"/>
     </row>
-    <row r="33" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="33" s="57">
       <c r="G33" s="563" t="n"/>
       <c r="M33" s="564" t="n"/>
       <c r="N33" s="569" t="n"/>
@@ -5530,7 +5576,7 @@
       <c r="BN33" s="544" t="n"/>
       <c r="BO33" s="568" t="n"/>
     </row>
-    <row r="34" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="34" s="57">
       <c r="G34" s="563" t="n"/>
       <c r="M34" s="564" t="n"/>
       <c r="N34" s="569" t="n"/>
@@ -5588,7 +5634,7 @@
       <c r="BN34" s="544" t="n"/>
       <c r="BO34" s="568" t="n"/>
     </row>
-    <row r="35" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="35" s="57">
       <c r="G35" s="563" t="n"/>
       <c r="M35" s="564" t="n"/>
       <c r="N35" s="569" t="n"/>
@@ -5667,7 +5713,7 @@
       <c r="CI35" s="57" t="n"/>
       <c r="CJ35" s="57" t="n"/>
     </row>
-    <row r="36" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="36" s="57">
       <c r="G36" s="563" t="n"/>
       <c r="M36" s="564" t="n"/>
       <c r="N36" s="569" t="n"/>
@@ -5766,7 +5812,7 @@
       <c r="CY36" s="584" t="n"/>
       <c r="CZ36" s="584" t="n"/>
     </row>
-    <row r="37" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="37" s="57">
       <c r="G37" s="563" t="n"/>
       <c r="M37" s="564" t="n"/>
       <c r="N37" s="569" t="n"/>
@@ -5838,7 +5884,7 @@
       <c r="CY37" s="584" t="n"/>
       <c r="CZ37" s="584" t="n"/>
     </row>
-    <row r="38" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="38" s="57">
       <c r="G38" s="563" t="n"/>
       <c r="M38" s="564" t="n"/>
       <c r="N38" s="569" t="n"/>
@@ -5910,7 +5956,7 @@
       <c r="CY38" s="584" t="n"/>
       <c r="CZ38" s="584" t="n"/>
     </row>
-    <row r="39" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="39" s="57">
       <c r="G39" s="563" t="n"/>
       <c r="M39" s="564" t="n"/>
       <c r="N39" s="569" t="n"/>
@@ -6005,7 +6051,7 @@
       <c r="CY39" s="584" t="n"/>
       <c r="CZ39" s="584" t="n"/>
     </row>
-    <row r="40" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="40" s="57">
       <c r="G40" s="579" t="inlineStr">
         <is>
           <t>事業主
@@ -6137,7 +6183,7 @@
       <c r="EA40" s="57" t="n"/>
       <c r="EB40" s="57" t="n"/>
     </row>
-    <row r="41" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="41" s="57">
       <c r="G41" s="563" t="n"/>
       <c r="M41" s="564" t="n"/>
       <c r="N41" s="569" t="n"/>
@@ -6240,7 +6286,7 @@
       <c r="EA41" s="57" t="n"/>
       <c r="EB41" s="57" t="n"/>
     </row>
-    <row r="42" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="42" s="57">
       <c r="G42" s="563" t="n"/>
       <c r="M42" s="564" t="n"/>
       <c r="N42" s="569" t="n"/>
@@ -6343,7 +6389,7 @@
       <c r="EA42" s="57" t="n"/>
       <c r="EB42" s="57" t="n"/>
     </row>
-    <row r="43" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="43" s="57">
       <c r="G43" s="563" t="n"/>
       <c r="M43" s="564" t="n"/>
       <c r="N43" s="569" t="n"/>
@@ -6466,7 +6512,7 @@
       <c r="EA43" s="57" t="n"/>
       <c r="EB43" s="57" t="n"/>
     </row>
-    <row r="44" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="44" s="57">
       <c r="G44" s="563" t="n"/>
       <c r="M44" s="564" t="n"/>
       <c r="N44" s="569" t="n"/>
@@ -6589,7 +6635,7 @@
       <c r="EA44" s="57" t="n"/>
       <c r="EB44" s="57" t="n"/>
     </row>
-    <row r="45" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="45" s="57">
       <c r="G45" s="563" t="n"/>
       <c r="M45" s="564" t="n"/>
       <c r="N45" s="569" t="n"/>
@@ -6712,7 +6758,7 @@
       <c r="EA45" s="57" t="n"/>
       <c r="EB45" s="57" t="n"/>
     </row>
-    <row r="46" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="46" s="57">
       <c r="G46" s="563" t="n"/>
       <c r="M46" s="564" t="n"/>
       <c r="N46" s="569" t="n"/>
@@ -6835,7 +6881,7 @@
       <c r="EA46" s="24" t="n"/>
       <c r="EB46" s="24" t="n"/>
     </row>
-    <row r="47" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="47" s="57">
       <c r="G47" s="563" t="n"/>
       <c r="M47" s="564" t="n"/>
       <c r="N47" s="569" t="n"/>
@@ -6958,7 +7004,7 @@
       <c r="EA47" s="24" t="n"/>
       <c r="EB47" s="24" t="n"/>
     </row>
-    <row r="48" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="48" s="57">
       <c r="G48" s="563" t="n"/>
       <c r="M48" s="564" t="n"/>
       <c r="N48" s="569" t="n"/>
@@ -7081,7 +7127,7 @@
       <c r="EA48" s="24" t="n"/>
       <c r="EB48" s="24" t="n"/>
     </row>
-    <row r="49" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="49" s="57">
       <c r="G49" s="589" t="inlineStr">
         <is>
           <t>電話番号</t>
@@ -7226,7 +7272,7 @@
       <c r="EA49" s="24" t="n"/>
       <c r="EB49" s="24" t="n"/>
     </row>
-    <row r="50" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="50" s="57">
       <c r="G50" s="563" t="n"/>
       <c r="M50" s="564" t="n"/>
       <c r="N50" s="61" t="n"/>
@@ -7345,7 +7391,7 @@
       <c r="EA50" s="24" t="n"/>
       <c r="EB50" s="24" t="n"/>
     </row>
-    <row r="51" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="51" s="57">
       <c r="G51" s="563" t="n"/>
       <c r="M51" s="564" t="n"/>
       <c r="N51" s="61" t="n"/>
@@ -7464,7 +7510,7 @@
       <c r="EA51" s="24" t="n"/>
       <c r="EB51" s="24" t="n"/>
     </row>
-    <row r="52" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="52" s="57">
       <c r="G52" s="570" t="n"/>
       <c r="H52" s="571" t="n"/>
       <c r="I52" s="571" t="n"/>
@@ -7592,7 +7638,7 @@
       <c r="EA52" s="24" t="n"/>
       <c r="EB52" s="24" t="n"/>
     </row>
-    <row r="53" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="53" s="57">
       <c r="G53" s="29" t="n"/>
       <c r="H53" s="29" t="n"/>
       <c r="I53" s="29" t="n"/>
@@ -7721,12 +7767,12 @@
       <c r="EB53" s="24" t="n"/>
       <c r="EC53" s="24" t="n"/>
     </row>
-    <row r="54" ht="6" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6" r="54" s="57">
       <c r="EA54" s="57" t="n"/>
       <c r="EB54" s="57" t="n"/>
       <c r="EC54" s="57" t="n"/>
     </row>
-    <row r="55" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="55" s="57">
       <c r="A55" s="447" t="n"/>
       <c r="G55" s="270" t="inlineStr">
         <is>
@@ -7760,7 +7806,7 @@
       <c r="AA55" s="121" t="n"/>
       <c r="AB55" s="591" t="inlineStr">
         <is>
-          <t>ｶﾈｺ</t>
+          <t>カネコ</t>
         </is>
       </c>
       <c r="AC55" s="552" t="n"/>
@@ -7788,7 +7834,7 @@
       <c r="AY55" s="592" t="n"/>
       <c r="AZ55" s="593" t="inlineStr">
         <is>
-          <t>ｹｲﾀ</t>
+          <t>ケイタ</t>
         </is>
       </c>
       <c r="BA55" s="552" t="n"/>
@@ -7918,7 +7964,7 @@
       <c r="EB55" s="32" t="n"/>
       <c r="EC55" s="32" t="n"/>
     </row>
-    <row r="56" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="56" s="57">
       <c r="G56" s="563" t="n"/>
       <c r="I56" s="273" t="n"/>
       <c r="J56" s="273" t="n"/>
@@ -8015,7 +8061,7 @@
       <c r="EB56" s="32" t="n"/>
       <c r="EC56" s="32" t="n"/>
     </row>
-    <row r="57" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="57" s="57">
       <c r="G57" s="600" t="inlineStr">
         <is>
           <t>被保険者
@@ -8116,7 +8162,7 @@
       <c r="EB57" s="32" t="n"/>
       <c r="EC57" s="32" t="n"/>
     </row>
-    <row r="58" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="58" s="57">
       <c r="G58" s="563" t="n"/>
       <c r="M58" s="564" t="n"/>
       <c r="N58" s="563" t="n"/>
@@ -8208,7 +8254,7 @@
       <c r="EB58" s="32" t="n"/>
       <c r="EC58" s="32" t="n"/>
     </row>
-    <row r="59" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="59" s="57">
       <c r="G59" s="563" t="n"/>
       <c r="M59" s="564" t="n"/>
       <c r="N59" s="563" t="n"/>
@@ -8292,7 +8338,7 @@
       <c r="EB59" s="32" t="n"/>
       <c r="EC59" s="32" t="n"/>
     </row>
-    <row r="60" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="60" s="57">
       <c r="G60" s="563" t="n"/>
       <c r="M60" s="564" t="n"/>
       <c r="N60" s="563" t="n"/>
@@ -8376,7 +8422,7 @@
       <c r="EB60" s="32" t="n"/>
       <c r="EC60" s="32" t="n"/>
     </row>
-    <row r="61" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="61" s="57">
       <c r="G61" s="563" t="n"/>
       <c r="M61" s="564" t="n"/>
       <c r="N61" s="563" t="n"/>
@@ -8460,7 +8506,7 @@
       <c r="EB61" s="32" t="n"/>
       <c r="EC61" s="32" t="n"/>
     </row>
-    <row r="62" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="62" s="57">
       <c r="G62" s="563" t="n"/>
       <c r="M62" s="564" t="n"/>
       <c r="N62" s="563" t="n"/>
@@ -8544,7 +8590,7 @@
       <c r="EB62" s="32" t="n"/>
       <c r="EC62" s="32" t="n"/>
     </row>
-    <row r="63" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="63" s="57">
       <c r="G63" s="563" t="n"/>
       <c r="M63" s="564" t="n"/>
       <c r="N63" s="563" t="n"/>
@@ -8628,7 +8674,7 @@
       <c r="EB63" s="32" t="n"/>
       <c r="EC63" s="32" t="n"/>
     </row>
-    <row r="64" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="64" s="57">
       <c r="G64" s="570" t="n"/>
       <c r="H64" s="571" t="n"/>
       <c r="I64" s="571" t="n"/>
@@ -8757,7 +8803,7 @@
       <c r="EB64" s="32" t="n"/>
       <c r="EC64" s="32" t="n"/>
     </row>
-    <row r="65" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="65" s="85">
       <c r="G65" s="270" t="inlineStr">
         <is>
           <t>⑤</t>
@@ -8997,7 +9043,7 @@
       <c r="EL65" s="85" t="n"/>
       <c r="EM65" s="85" t="n"/>
     </row>
-    <row r="66" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="66" s="85">
       <c r="G66" s="563" t="n"/>
       <c r="I66" s="273" t="n"/>
       <c r="J66" s="273" t="n"/>
@@ -9101,7 +9147,7 @@
       <c r="EL66" s="85" t="n"/>
       <c r="EM66" s="85" t="n"/>
     </row>
-    <row r="67" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="67" s="85">
       <c r="G67" s="600" t="inlineStr">
         <is>
           <t>取　得
@@ -9213,7 +9259,7 @@
       <c r="EL67" s="85" t="n"/>
       <c r="EM67" s="85" t="n"/>
     </row>
-    <row r="68" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="68" s="85">
       <c r="G68" s="563" t="n"/>
       <c r="M68" s="564" t="n"/>
       <c r="N68" s="621" t="inlineStr">
@@ -9308,7 +9354,7 @@
       <c r="EL68" s="85" t="n"/>
       <c r="EM68" s="85" t="n"/>
     </row>
-    <row r="69" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="69" s="85">
       <c r="G69" s="563" t="n"/>
       <c r="M69" s="564" t="n"/>
       <c r="N69" s="563" t="n"/>
@@ -9399,7 +9445,7 @@
       <c r="EL69" s="85" t="n"/>
       <c r="EM69" s="85" t="n"/>
     </row>
-    <row r="70" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="70" s="85">
       <c r="G70" s="563" t="n"/>
       <c r="M70" s="564" t="n"/>
       <c r="N70" s="563" t="n"/>
@@ -9495,7 +9541,7 @@
       <c r="EL70" s="85" t="n"/>
       <c r="EM70" s="85" t="n"/>
     </row>
-    <row r="71" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="71" s="85">
       <c r="G71" s="563" t="n"/>
       <c r="M71" s="564" t="n"/>
       <c r="N71" s="623" t="inlineStr">
@@ -9590,7 +9636,7 @@
       <c r="EL71" s="85" t="n"/>
       <c r="EM71" s="85" t="n"/>
     </row>
-    <row r="72" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="72" s="85">
       <c r="G72" s="563" t="n"/>
       <c r="M72" s="564" t="n"/>
       <c r="N72" s="563" t="n"/>
@@ -9681,7 +9727,7 @@
       <c r="EL72" s="85" t="n"/>
       <c r="EM72" s="85" t="n"/>
     </row>
-    <row r="73" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="73">
       <c r="G73" s="570" t="n"/>
       <c r="H73" s="571" t="n"/>
       <c r="I73" s="571" t="n"/>
@@ -9807,7 +9853,7 @@
       <c r="EB73" s="35" t="n"/>
       <c r="EC73" s="35" t="n"/>
     </row>
-    <row r="74" ht="6.75" customFormat="1" customHeight="1" s="43">
+    <row customFormat="1" customHeight="1" ht="6.75" r="74" s="43">
       <c r="G74" s="270" t="inlineStr">
         <is>
           <t>⑨</t>
@@ -9829,7 +9875,7 @@
       <c r="Q74" s="546" t="n"/>
       <c r="R74" s="546" t="n"/>
       <c r="S74" s="625" t="n">
-        <v>330000</v>
+        <v>3000</v>
       </c>
       <c r="T74" s="552" t="n"/>
       <c r="U74" s="552" t="n"/>
@@ -9965,7 +10011,7 @@
       <c r="EL74" s="43" t="n"/>
       <c r="EM74" s="43" t="n"/>
     </row>
-    <row r="75" ht="6.75" customFormat="1" customHeight="1" s="43">
+    <row customFormat="1" customHeight="1" ht="6.75" r="75" s="43">
       <c r="G75" s="563" t="n"/>
       <c r="I75" s="273" t="n"/>
       <c r="J75" s="273" t="n"/>
@@ -10046,7 +10092,7 @@
       <c r="EL75" s="43" t="n"/>
       <c r="EM75" s="43" t="n"/>
     </row>
-    <row r="76" ht="6.75" customFormat="1" customHeight="1" s="43">
+    <row customFormat="1" customHeight="1" ht="6.75" r="76" s="43">
       <c r="G76" s="117" t="n"/>
       <c r="H76" s="291" t="inlineStr">
         <is>
@@ -10146,7 +10192,7 @@
       <c r="EL76" s="43" t="n"/>
       <c r="EM76" s="43" t="n"/>
     </row>
-    <row r="77" ht="6.75" customFormat="1" customHeight="1" s="43">
+    <row customFormat="1" customHeight="1" ht="6.75" r="77" s="43">
       <c r="G77" s="117" t="n"/>
       <c r="M77" s="116" t="n"/>
       <c r="N77" s="626" t="n"/>
@@ -10235,7 +10281,7 @@
       <c r="EL77" s="43" t="n"/>
       <c r="EM77" s="43" t="n"/>
     </row>
-    <row r="78" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="78">
       <c r="G78" s="117" t="n"/>
       <c r="M78" s="116" t="n"/>
       <c r="N78" s="629" t="inlineStr">
@@ -10311,7 +10357,7 @@
       <c r="EB78" s="39" t="n"/>
       <c r="EC78" s="39" t="n"/>
     </row>
-    <row r="79" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="79">
       <c r="G79" s="117" t="n"/>
       <c r="M79" s="116" t="n"/>
       <c r="N79" s="563" t="n"/>
@@ -10416,7 +10462,7 @@
       <c r="EB79" s="39" t="n"/>
       <c r="EC79" s="39" t="n"/>
     </row>
-    <row r="80" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="80">
       <c r="G80" s="117" t="n"/>
       <c r="M80" s="116" t="n"/>
       <c r="N80" s="563" t="n"/>
@@ -10512,7 +10558,7 @@
       <c r="EB80" s="39" t="n"/>
       <c r="EC80" s="39" t="n"/>
     </row>
-    <row r="81" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="81" s="57">
       <c r="G81" s="118" t="n"/>
       <c r="H81" s="571" t="n"/>
       <c r="I81" s="571" t="n"/>
@@ -10640,7 +10686,7 @@
       <c r="EB81" s="39" t="n"/>
       <c r="EC81" s="39" t="n"/>
     </row>
-    <row r="82" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="82" s="57">
       <c r="G82" s="270" t="inlineStr">
         <is>
           <t>⑪</t>
@@ -10787,7 +10833,7 @@
       <c r="EB82" s="43" t="n"/>
       <c r="EC82" s="43" t="n"/>
     </row>
-    <row r="83" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="83" s="57">
       <c r="G83" s="563" t="n"/>
       <c r="I83" s="273" t="n"/>
       <c r="J83" s="273" t="n"/>
@@ -10873,7 +10919,7 @@
       <c r="EB83" s="43" t="n"/>
       <c r="EC83" s="43" t="n"/>
     </row>
-    <row r="84" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="84" s="57">
       <c r="G84" s="600" t="inlineStr">
         <is>
           <t>住　所</t>
@@ -11003,7 +11049,7 @@
       <c r="EB84" s="43" t="n"/>
       <c r="EC84" s="43" t="n"/>
     </row>
-    <row r="85" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="85" s="57">
       <c r="G85" s="563" t="n"/>
       <c r="M85" s="564" t="n"/>
       <c r="N85" s="563" t="n"/>
@@ -11120,7 +11166,7 @@
       <c r="EB85" s="43" t="n"/>
       <c r="EC85" s="43" t="n"/>
     </row>
-    <row r="86" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="86" s="57">
       <c r="G86" s="563" t="n"/>
       <c r="M86" s="564" t="n"/>
       <c r="N86" s="225" t="n"/>
@@ -11240,7 +11286,7 @@
       <c r="EB86" s="43" t="n"/>
       <c r="EC86" s="43" t="n"/>
     </row>
-    <row r="87" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="87" s="57">
       <c r="G87" s="563" t="n"/>
       <c r="M87" s="564" t="n"/>
       <c r="N87" s="569" t="n"/>
@@ -11360,7 +11406,7 @@
       <c r="EB87" s="43" t="n"/>
       <c r="EC87" s="43" t="n"/>
     </row>
-    <row r="88" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="88" s="57">
       <c r="G88" s="570" t="n"/>
       <c r="H88" s="571" t="n"/>
       <c r="I88" s="571" t="n"/>
@@ -11489,7 +11535,7 @@
       <c r="EB88" s="43" t="n"/>
       <c r="EC88" s="43" t="n"/>
     </row>
-    <row r="89" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="89" s="57">
       <c r="G89" s="128" t="n"/>
       <c r="H89" s="128" t="n"/>
       <c r="I89" s="128" t="n"/>
@@ -11618,7 +11664,7 @@
       <c r="EB89" s="57" t="n"/>
       <c r="EC89" s="57" t="n"/>
     </row>
-    <row r="90" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="90" s="57">
       <c r="A90" s="447" t="n"/>
       <c r="G90" s="270" t="inlineStr">
         <is>
@@ -11778,7 +11824,7 @@
       <c r="EB90" s="32" t="n"/>
       <c r="EC90" s="32" t="n"/>
     </row>
-    <row r="91" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="91" s="57">
       <c r="A91" s="447" t="n"/>
       <c r="G91" s="563" t="n"/>
       <c r="I91" s="273" t="n"/>
@@ -11876,7 +11922,7 @@
       <c r="EB91" s="32" t="n"/>
       <c r="EC91" s="32" t="n"/>
     </row>
-    <row r="92" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="92" s="57">
       <c r="A92" s="447" t="n"/>
       <c r="G92" s="600" t="inlineStr">
         <is>
@@ -11978,7 +12024,7 @@
       <c r="EB92" s="32" t="n"/>
       <c r="EC92" s="32" t="n"/>
     </row>
-    <row r="93" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="93" s="57">
       <c r="A93" s="447" t="n"/>
       <c r="G93" s="563" t="n"/>
       <c r="M93" s="564" t="n"/>
@@ -12063,7 +12109,7 @@
       <c r="EB93" s="32" t="n"/>
       <c r="EC93" s="32" t="n"/>
     </row>
-    <row r="94" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="94" s="57">
       <c r="A94" s="447" t="n"/>
       <c r="G94" s="563" t="n"/>
       <c r="M94" s="564" t="n"/>
@@ -12148,7 +12194,7 @@
       <c r="EB94" s="32" t="n"/>
       <c r="EC94" s="32" t="n"/>
     </row>
-    <row r="95" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="95" s="57">
       <c r="A95" s="447" t="n"/>
       <c r="G95" s="563" t="n"/>
       <c r="M95" s="564" t="n"/>
@@ -12233,7 +12279,7 @@
       <c r="EB95" s="32" t="n"/>
       <c r="EC95" s="32" t="n"/>
     </row>
-    <row r="96" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="96" s="57">
       <c r="A96" s="447" t="n"/>
       <c r="G96" s="563" t="n"/>
       <c r="M96" s="564" t="n"/>
@@ -12318,7 +12364,7 @@
       <c r="EB96" s="32" t="n"/>
       <c r="EC96" s="32" t="n"/>
     </row>
-    <row r="97" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="97">
       <c r="A97" s="447" t="n"/>
       <c r="G97" s="563" t="n"/>
       <c r="M97" s="564" t="n"/>
@@ -12403,7 +12449,7 @@
       <c r="EB97" s="32" t="n"/>
       <c r="EC97" s="32" t="n"/>
     </row>
-    <row r="98" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="98">
       <c r="A98" s="447" t="n"/>
       <c r="G98" s="563" t="n"/>
       <c r="M98" s="564" t="n"/>
@@ -12488,7 +12534,7 @@
       <c r="EB98" s="32" t="n"/>
       <c r="EC98" s="32" t="n"/>
     </row>
-    <row r="99" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="99">
       <c r="A99" s="447" t="n"/>
       <c r="G99" s="570" t="n"/>
       <c r="H99" s="571" t="n"/>
@@ -12618,7 +12664,7 @@
       <c r="EB99" s="32" t="n"/>
       <c r="EC99" s="32" t="n"/>
     </row>
-    <row r="100" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="100" s="85">
       <c r="A100" s="447" t="n"/>
       <c r="G100" s="270" t="inlineStr">
         <is>
@@ -12787,7 +12833,7 @@
       <c r="EL100" s="85" t="n"/>
       <c r="EM100" s="85" t="n"/>
     </row>
-    <row r="101" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="101" s="85">
       <c r="A101" s="447" t="n"/>
       <c r="G101" s="563" t="n"/>
       <c r="I101" s="273" t="n"/>
@@ -12892,7 +12938,7 @@
       <c r="EL101" s="85" t="n"/>
       <c r="EM101" s="85" t="n"/>
     </row>
-    <row r="102" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="102" s="85">
       <c r="A102" s="447" t="n"/>
       <c r="G102" s="600" t="inlineStr">
         <is>
@@ -13005,7 +13051,7 @@
       <c r="EL102" s="85" t="n"/>
       <c r="EM102" s="85" t="n"/>
     </row>
-    <row r="103" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="103" s="85">
       <c r="A103" s="447" t="n"/>
       <c r="G103" s="563" t="n"/>
       <c r="M103" s="564" t="n"/>
@@ -13101,7 +13147,7 @@
       <c r="EL103" s="85" t="n"/>
       <c r="EM103" s="85" t="n"/>
     </row>
-    <row r="104" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="104" s="85">
       <c r="A104" s="447" t="n"/>
       <c r="G104" s="563" t="n"/>
       <c r="M104" s="564" t="n"/>
@@ -13193,7 +13239,7 @@
       <c r="EL104" s="85" t="n"/>
       <c r="EM104" s="85" t="n"/>
     </row>
-    <row r="105" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="105" s="85">
       <c r="A105" s="447" t="n"/>
       <c r="G105" s="563" t="n"/>
       <c r="M105" s="564" t="n"/>
@@ -13290,7 +13336,7 @@
       <c r="EL105" s="85" t="n"/>
       <c r="EM105" s="85" t="n"/>
     </row>
-    <row r="106" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="106" s="85">
       <c r="A106" s="447" t="n"/>
       <c r="G106" s="563" t="n"/>
       <c r="M106" s="564" t="n"/>
@@ -13386,7 +13432,7 @@
       <c r="EL106" s="85" t="n"/>
       <c r="EM106" s="85" t="n"/>
     </row>
-    <row r="107" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="107" s="85">
       <c r="A107" s="447" t="n"/>
       <c r="G107" s="563" t="n"/>
       <c r="M107" s="564" t="n"/>
@@ -13478,7 +13524,7 @@
       <c r="EL107" s="85" t="n"/>
       <c r="EM107" s="85" t="n"/>
     </row>
-    <row r="108" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="108">
       <c r="A108" s="447" t="n"/>
       <c r="G108" s="570" t="n"/>
       <c r="H108" s="571" t="n"/>
@@ -13605,7 +13651,7 @@
       <c r="EB108" s="35" t="n"/>
       <c r="EC108" s="35" t="n"/>
     </row>
-    <row r="109" ht="6.75" customFormat="1" customHeight="1" s="43">
+    <row customFormat="1" customHeight="1" ht="6.75" r="109" s="43">
       <c r="A109" s="447" t="n"/>
       <c r="G109" s="270" t="inlineStr">
         <is>
@@ -13762,7 +13808,7 @@
       <c r="EL109" s="43" t="n"/>
       <c r="EM109" s="43" t="n"/>
     </row>
-    <row r="110" ht="6.75" customFormat="1" customHeight="1" s="43">
+    <row customFormat="1" customHeight="1" ht="6.75" r="110" s="43">
       <c r="A110" s="447" t="n"/>
       <c r="G110" s="563" t="n"/>
       <c r="I110" s="273" t="n"/>
@@ -13844,7 +13890,7 @@
       <c r="EL110" s="43" t="n"/>
       <c r="EM110" s="43" t="n"/>
     </row>
-    <row r="111" ht="6.75" customFormat="1" customHeight="1" s="43">
+    <row customFormat="1" customHeight="1" ht="6.75" r="111" s="43">
       <c r="A111" s="447" t="n"/>
       <c r="G111" s="117" t="n"/>
       <c r="H111" s="291" t="inlineStr">
@@ -13945,7 +13991,7 @@
       <c r="EL111" s="43" t="n"/>
       <c r="EM111" s="43" t="n"/>
     </row>
-    <row r="112" ht="6.75" customFormat="1" customHeight="1" s="43">
+    <row customFormat="1" customHeight="1" ht="6.75" r="112" s="43">
       <c r="A112" s="447" t="n"/>
       <c r="G112" s="117" t="n"/>
       <c r="M112" s="116" t="n"/>
@@ -14035,7 +14081,7 @@
       <c r="EL112" s="43" t="n"/>
       <c r="EM112" s="43" t="n"/>
     </row>
-    <row r="113" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="113" s="57">
       <c r="A113" s="447" t="n"/>
       <c r="G113" s="117" t="n"/>
       <c r="M113" s="116" t="n"/>
@@ -14113,7 +14159,7 @@
       <c r="EB113" s="39" t="n"/>
       <c r="EC113" s="39" t="n"/>
     </row>
-    <row r="114" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="114" s="57">
       <c r="A114" s="447" t="n"/>
       <c r="G114" s="117" t="n"/>
       <c r="M114" s="116" t="n"/>
@@ -14220,7 +14266,7 @@
       <c r="EB114" s="39" t="n"/>
       <c r="EC114" s="39" t="n"/>
     </row>
-    <row r="115" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="115" s="57">
       <c r="A115" s="447" t="n"/>
       <c r="G115" s="117" t="n"/>
       <c r="M115" s="116" t="n"/>
@@ -14318,7 +14364,7 @@
       <c r="EB115" s="39" t="n"/>
       <c r="EC115" s="39" t="n"/>
     </row>
-    <row r="116" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="116" s="57">
       <c r="A116" s="447" t="n"/>
       <c r="G116" s="118" t="n"/>
       <c r="H116" s="571" t="n"/>
@@ -14448,7 +14494,7 @@
       <c r="EB116" s="39" t="n"/>
       <c r="EC116" s="39" t="n"/>
     </row>
-    <row r="117" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="117" s="57">
       <c r="A117" s="447" t="n"/>
       <c r="G117" s="270" t="inlineStr">
         <is>
@@ -14596,7 +14642,7 @@
       <c r="EB117" s="43" t="n"/>
       <c r="EC117" s="43" t="n"/>
     </row>
-    <row r="118" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="118" s="57">
       <c r="A118" s="447" t="n"/>
       <c r="G118" s="563" t="n"/>
       <c r="I118" s="273" t="n"/>
@@ -14683,7 +14729,7 @@
       <c r="EB118" s="43" t="n"/>
       <c r="EC118" s="43" t="n"/>
     </row>
-    <row r="119" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="119" s="57">
       <c r="A119" s="447" t="n"/>
       <c r="G119" s="600" t="inlineStr">
         <is>
@@ -14814,7 +14860,7 @@
       <c r="EB119" s="43" t="n"/>
       <c r="EC119" s="43" t="n"/>
     </row>
-    <row r="120" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="120" s="57">
       <c r="A120" s="447" t="n"/>
       <c r="G120" s="563" t="n"/>
       <c r="M120" s="564" t="n"/>
@@ -14932,7 +14978,7 @@
       <c r="EB120" s="43" t="n"/>
       <c r="EC120" s="43" t="n"/>
     </row>
-    <row r="121" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="121" s="57">
       <c r="A121" s="447" t="n"/>
       <c r="G121" s="563" t="n"/>
       <c r="M121" s="564" t="n"/>
@@ -15053,7 +15099,7 @@
       <c r="EB121" s="43" t="n"/>
       <c r="EC121" s="43" t="n"/>
     </row>
-    <row r="122" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="122" s="57">
       <c r="A122" s="447" t="n"/>
       <c r="G122" s="563" t="n"/>
       <c r="M122" s="564" t="n"/>
@@ -15174,7 +15220,7 @@
       <c r="EB122" s="43" t="n"/>
       <c r="EC122" s="43" t="n"/>
     </row>
-    <row r="123" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="123" s="57">
       <c r="A123" s="447" t="n"/>
       <c r="G123" s="570" t="n"/>
       <c r="H123" s="571" t="n"/>
@@ -15304,7 +15350,7 @@
       <c r="EB123" s="43" t="n"/>
       <c r="EC123" s="43" t="n"/>
     </row>
-    <row r="124" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="124" s="57">
       <c r="DN124" s="52" t="n"/>
       <c r="DO124" s="52" t="n"/>
       <c r="DP124" s="52" t="n"/>
@@ -15322,7 +15368,7 @@
       <c r="EB124" s="57" t="n"/>
       <c r="EC124" s="57" t="n"/>
     </row>
-    <row r="125" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="125" s="57">
       <c r="A125" s="447" t="n"/>
       <c r="G125" s="270" t="inlineStr">
         <is>
@@ -15482,7 +15528,7 @@
       <c r="EB125" s="32" t="n"/>
       <c r="EC125" s="32" t="n"/>
     </row>
-    <row r="126" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="126" s="57">
       <c r="A126" s="447" t="n"/>
       <c r="G126" s="563" t="n"/>
       <c r="I126" s="273" t="n"/>
@@ -15580,7 +15626,7 @@
       <c r="EB126" s="32" t="n"/>
       <c r="EC126" s="32" t="n"/>
     </row>
-    <row r="127" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="127" s="57">
       <c r="A127" s="447" t="n"/>
       <c r="G127" s="600" t="inlineStr">
         <is>
@@ -15682,7 +15728,7 @@
       <c r="EB127" s="32" t="n"/>
       <c r="EC127" s="32" t="n"/>
     </row>
-    <row r="128" ht="6.75" customFormat="1" customHeight="1" s="57">
+    <row customFormat="1" customHeight="1" ht="6.75" r="128" s="57">
       <c r="A128" s="447" t="n"/>
       <c r="G128" s="563" t="n"/>
       <c r="M128" s="564" t="n"/>
@@ -15767,7 +15813,7 @@
       <c r="EB128" s="32" t="n"/>
       <c r="EC128" s="32" t="n"/>
     </row>
-    <row r="129" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="129">
       <c r="A129" s="447" t="n"/>
       <c r="G129" s="563" t="n"/>
       <c r="M129" s="564" t="n"/>
@@ -15852,7 +15898,7 @@
       <c r="EB129" s="32" t="n"/>
       <c r="EC129" s="32" t="n"/>
     </row>
-    <row r="130" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="130">
       <c r="A130" s="447" t="n"/>
       <c r="G130" s="563" t="n"/>
       <c r="M130" s="564" t="n"/>
@@ -15937,7 +15983,7 @@
       <c r="EB130" s="32" t="n"/>
       <c r="EC130" s="32" t="n"/>
     </row>
-    <row r="131" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="131">
       <c r="A131" s="447" t="n"/>
       <c r="G131" s="563" t="n"/>
       <c r="M131" s="564" t="n"/>
@@ -16022,7 +16068,7 @@
       <c r="EB131" s="32" t="n"/>
       <c r="EC131" s="32" t="n"/>
     </row>
-    <row r="132" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="132">
       <c r="A132" s="447" t="n"/>
       <c r="G132" s="563" t="n"/>
       <c r="M132" s="564" t="n"/>
@@ -16107,7 +16153,7 @@
       <c r="EB132" s="32" t="n"/>
       <c r="EC132" s="32" t="n"/>
     </row>
-    <row r="133" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="133">
       <c r="A133" s="447" t="n"/>
       <c r="G133" s="563" t="n"/>
       <c r="M133" s="564" t="n"/>
@@ -16192,7 +16238,7 @@
       <c r="EB133" s="32" t="n"/>
       <c r="EC133" s="32" t="n"/>
     </row>
-    <row r="134" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="134">
       <c r="A134" s="447" t="n"/>
       <c r="G134" s="570" t="n"/>
       <c r="H134" s="571" t="n"/>
@@ -16322,7 +16368,7 @@
       <c r="EB134" s="32" t="n"/>
       <c r="EC134" s="32" t="n"/>
     </row>
-    <row r="135" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="135" s="85">
       <c r="A135" s="447" t="n"/>
       <c r="G135" s="270" t="inlineStr">
         <is>
@@ -16491,7 +16537,7 @@
       <c r="EL135" s="85" t="n"/>
       <c r="EM135" s="85" t="n"/>
     </row>
-    <row r="136" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="136" s="85">
       <c r="A136" s="447" t="n"/>
       <c r="G136" s="563" t="n"/>
       <c r="I136" s="273" t="n"/>
@@ -16596,7 +16642,7 @@
       <c r="EL136" s="85" t="n"/>
       <c r="EM136" s="85" t="n"/>
     </row>
-    <row r="137" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="137" s="85">
       <c r="A137" s="447" t="n"/>
       <c r="G137" s="600" t="inlineStr">
         <is>
@@ -16709,7 +16755,7 @@
       <c r="EL137" s="85" t="n"/>
       <c r="EM137" s="85" t="n"/>
     </row>
-    <row r="138" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="138" s="85">
       <c r="A138" s="447" t="n"/>
       <c r="G138" s="563" t="n"/>
       <c r="M138" s="564" t="n"/>
@@ -16805,7 +16851,7 @@
       <c r="EL138" s="85" t="n"/>
       <c r="EM138" s="85" t="n"/>
     </row>
-    <row r="139" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="139" s="85">
       <c r="A139" s="447" t="n"/>
       <c r="G139" s="563" t="n"/>
       <c r="M139" s="564" t="n"/>
@@ -16897,7 +16943,7 @@
       <c r="EL139" s="85" t="n"/>
       <c r="EM139" s="85" t="n"/>
     </row>
-    <row r="140" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="140" s="85">
       <c r="A140" s="447" t="n"/>
       <c r="G140" s="563" t="n"/>
       <c r="M140" s="564" t="n"/>
@@ -16994,7 +17040,7 @@
       <c r="EL140" s="85" t="n"/>
       <c r="EM140" s="85" t="n"/>
     </row>
-    <row r="141" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="141" s="85">
       <c r="A141" s="447" t="n"/>
       <c r="G141" s="563" t="n"/>
       <c r="M141" s="564" t="n"/>
@@ -17090,7 +17136,7 @@
       <c r="EL141" s="85" t="n"/>
       <c r="EM141" s="85" t="n"/>
     </row>
-    <row r="142" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="142" s="85">
       <c r="A142" s="447" t="n"/>
       <c r="G142" s="563" t="n"/>
       <c r="M142" s="564" t="n"/>
@@ -17182,7 +17228,7 @@
       <c r="EL142" s="85" t="n"/>
       <c r="EM142" s="85" t="n"/>
     </row>
-    <row r="143" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="143">
       <c r="A143" s="447" t="n"/>
       <c r="G143" s="570" t="n"/>
       <c r="H143" s="571" t="n"/>
@@ -17309,7 +17355,7 @@
       <c r="EB143" s="35" t="n"/>
       <c r="EC143" s="35" t="n"/>
     </row>
-    <row r="144" ht="6.75" customFormat="1" customHeight="1" s="43">
+    <row customFormat="1" customHeight="1" ht="6.75" r="144" s="43">
       <c r="A144" s="447" t="n"/>
       <c r="G144" s="270" t="inlineStr">
         <is>
@@ -17466,7 +17512,7 @@
       <c r="EL144" s="43" t="n"/>
       <c r="EM144" s="43" t="n"/>
     </row>
-    <row r="145" ht="6.75" customFormat="1" customHeight="1" s="43">
+    <row customFormat="1" customHeight="1" ht="6.75" r="145" s="43">
       <c r="A145" s="447" t="n"/>
       <c r="G145" s="563" t="n"/>
       <c r="I145" s="273" t="n"/>
@@ -17548,7 +17594,7 @@
       <c r="EL145" s="43" t="n"/>
       <c r="EM145" s="43" t="n"/>
     </row>
-    <row r="146" ht="6.75" customFormat="1" customHeight="1" s="43">
+    <row customFormat="1" customHeight="1" ht="6.75" r="146" s="43">
       <c r="A146" s="447" t="n"/>
       <c r="G146" s="117" t="n"/>
       <c r="H146" s="291" t="inlineStr">
@@ -17649,7 +17695,7 @@
       <c r="EL146" s="43" t="n"/>
       <c r="EM146" s="43" t="n"/>
     </row>
-    <row r="147" ht="6.75" customFormat="1" customHeight="1" s="43">
+    <row customFormat="1" customHeight="1" ht="6.75" r="147" s="43">
       <c r="A147" s="447" t="n"/>
       <c r="G147" s="117" t="n"/>
       <c r="M147" s="116" t="n"/>
@@ -17739,7 +17785,7 @@
       <c r="EL147" s="43" t="n"/>
       <c r="EM147" s="43" t="n"/>
     </row>
-    <row r="148" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="148">
       <c r="A148" s="447" t="n"/>
       <c r="G148" s="117" t="n"/>
       <c r="M148" s="116" t="n"/>
@@ -17817,7 +17863,7 @@
       <c r="EB148" s="39" t="n"/>
       <c r="EC148" s="39" t="n"/>
     </row>
-    <row r="149" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="149">
       <c r="A149" s="447" t="n"/>
       <c r="G149" s="117" t="n"/>
       <c r="M149" s="116" t="n"/>
@@ -17924,7 +17970,7 @@
       <c r="EB149" s="39" t="n"/>
       <c r="EC149" s="39" t="n"/>
     </row>
-    <row r="150" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="150">
       <c r="A150" s="447" t="n"/>
       <c r="G150" s="117" t="n"/>
       <c r="M150" s="116" t="n"/>
@@ -18022,7 +18068,7 @@
       <c r="EB150" s="39" t="n"/>
       <c r="EC150" s="39" t="n"/>
     </row>
-    <row r="151" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="151">
       <c r="A151" s="447" t="n"/>
       <c r="G151" s="118" t="n"/>
       <c r="H151" s="571" t="n"/>
@@ -18152,7 +18198,7 @@
       <c r="EB151" s="39" t="n"/>
       <c r="EC151" s="39" t="n"/>
     </row>
-    <row r="152" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="152">
       <c r="A152" s="447" t="n"/>
       <c r="G152" s="270" t="inlineStr">
         <is>
@@ -18300,7 +18346,7 @@
       <c r="EB152" s="43" t="n"/>
       <c r="EC152" s="43" t="n"/>
     </row>
-    <row r="153" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="153">
       <c r="A153" s="447" t="n"/>
       <c r="G153" s="563" t="n"/>
       <c r="I153" s="273" t="n"/>
@@ -18387,7 +18433,7 @@
       <c r="EB153" s="43" t="n"/>
       <c r="EC153" s="43" t="n"/>
     </row>
-    <row r="154" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="154">
       <c r="A154" s="447" t="n"/>
       <c r="G154" s="600" t="inlineStr">
         <is>
@@ -18518,7 +18564,7 @@
       <c r="EB154" s="43" t="n"/>
       <c r="EC154" s="43" t="n"/>
     </row>
-    <row r="155" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="155">
       <c r="A155" s="447" t="n"/>
       <c r="G155" s="563" t="n"/>
       <c r="M155" s="564" t="n"/>
@@ -18636,7 +18682,7 @@
       <c r="EB155" s="43" t="n"/>
       <c r="EC155" s="43" t="n"/>
     </row>
-    <row r="156" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="156">
       <c r="A156" s="447" t="n"/>
       <c r="G156" s="563" t="n"/>
       <c r="M156" s="564" t="n"/>
@@ -18757,7 +18803,7 @@
       <c r="EB156" s="43" t="n"/>
       <c r="EC156" s="43" t="n"/>
     </row>
-    <row r="157" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="157">
       <c r="A157" s="447" t="n"/>
       <c r="G157" s="563" t="n"/>
       <c r="M157" s="564" t="n"/>
@@ -18878,7 +18924,7 @@
       <c r="EB157" s="43" t="n"/>
       <c r="EC157" s="43" t="n"/>
     </row>
-    <row r="158" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="158">
       <c r="A158" s="447" t="n"/>
       <c r="G158" s="570" t="n"/>
       <c r="H158" s="571" t="n"/>
@@ -19008,7 +19054,7 @@
       <c r="EB158" s="43" t="n"/>
       <c r="EC158" s="43" t="n"/>
     </row>
-    <row r="159" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="159">
       <c r="DN159" s="52" t="n"/>
       <c r="DO159" s="52" t="n"/>
       <c r="DP159" s="52" t="n"/>
@@ -19026,7 +19072,7 @@
       <c r="EB159" s="57" t="n"/>
       <c r="EC159" s="57" t="n"/>
     </row>
-    <row r="160" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="160">
       <c r="A160" s="447" t="n"/>
       <c r="G160" s="270" t="inlineStr">
         <is>
@@ -19186,7 +19232,7 @@
       <c r="EB160" s="32" t="n"/>
       <c r="EC160" s="32" t="n"/>
     </row>
-    <row r="161" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="161">
       <c r="A161" s="447" t="n"/>
       <c r="G161" s="563" t="n"/>
       <c r="I161" s="273" t="n"/>
@@ -19284,7 +19330,7 @@
       <c r="EB161" s="32" t="n"/>
       <c r="EC161" s="32" t="n"/>
     </row>
-    <row r="162" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="162">
       <c r="A162" s="447" t="n"/>
       <c r="G162" s="600" t="inlineStr">
         <is>
@@ -19386,7 +19432,7 @@
       <c r="EB162" s="32" t="n"/>
       <c r="EC162" s="32" t="n"/>
     </row>
-    <row r="163" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="163">
       <c r="A163" s="447" t="n"/>
       <c r="G163" s="563" t="n"/>
       <c r="M163" s="564" t="n"/>
@@ -19471,7 +19517,7 @@
       <c r="EB163" s="32" t="n"/>
       <c r="EC163" s="32" t="n"/>
     </row>
-    <row r="164" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="164">
       <c r="A164" s="447" t="n"/>
       <c r="G164" s="563" t="n"/>
       <c r="M164" s="564" t="n"/>
@@ -19556,7 +19602,7 @@
       <c r="EB164" s="32" t="n"/>
       <c r="EC164" s="32" t="n"/>
     </row>
-    <row r="165" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="165">
       <c r="A165" s="447" t="n"/>
       <c r="G165" s="563" t="n"/>
       <c r="M165" s="564" t="n"/>
@@ -19641,7 +19687,7 @@
       <c r="EB165" s="32" t="n"/>
       <c r="EC165" s="32" t="n"/>
     </row>
-    <row r="166" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="166">
       <c r="A166" s="447" t="n"/>
       <c r="G166" s="563" t="n"/>
       <c r="M166" s="564" t="n"/>
@@ -19726,7 +19772,7 @@
       <c r="EB166" s="32" t="n"/>
       <c r="EC166" s="32" t="n"/>
     </row>
-    <row r="167" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="167">
       <c r="A167" s="447" t="n"/>
       <c r="G167" s="563" t="n"/>
       <c r="M167" s="564" t="n"/>
@@ -19811,7 +19857,7 @@
       <c r="EB167" s="32" t="n"/>
       <c r="EC167" s="32" t="n"/>
     </row>
-    <row r="168" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="168">
       <c r="A168" s="447" t="n"/>
       <c r="G168" s="563" t="n"/>
       <c r="M168" s="564" t="n"/>
@@ -19896,7 +19942,7 @@
       <c r="EB168" s="32" t="n"/>
       <c r="EC168" s="32" t="n"/>
     </row>
-    <row r="169" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="169">
       <c r="A169" s="447" t="n"/>
       <c r="G169" s="570" t="n"/>
       <c r="H169" s="571" t="n"/>
@@ -20026,7 +20072,7 @@
       <c r="EB169" s="32" t="n"/>
       <c r="EC169" s="32" t="n"/>
     </row>
-    <row r="170" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="170" s="85">
       <c r="A170" s="447" t="n"/>
       <c r="G170" s="270" t="inlineStr">
         <is>
@@ -20195,7 +20241,7 @@
       <c r="EL170" s="85" t="n"/>
       <c r="EM170" s="85" t="n"/>
     </row>
-    <row r="171" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="171" s="85">
       <c r="A171" s="447" t="n"/>
       <c r="G171" s="563" t="n"/>
       <c r="I171" s="273" t="n"/>
@@ -20300,7 +20346,7 @@
       <c r="EL171" s="85" t="n"/>
       <c r="EM171" s="85" t="n"/>
     </row>
-    <row r="172" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="172" s="85">
       <c r="A172" s="447" t="n"/>
       <c r="G172" s="600" t="inlineStr">
         <is>
@@ -20413,7 +20459,7 @@
       <c r="EL172" s="85" t="n"/>
       <c r="EM172" s="85" t="n"/>
     </row>
-    <row r="173" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="173" s="85">
       <c r="A173" s="447" t="n"/>
       <c r="G173" s="563" t="n"/>
       <c r="M173" s="564" t="n"/>
@@ -20509,7 +20555,7 @@
       <c r="EL173" s="85" t="n"/>
       <c r="EM173" s="85" t="n"/>
     </row>
-    <row r="174" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="174" s="85">
       <c r="A174" s="447" t="n"/>
       <c r="G174" s="563" t="n"/>
       <c r="M174" s="564" t="n"/>
@@ -20601,7 +20647,7 @@
       <c r="EL174" s="85" t="n"/>
       <c r="EM174" s="85" t="n"/>
     </row>
-    <row r="175" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="175" s="85">
       <c r="A175" s="447" t="n"/>
       <c r="G175" s="563" t="n"/>
       <c r="M175" s="564" t="n"/>
@@ -20698,7 +20744,7 @@
       <c r="EL175" s="85" t="n"/>
       <c r="EM175" s="85" t="n"/>
     </row>
-    <row r="176" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="176" s="85">
       <c r="A176" s="447" t="n"/>
       <c r="G176" s="563" t="n"/>
       <c r="M176" s="564" t="n"/>
@@ -20794,7 +20840,7 @@
       <c r="EL176" s="85" t="n"/>
       <c r="EM176" s="85" t="n"/>
     </row>
-    <row r="177" ht="6.75" customFormat="1" customHeight="1" s="85">
+    <row customFormat="1" customHeight="1" ht="6.75" r="177" s="85">
       <c r="A177" s="447" t="n"/>
       <c r="G177" s="563" t="n"/>
       <c r="M177" s="564" t="n"/>
@@ -20886,7 +20932,7 @@
       <c r="EL177" s="85" t="n"/>
       <c r="EM177" s="85" t="n"/>
     </row>
-    <row r="178" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="178">
       <c r="A178" s="447" t="n"/>
       <c r="G178" s="570" t="n"/>
       <c r="H178" s="571" t="n"/>
@@ -21013,7 +21059,7 @@
       <c r="EB178" s="35" t="n"/>
       <c r="EC178" s="35" t="n"/>
     </row>
-    <row r="179" ht="6.75" customFormat="1" customHeight="1" s="43">
+    <row customFormat="1" customHeight="1" ht="6.75" r="179" s="43">
       <c r="A179" s="447" t="n"/>
       <c r="G179" s="270" t="inlineStr">
         <is>
@@ -21170,7 +21216,7 @@
       <c r="EL179" s="43" t="n"/>
       <c r="EM179" s="43" t="n"/>
     </row>
-    <row r="180" ht="6.75" customFormat="1" customHeight="1" s="43">
+    <row customFormat="1" customHeight="1" ht="6.75" r="180" s="43">
       <c r="A180" s="447" t="n"/>
       <c r="G180" s="563" t="n"/>
       <c r="I180" s="273" t="n"/>
@@ -21252,7 +21298,7 @@
       <c r="EL180" s="43" t="n"/>
       <c r="EM180" s="43" t="n"/>
     </row>
-    <row r="181" ht="6.75" customFormat="1" customHeight="1" s="43">
+    <row customFormat="1" customHeight="1" ht="6.75" r="181" s="43">
       <c r="A181" s="447" t="n"/>
       <c r="G181" s="117" t="n"/>
       <c r="H181" s="291" t="inlineStr">
@@ -21353,7 +21399,7 @@
       <c r="EL181" s="43" t="n"/>
       <c r="EM181" s="43" t="n"/>
     </row>
-    <row r="182" ht="6.75" customFormat="1" customHeight="1" s="43">
+    <row customFormat="1" customHeight="1" ht="6.75" r="182" s="43">
       <c r="A182" s="447" t="n"/>
       <c r="G182" s="117" t="n"/>
       <c r="M182" s="116" t="n"/>
@@ -21443,7 +21489,7 @@
       <c r="EL182" s="43" t="n"/>
       <c r="EM182" s="43" t="n"/>
     </row>
-    <row r="183" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="183">
       <c r="A183" s="447" t="n"/>
       <c r="G183" s="117" t="n"/>
       <c r="M183" s="116" t="n"/>
@@ -21521,7 +21567,7 @@
       <c r="EB183" s="39" t="n"/>
       <c r="EC183" s="39" t="n"/>
     </row>
-    <row r="184" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="184">
       <c r="A184" s="447" t="n"/>
       <c r="G184" s="117" t="n"/>
       <c r="M184" s="116" t="n"/>
@@ -21628,7 +21674,7 @@
       <c r="EB184" s="39" t="n"/>
       <c r="EC184" s="39" t="n"/>
     </row>
-    <row r="185" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="185">
       <c r="A185" s="447" t="n"/>
       <c r="G185" s="117" t="n"/>
       <c r="M185" s="116" t="n"/>
@@ -21726,7 +21772,7 @@
       <c r="EB185" s="39" t="n"/>
       <c r="EC185" s="39" t="n"/>
     </row>
-    <row r="186" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="186">
       <c r="A186" s="447" t="n"/>
       <c r="G186" s="118" t="n"/>
       <c r="H186" s="571" t="n"/>
@@ -21856,7 +21902,7 @@
       <c r="EB186" s="39" t="n"/>
       <c r="EC186" s="39" t="n"/>
     </row>
-    <row r="187" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="187">
       <c r="A187" s="447" t="n"/>
       <c r="G187" s="270" t="inlineStr">
         <is>
@@ -22004,7 +22050,7 @@
       <c r="EB187" s="43" t="n"/>
       <c r="EC187" s="43" t="n"/>
     </row>
-    <row r="188" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="188">
       <c r="A188" s="447" t="n"/>
       <c r="G188" s="563" t="n"/>
       <c r="I188" s="273" t="n"/>
@@ -22091,7 +22137,7 @@
       <c r="EB188" s="43" t="n"/>
       <c r="EC188" s="43" t="n"/>
     </row>
-    <row r="189" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="189">
       <c r="A189" s="447" t="n"/>
       <c r="G189" s="600" t="inlineStr">
         <is>
@@ -22222,7 +22268,7 @@
       <c r="EB189" s="43" t="n"/>
       <c r="EC189" s="43" t="n"/>
     </row>
-    <row r="190" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="190">
       <c r="A190" s="447" t="n"/>
       <c r="G190" s="563" t="n"/>
       <c r="M190" s="564" t="n"/>
@@ -22340,7 +22386,7 @@
       <c r="EB190" s="43" t="n"/>
       <c r="EC190" s="43" t="n"/>
     </row>
-    <row r="191" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="191">
       <c r="A191" s="447" t="n"/>
       <c r="G191" s="563" t="n"/>
       <c r="M191" s="564" t="n"/>
@@ -22461,7 +22507,7 @@
       <c r="EB191" s="43" t="n"/>
       <c r="EC191" s="43" t="n"/>
     </row>
-    <row r="192" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="192">
       <c r="A192" s="447" t="n"/>
       <c r="G192" s="563" t="n"/>
       <c r="M192" s="564" t="n"/>
@@ -22582,7 +22628,7 @@
       <c r="EB192" s="43" t="n"/>
       <c r="EC192" s="43" t="n"/>
     </row>
-    <row r="193" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="193">
       <c r="A193" s="447" t="n"/>
       <c r="G193" s="570" t="n"/>
       <c r="H193" s="571" t="n"/>
@@ -22712,7 +22758,7 @@
       <c r="EB193" s="43" t="n"/>
       <c r="EC193" s="43" t="n"/>
     </row>
-    <row r="194" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="194">
       <c r="DN194" s="22" t="n"/>
       <c r="DO194" s="22" t="n"/>
       <c r="DP194" s="22" t="n"/>
@@ -22727,7 +22773,7 @@
       <c r="DY194" s="22" t="n"/>
       <c r="DZ194" s="22" t="n"/>
     </row>
-    <row r="195" ht="6.75" customHeight="1">
+    <row customHeight="1" ht="6.75" r="195">
       <c r="DN195" s="22" t="n"/>
       <c r="DO195" s="22" t="n"/>
       <c r="DP195" s="22" t="n"/>
@@ -22742,37 +22788,37 @@
       <c r="DY195" s="22" t="n"/>
       <c r="DZ195" s="22" t="n"/>
     </row>
-    <row r="197" ht="24" customHeight="1">
+    <row customHeight="1" ht="24" r="197">
       <c r="E197" s="227" t="inlineStr">
         <is>
           <t>協会けんぽご加入の事業所様へ</t>
         </is>
       </c>
     </row>
-    <row r="198" ht="24" customHeight="1">
+    <row customHeight="1" ht="24" r="198">
       <c r="E198" s="227" t="inlineStr">
         <is>
           <t>※　７０歳以上被用者該当届のみ提出の場合は、「⑩備考」欄の「１.７０歳以上被用者該当」</t>
         </is>
       </c>
     </row>
-    <row r="199" ht="24" customHeight="1">
+    <row customHeight="1" ht="24" r="199">
       <c r="E199" s="227" t="inlineStr">
         <is>
           <t xml:space="preserve">　　および「５.その他」に○をし、「５.その他」の（　）内に「該当届のみ」とご記入ください（この場合、</t>
         </is>
       </c>
     </row>
-    <row r="200" ht="24" customHeight="1">
+    <row customHeight="1" ht="24" r="200">
       <c r="E200" s="227" t="inlineStr">
         <is>
           <t xml:space="preserve">　　健康保険被保険者証の発行はありません）。</t>
         </is>
       </c>
     </row>
-    <row r="201" ht="24" customHeight="1"/>
-    <row r="202" ht="24" customHeight="1"/>
-    <row r="203" ht="24" customFormat="1" customHeight="1" s="86">
+    <row customHeight="1" ht="24" r="201"/>
+    <row customHeight="1" ht="24" r="202"/>
+    <row customFormat="1" customHeight="1" ht="24" r="203" s="86">
       <c r="B203" s="164" t="inlineStr">
         <is>
           <t>この届書は 「従業員を採用した場合」、「60歳以上の方で退職後に継続して再雇用した場合」 にご提出いただくものです。</t>
@@ -22914,7 +22960,7 @@
       <c r="EL203" s="86" t="n"/>
       <c r="EM203" s="86" t="n"/>
     </row>
-    <row r="204" ht="24" customFormat="1" customHeight="1" s="86">
+    <row customFormat="1" customHeight="1" ht="24" r="204" s="86">
       <c r="B204" s="68" t="n"/>
       <c r="C204" s="83" t="n"/>
       <c r="D204" s="83" t="n"/>
@@ -23052,7 +23098,7 @@
       <c r="EL204" s="86" t="n"/>
       <c r="EM204" s="86" t="n"/>
     </row>
-    <row r="205" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="205" s="87">
       <c r="B205" s="218" t="inlineStr">
         <is>
           <t>・70歳以上の方について提出する場合は、「⑩備考」欄の「1.70歳以上被用者該当」を○で囲んでください。</t>
@@ -23066,7 +23112,7 @@
       <c r="EL205" s="87" t="n"/>
       <c r="EM205" s="87" t="n"/>
     </row>
-    <row r="206" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="206" s="87">
       <c r="B206" s="218" t="inlineStr">
         <is>
           <t>・次の場合は下記の別様式での届出をお願いします。</t>
@@ -23080,7 +23126,7 @@
       <c r="EL206" s="87" t="n"/>
       <c r="EM206" s="87" t="n"/>
     </row>
-    <row r="207" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="207" s="87">
       <c r="B207" s="218" t="inlineStr">
         <is>
           <t xml:space="preserve">　　従業員等が在職中に70歳に到達した場合→『70歳到達届』（資格喪失届・70歳以上被用者該当届）</t>
@@ -23094,7 +23140,7 @@
       <c r="EL207" s="87" t="n"/>
       <c r="EM207" s="87" t="n"/>
     </row>
-    <row r="208" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="208" s="87">
       <c r="B208" s="218" t="inlineStr">
         <is>
           <t xml:space="preserve">　　国民健康保険組合に加入する従業員を採用した場合→『被保険者資格取得届（国保組合用）』</t>
@@ -23108,7 +23154,7 @@
       <c r="EL208" s="87" t="n"/>
       <c r="EM208" s="87" t="n"/>
     </row>
-    <row r="209" ht="11.25" customHeight="1">
+    <row customHeight="1" ht="11.25" r="209">
       <c r="B209" s="69" t="n"/>
       <c r="C209" s="69" t="n"/>
       <c r="D209" s="69" t="n"/>
@@ -23239,7 +23285,7 @@
       <c r="DY209" s="69" t="n"/>
       <c r="DZ209" s="69" t="n"/>
     </row>
-    <row r="210" ht="24" customFormat="1" customHeight="1" s="86">
+    <row customFormat="1" customHeight="1" ht="24" r="210" s="86">
       <c r="B210" s="153" t="inlineStr">
         <is>
           <t>記入方法</t>
@@ -23381,7 +23427,7 @@
       <c r="EL210" s="86" t="n"/>
       <c r="EM210" s="86" t="n"/>
     </row>
-    <row r="211" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="211" s="87">
       <c r="B211" s="170" t="inlineStr">
         <is>
           <t>提出者記入欄</t>
@@ -23405,7 +23451,7 @@
       <c r="EL211" s="87" t="n"/>
       <c r="EM211" s="87" t="n"/>
     </row>
-    <row r="212" ht="22.5" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="22.5" r="212" s="87">
       <c r="B212" s="170" t="inlineStr">
         <is>
           <t xml:space="preserve">　   　　　　　　　　　　　　　</t>
@@ -23507,7 +23553,7 @@
       <c r="EL212" s="87" t="n"/>
       <c r="EM212" s="87" t="n"/>
     </row>
-    <row r="213" ht="12" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="12" r="213" s="87">
       <c r="B213" s="170" t="n"/>
       <c r="V213" s="70" t="n"/>
       <c r="W213" s="570" t="n"/>
@@ -23565,7 +23611,7 @@
       <c r="EL213" s="87" t="n"/>
       <c r="EM213" s="87" t="n"/>
     </row>
-    <row r="214" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="214" s="87">
       <c r="B214" s="170" t="inlineStr">
         <is>
           <t>①被保険者整理番号</t>
@@ -23589,7 +23635,7 @@
       <c r="EL214" s="87" t="n"/>
       <c r="EM214" s="87" t="n"/>
     </row>
-    <row r="215" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="215" s="87">
       <c r="B215" s="170" t="inlineStr">
         <is>
           <t>②氏名</t>
@@ -23613,7 +23659,7 @@
       <c r="EL215" s="87" t="n"/>
       <c r="EM215" s="87" t="n"/>
     </row>
-    <row r="216" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="216" s="87">
       <c r="B216" s="170" t="inlineStr">
         <is>
           <t>③生年月日</t>
@@ -23637,7 +23683,7 @@
       <c r="EL216" s="87" t="n"/>
       <c r="EM216" s="87" t="n"/>
     </row>
-    <row r="217" ht="16.5" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="16.5" r="217" s="87">
       <c r="B217" s="170" t="n"/>
       <c r="V217" s="70" t="n"/>
       <c r="W217" s="172" t="n"/>
@@ -23741,7 +23787,7 @@
       <c r="EL217" s="87" t="n"/>
       <c r="EM217" s="87" t="n"/>
     </row>
-    <row r="218" ht="16.5" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="16.5" r="218" s="87">
       <c r="B218" s="170" t="inlineStr">
         <is>
           <t xml:space="preserve">　</t>
@@ -23822,7 +23868,7 @@
       <c r="EL218" s="87" t="n"/>
       <c r="EM218" s="87" t="n"/>
     </row>
-    <row r="219" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="219" s="87">
       <c r="B219" s="170" t="inlineStr">
         <is>
           <t>④種別</t>
@@ -23846,7 +23892,7 @@
       <c r="EL219" s="87" t="n"/>
       <c r="EM219" s="87" t="n"/>
     </row>
-    <row r="220" ht="15" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="15" r="220" s="87">
       <c r="B220" s="170" t="n"/>
       <c r="V220" s="70" t="n"/>
       <c r="W220" s="172" t="n"/>
@@ -23977,7 +24023,7 @@
       <c r="EL220" s="87" t="n"/>
       <c r="EM220" s="87" t="n"/>
     </row>
-    <row r="221" ht="15" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="15" r="221" s="87">
       <c r="B221" s="170" t="n"/>
       <c r="V221" s="70" t="n"/>
       <c r="W221" s="172" t="n"/>
@@ -24106,7 +24152,7 @@
       <c r="EL221" s="87" t="n"/>
       <c r="EM221" s="87" t="n"/>
     </row>
-    <row r="222" ht="15" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="15" r="222" s="87">
       <c r="B222" s="170" t="n"/>
       <c r="V222" s="70" t="n"/>
       <c r="W222" s="172" t="n"/>
@@ -24235,7 +24281,7 @@
       <c r="EL222" s="87" t="n"/>
       <c r="EM222" s="87" t="n"/>
     </row>
-    <row r="223" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="223" s="87">
       <c r="B223" s="170" t="inlineStr">
         <is>
           <t>⑤取得区分</t>
@@ -24259,7 +24305,7 @@
       <c r="EL223" s="87" t="n"/>
       <c r="EM223" s="87" t="n"/>
     </row>
-    <row r="224" ht="15" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="15" r="224" s="87">
       <c r="B224" s="170" t="n"/>
       <c r="V224" s="70" t="n"/>
       <c r="W224" s="172" t="n"/>
@@ -24386,7 +24432,7 @@
       <c r="EL224" s="87" t="n"/>
       <c r="EM224" s="87" t="n"/>
     </row>
-    <row r="225" ht="15" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="15" r="225" s="87">
       <c r="B225" s="170" t="n"/>
       <c r="V225" s="70" t="n"/>
       <c r="W225" s="172" t="n"/>
@@ -24513,7 +24559,7 @@
       <c r="EL225" s="87" t="n"/>
       <c r="EM225" s="87" t="n"/>
     </row>
-    <row r="226" ht="15" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="15" r="226" s="87">
       <c r="B226" s="170" t="n"/>
       <c r="V226" s="70" t="n"/>
       <c r="W226" s="172" t="n"/>
@@ -24640,7 +24686,7 @@
       <c r="EL226" s="87" t="n"/>
       <c r="EM226" s="87" t="n"/>
     </row>
-    <row r="227" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="227" s="87">
       <c r="B227" s="170" t="inlineStr">
         <is>
           <t>⑥個人番号</t>
@@ -24664,7 +24710,7 @@
       <c r="EL227" s="87" t="n"/>
       <c r="EM227" s="87" t="n"/>
     </row>
-    <row r="228" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="228" s="87">
       <c r="B228" s="170" t="inlineStr">
         <is>
           <t>[基礎年金番号]</t>
@@ -24684,7 +24730,7 @@
       <c r="EL228" s="87" t="n"/>
       <c r="EM228" s="87" t="n"/>
     </row>
-    <row r="229" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="229" s="87">
       <c r="B229" s="170" t="inlineStr">
         <is>
           <t>⑦取得（該当）年月日</t>
@@ -24708,7 +24754,7 @@
       <c r="EL229" s="87" t="n"/>
       <c r="EM229" s="87" t="n"/>
     </row>
-    <row r="230" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="230" s="87">
       <c r="B230" s="170" t="n"/>
       <c r="V230" s="70" t="n"/>
       <c r="W230" s="172" t="inlineStr">
@@ -24724,7 +24770,7 @@
       <c r="EL230" s="87" t="n"/>
       <c r="EM230" s="87" t="n"/>
     </row>
-    <row r="231" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="231" s="87">
       <c r="B231" s="170" t="inlineStr">
         <is>
           <t>⑧被扶養者</t>
@@ -24748,7 +24794,7 @@
       <c r="EL231" s="87" t="n"/>
       <c r="EM231" s="87" t="n"/>
     </row>
-    <row r="232" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="232" s="87">
       <c r="B232" s="170" t="n"/>
       <c r="V232" s="70" t="n"/>
       <c r="W232" s="172" t="inlineStr">
@@ -24764,7 +24810,7 @@
       <c r="EL232" s="87" t="n"/>
       <c r="EM232" s="87" t="n"/>
     </row>
-    <row r="233" ht="24" customFormat="1" customHeight="1" s="88">
+    <row customFormat="1" customHeight="1" ht="24" r="233" s="88">
       <c r="B233" s="170" t="inlineStr">
         <is>
           <t>⑨報酬月額</t>
@@ -24788,7 +24834,7 @@
       <c r="EL233" s="88" t="n"/>
       <c r="EM233" s="88" t="n"/>
     </row>
-    <row r="234" ht="15" customFormat="1" customHeight="1" s="89">
+    <row customFormat="1" customHeight="1" ht="15" r="234" s="89">
       <c r="B234" s="174" t="n"/>
       <c r="V234" s="82" t="n"/>
       <c r="W234" s="175" t="inlineStr">
@@ -24804,7 +24850,7 @@
       <c r="EL234" s="89" t="n"/>
       <c r="EM234" s="89" t="n"/>
     </row>
-    <row r="235" ht="15" customFormat="1" customHeight="1" s="89">
+    <row customFormat="1" customHeight="1" ht="15" r="235" s="89">
       <c r="B235" s="174" t="n"/>
       <c r="V235" s="82" t="n"/>
       <c r="W235" s="175" t="inlineStr">
@@ -24820,7 +24866,7 @@
       <c r="EL235" s="89" t="n"/>
       <c r="EM235" s="89" t="n"/>
     </row>
-    <row r="236" ht="15" customFormat="1" customHeight="1" s="89">
+    <row customFormat="1" customHeight="1" ht="15" r="236" s="89">
       <c r="B236" s="174" t="n"/>
       <c r="V236" s="82" t="n"/>
       <c r="W236" s="175" t="inlineStr">
@@ -24836,7 +24882,7 @@
       <c r="EL236" s="89" t="n"/>
       <c r="EM236" s="89" t="n"/>
     </row>
-    <row r="237" ht="15.75" customFormat="1" customHeight="1" s="89">
+    <row customFormat="1" customHeight="1" ht="15.75" r="237" s="89">
       <c r="B237" s="174" t="n"/>
       <c r="V237" s="82" t="n"/>
       <c r="W237" s="175" t="inlineStr">
@@ -24852,7 +24898,7 @@
       <c r="EL237" s="89" t="n"/>
       <c r="EM237" s="89" t="n"/>
     </row>
-    <row r="238" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="238" s="87">
       <c r="B238" s="170" t="n"/>
       <c r="V238" s="70" t="n"/>
       <c r="W238" s="172" t="inlineStr">
@@ -24868,7 +24914,7 @@
       <c r="EL238" s="87" t="n"/>
       <c r="EM238" s="87" t="n"/>
     </row>
-    <row r="239" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="239" s="87">
       <c r="B239" s="170" t="n"/>
       <c r="V239" s="70" t="n"/>
       <c r="W239" s="172" t="inlineStr">
@@ -24884,7 +24930,7 @@
       <c r="EL239" s="87" t="n"/>
       <c r="EM239" s="87" t="n"/>
     </row>
-    <row r="240" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="240" s="87">
       <c r="B240" s="170" t="n"/>
       <c r="C240" s="170" t="n"/>
       <c r="D240" s="170" t="n"/>
@@ -24919,7 +24965,7 @@
       <c r="EL240" s="87" t="n"/>
       <c r="EM240" s="87" t="n"/>
     </row>
-    <row r="241" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="241" s="87">
       <c r="B241" s="170" t="inlineStr">
         <is>
           <t>⑩備考</t>
@@ -24943,7 +24989,7 @@
       <c r="EL241" s="87" t="n"/>
       <c r="EM241" s="87" t="n"/>
     </row>
-    <row r="242" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="242" s="87">
       <c r="B242" s="170" t="inlineStr">
         <is>
           <t xml:space="preserve">　　　　　　　　　　　</t>
@@ -24963,7 +25009,7 @@
       <c r="EL242" s="87" t="n"/>
       <c r="EM242" s="87" t="n"/>
     </row>
-    <row r="243" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="243" s="87">
       <c r="B243" s="170" t="inlineStr">
         <is>
           <t xml:space="preserve">　</t>
@@ -24983,7 +25029,7 @@
       <c r="EL243" s="87" t="n"/>
       <c r="EM243" s="87" t="n"/>
     </row>
-    <row r="244" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="244" s="87">
       <c r="B244" s="170" t="inlineStr">
         <is>
           <t xml:space="preserve">　　　　　　　　　　　</t>
@@ -25003,7 +25049,7 @@
       <c r="EL244" s="87" t="n"/>
       <c r="EM244" s="87" t="n"/>
     </row>
-    <row r="245" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="245" s="87">
       <c r="B245" s="170" t="n"/>
       <c r="C245" s="170" t="n"/>
       <c r="D245" s="170" t="n"/>
@@ -25038,7 +25084,7 @@
       <c r="EL245" s="87" t="n"/>
       <c r="EM245" s="87" t="n"/>
     </row>
-    <row r="246" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="246" s="87">
       <c r="B246" s="170" t="inlineStr">
         <is>
           <t xml:space="preserve">　　　　　　　　　　　　</t>
@@ -25058,7 +25104,7 @@
       <c r="EL246" s="87" t="n"/>
       <c r="EM246" s="87" t="n"/>
     </row>
-    <row r="247" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="247" s="87">
       <c r="B247" s="170" t="inlineStr">
         <is>
           <t xml:space="preserve">　　　　　　　　　　</t>
@@ -25078,7 +25124,7 @@
       <c r="EL247" s="87" t="n"/>
       <c r="EM247" s="87" t="n"/>
     </row>
-    <row r="248" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="248" s="87">
       <c r="B248" s="170" t="inlineStr">
         <is>
           <t>⑪住所</t>
@@ -25102,7 +25148,7 @@
       <c r="EL248" s="87" t="n"/>
       <c r="EM248" s="87" t="n"/>
     </row>
-    <row r="249" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="249" s="87">
       <c r="B249" s="170" t="n"/>
       <c r="V249" s="170" t="n"/>
       <c r="W249" s="170" t="inlineStr">
@@ -25118,7 +25164,7 @@
       <c r="EL249" s="87" t="n"/>
       <c r="EM249" s="87" t="n"/>
     </row>
-    <row r="250" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="250" s="87">
       <c r="B250" s="170" t="n"/>
       <c r="V250" s="170" t="n"/>
       <c r="W250" s="170" t="inlineStr">
@@ -25134,7 +25180,7 @@
       <c r="EL250" s="87" t="n"/>
       <c r="EM250" s="87" t="n"/>
     </row>
-    <row r="251" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="251" s="87">
       <c r="B251" s="170" t="n"/>
       <c r="V251" s="170" t="n"/>
       <c r="W251" s="170" t="inlineStr">
@@ -25150,7 +25196,7 @@
       <c r="EL251" s="87" t="n"/>
       <c r="EM251" s="87" t="n"/>
     </row>
-    <row r="252" ht="24" customFormat="1" customHeight="1" s="86">
+    <row customFormat="1" customHeight="1" ht="24" r="252" s="86">
       <c r="B252" s="173" t="inlineStr">
         <is>
           <t>添付書類</t>
@@ -25283,7 +25329,7 @@
       <c r="EL252" s="86" t="n"/>
       <c r="EM252" s="86" t="n"/>
     </row>
-    <row r="253" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="253" s="87">
       <c r="B253" s="171" t="inlineStr">
         <is>
           <t xml:space="preserve">　・60歳以上の方で退職後の継続再雇用の場合</t>
@@ -25297,7 +25343,7 @@
       <c r="EL253" s="87" t="n"/>
       <c r="EM253" s="87" t="n"/>
     </row>
-    <row r="254" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="254" s="87">
       <c r="B254" s="171" t="inlineStr">
         <is>
           <t xml:space="preserve">　　　ア.就業規則・退職辞令のコピー等退職日が確認できる書類、および継続して再雇用されたことが確認できる雇用契約書のコピー</t>
@@ -25311,7 +25357,7 @@
       <c r="EL254" s="87" t="n"/>
       <c r="EM254" s="87" t="n"/>
     </row>
-    <row r="255" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="255" s="87">
       <c r="B255" s="171" t="inlineStr">
         <is>
           <t xml:space="preserve">　　　イ.上記「ア」の書類が添付できない場合、事業主の証明書（退職日、再雇用日が記載されているもの）等</t>
@@ -25325,7 +25371,7 @@
       <c r="EL255" s="87" t="n"/>
       <c r="EM255" s="87" t="n"/>
     </row>
-    <row r="256" ht="24" customFormat="1" customHeight="1" s="86">
+    <row customFormat="1" customHeight="1" ht="24" r="256" s="86">
       <c r="B256" s="152" t="inlineStr">
         <is>
           <t xml:space="preserve">お知らせ　</t>
@@ -25467,7 +25513,7 @@
       <c r="EL256" s="86" t="n"/>
       <c r="EM256" s="86" t="n"/>
     </row>
-    <row r="257" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="257" s="87">
       <c r="B257" s="170" t="inlineStr">
         <is>
           <t xml:space="preserve">　・マイナンバー制度の導入に伴い、日本年金機構では原則として住民票上の氏名および住所で年金記録を管理することにしています。住民票住所以外</t>
@@ -25481,7 +25527,7 @@
       <c r="EL257" s="87" t="n"/>
       <c r="EM257" s="87" t="n"/>
     </row>
-    <row r="258" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="258" s="87">
       <c r="B258" s="170" t="inlineStr">
         <is>
           <t xml:space="preserve">　　の居所等にねんきん定期便等の日本年金機構からの各種お知らせ等の送付をご希望の場合は、別途『住所変更届』をご提出ください。</t>
@@ -25495,7 +25541,7 @@
       <c r="EL258" s="87" t="n"/>
       <c r="EM258" s="87" t="n"/>
     </row>
-    <row r="259" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="259" s="87">
       <c r="B259" s="170" t="inlineStr">
         <is>
           <t xml:space="preserve">　・この『被保険者資格取得届・70歳以上被用者該当届』を提出し、資格取得の確認および標準報酬月額が決定されると、『資格取得確認および標準</t>
@@ -25509,7 +25555,7 @@
       <c r="EL259" s="87" t="n"/>
       <c r="EM259" s="87" t="n"/>
     </row>
-    <row r="260" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="260" s="87">
       <c r="B260" s="170" t="inlineStr">
         <is>
           <t xml:space="preserve">　　報酬決定通知書』・『70歳以上被用者該当および標準報酬月額相当額のお知らせ』（70歳以上被用者に該当する場合）が事業所に送付されますので、</t>
@@ -25523,7 +25569,7 @@
       <c r="EL260" s="87" t="n"/>
       <c r="EM260" s="87" t="n"/>
     </row>
-    <row r="261" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="261" s="87">
       <c r="B261" s="170" t="inlineStr">
         <is>
           <t xml:space="preserve">　　事業主は通知内容を被保険者に通知してください。</t>
@@ -25537,7 +25583,7 @@
       <c r="EL261" s="87" t="n"/>
       <c r="EM261" s="87" t="n"/>
     </row>
-    <row r="262" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="262" s="87">
       <c r="B262" s="170" t="inlineStr">
         <is>
           <t xml:space="preserve">  ・「短時間労働者」とは、国・地方公共団体・特定適用事業所等において使用される、以下の全ての要件を満たした場合に被保険者となります。</t>
@@ -25551,7 +25597,7 @@
       <c r="EL262" s="87" t="n"/>
       <c r="EM262" s="87" t="n"/>
     </row>
-    <row r="263" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="263" s="87">
       <c r="B263" s="170" t="inlineStr">
         <is>
           <t xml:space="preserve">　　　ア.週の所定労働時間が20時間以上であること。　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</t>
@@ -25565,7 +25611,7 @@
       <c r="EL263" s="87" t="n"/>
       <c r="EM263" s="87" t="n"/>
     </row>
-    <row r="264" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="264" s="87">
       <c r="B264" s="170" t="inlineStr">
         <is>
           <t xml:space="preserve">　　　イ.雇用見込期間が1年以上であること（雇用期間が1年未満であるが、雇用契約書等でその契約が更新される旨または更新される場合がある旨</t>
@@ -25579,7 +25625,7 @@
       <c r="EL264" s="87" t="n"/>
       <c r="EM264" s="87" t="n"/>
     </row>
-    <row r="265" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="265" s="87">
       <c r="B265" s="170" t="inlineStr">
         <is>
           <t xml:space="preserve"> 　　　　明示されている場合を含む）。</t>
@@ -25593,7 +25639,7 @@
       <c r="EL265" s="87" t="n"/>
       <c r="EM265" s="87" t="n"/>
     </row>
-    <row r="266" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="266" s="87">
       <c r="B266" s="170" t="inlineStr">
         <is>
           <t xml:space="preserve">　　　ウ.賃金の月額が88,000円（年額106万円相当）以上であること。ただし、①臨時に支払われる賃金（結婚手当等）および1月を超える期間ごと</t>
@@ -25607,7 +25653,7 @@
       <c r="EL266" s="87" t="n"/>
       <c r="EM266" s="87" t="n"/>
     </row>
-    <row r="267" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="267" s="87">
       <c r="B267" s="170" t="inlineStr">
         <is>
           <t xml:space="preserve"> 　　　　に支払われる賃金（賞与等）、②所定時間外労働等に対して支払われる賃金（割増賃金等）、③最低賃金法において算入しないことを定め</t>
@@ -25621,7 +25667,7 @@
       <c r="EL267" s="87" t="n"/>
       <c r="EM267" s="87" t="n"/>
     </row>
-    <row r="268" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="268" s="87">
       <c r="B268" s="170" t="inlineStr">
         <is>
           <t xml:space="preserve"> 　　　　る賃金（精皆勤手当、通勤手当および家族手当）を除く。</t>
@@ -25635,7 +25681,7 @@
       <c r="EL268" s="87" t="n"/>
       <c r="EM268" s="87" t="n"/>
     </row>
-    <row r="269" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="269" s="87">
       <c r="B269" s="170" t="inlineStr">
         <is>
           <t xml:space="preserve">　　　エ.学生でないこと。</t>
@@ -25649,7 +25695,7 @@
       <c r="EL269" s="87" t="n"/>
       <c r="EM269" s="87" t="n"/>
     </row>
-    <row r="270" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="270" s="87">
       <c r="B270" s="170" t="inlineStr">
         <is>
           <t xml:space="preserve"> 　　　　※令和4年10月より、イ.雇用見込期間が1年以上であることは、要件から除かれます。</t>
@@ -25663,7 +25709,7 @@
       <c r="EL270" s="87" t="n"/>
       <c r="EM270" s="87" t="n"/>
     </row>
-    <row r="271" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="271" s="87">
       <c r="B271" s="170" t="inlineStr">
         <is>
           <t xml:space="preserve"> 　　　　※上記ア～エの要件を満たしていても、1週間の所定労働時間および1カ月の所定労働日数が正社員の4分の3以上の従業員については、通常</t>
@@ -25677,7 +25723,7 @@
       <c r="EL271" s="87" t="n"/>
       <c r="EM271" s="87" t="n"/>
     </row>
-    <row r="272" ht="24" customFormat="1" customHeight="1" s="87">
+    <row customFormat="1" customHeight="1" ht="24" r="272" s="87">
       <c r="B272" s="170" t="inlineStr">
         <is>
           <t xml:space="preserve">  　　　 　の被保険者となります。</t>
@@ -25692,7 +25738,7 @@
       <c r="EM272" s="87" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" algorithmName="SHA-512" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="1" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="0" saltValue="QbTWfxSXWtPAA0583XT0XQ==" formatRows="1" sort="1" spinCount="100000" hashValue="mDJGlAQqIgviFJrSog06xetd1Dfb18mMhwB8m9+CjMOetJ0MIRXOED6hCasTZKvTVvc+EHDa6O1iP/c0swujFg=="/>
+  <sheetProtection algorithmName="SHA-512" autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="0" formatColumns="1" formatRows="1" hashValue="mDJGlAQqIgviFJrSog06xetd1Dfb18mMhwB8m9+CjMOetJ0MIRXOED6hCasTZKvTVvc+EHDa6O1iP/c0swujFg==" insertColumns="1" insertHyperlinks="1" insertRows="1" objects="0" pivotTables="1" saltValue="QbTWfxSXWtPAA0583XT0XQ==" scenarios="1" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1" spinCount="100000"/>
   <mergeCells count="550">
     <mergeCell ref="B270:DZ270"/>
     <mergeCell ref="BO148:BQ151"/>
@@ -26246,17 +26292,18 @@
     <mergeCell ref="B255:DZ255"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation sqref="AB55:BW57 AB90:BW92 AB125:BW127 AB160:BW162 AF154:CU155 AF189:CU190 AF119:CU120 AF84:CU85" showErrorMessage="1" showInputMessage="1" allowBlank="1" imeMode="fullKatakana"/>
-    <dataValidation sqref="AX49:BG52 J6:M6 P6:T6 W6:AA6 P189:S190 V189:Z190 AV8:BO13 R17:X19 AA17:AJ19 V49:AE52 AH49:AU52 AB65:BW73 CJ55:DA73 S74:AO81 AT78:BT81 P84:S85 V84:Z85 AB100:BW108 CJ90:DA108 AT113:BT116 S109:AO116 P119:S120 V119:Z120 AB135:BW143 CJ125:DA143 S144:AO151 AT148:BT151 P154:S155 V154:Z155 AB170:BW178 CJ160:DA178 S179:AO186 AT183:BT186" showErrorMessage="1" showInputMessage="1" allowBlank="1" imeMode="halfAlpha"/>
+    <dataValidation allowBlank="1" imeMode="fullKatakana" showErrorMessage="1" showInputMessage="1" sqref="AB55:BW57 AB90:BW92 AB125:BW127 AB160:BW162 AF154:CU155 AF189:CU190 AF119:CU120 AF84:CU85"/>
+    <dataValidation allowBlank="1" imeMode="halfAlpha" showErrorMessage="1" showInputMessage="1" sqref="AX49:BG52 J6:M6 P6:T6 W6:AA6 P189:S190 V189:Z190 AV8:BO13 R17:X19 AA17:AJ19 V49:AE52 AH49:AU52 AB65:BW73 CJ55:DA73 S74:AO81 AT78:BT81 P84:S85 V84:Z85 AB100:BW108 CJ90:DA108 AT113:BT116 S109:AO116 P119:S120 V119:Z120 AB135:BW143 CJ125:DA143 S144:AO151 AT148:BT151 P154:S155 V154:Z155 AB170:BW178 CJ160:DA178 S179:AO186 AT183:BT186"/>
   </dataValidations>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins bottom="0" footer="0" header="0" left="0" right="0" top="0"/>
   <pageSetup orientation="portrait" paperSize="9" scale="55"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="201" min="0" max="16383" man="1"/>
+    <brk id="201" man="1" max="16383" min="0"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
-    <brk id="131" min="0" max="270" man="1"/>
-    <brk id="133" min="0" max="1048575" man="1"/>
+    <brk id="131" man="1" max="270" min="0"/>
+    <brk id="133" man="1" max="1048575" min="0"/>
   </colBreaks>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/shaho_filled.xlsx
+++ b/shaho_filled.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">'Sheet1'!$A$1:$DZ$272</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$DZ$272</definedName>
   </definedNames>
   <calcPr calcId="145621" fullCalcOnLoad="1"/>
 </workbook>
@@ -18,11 +18,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt formatCode="00000000;;" numFmtId="164"/>
-    <numFmt formatCode="#,##0;[Red]\-#,##0;" numFmtId="165"/>
-    <numFmt formatCode="General;General;" numFmtId="166"/>
-    <numFmt formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000" numFmtId="167"/>
-    <numFmt formatCode="[$-411]ggg" numFmtId="168"/>
+    <numFmt numFmtId="164" formatCode="00000000;;"/>
+    <numFmt numFmtId="165" formatCode="#,##0;[Red]\-#,##0;"/>
+    <numFmt numFmtId="166" formatCode="General;General;"/>
+    <numFmt numFmtId="167" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
+    <numFmt numFmtId="168" formatCode="[$-411]ggg"/>
   </numFmts>
   <fonts count="53">
     <font>
@@ -1085,2018 +1085,2018 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="44" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="44" numFmtId="38">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="663">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="17" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="2" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="3" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="3" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="11" fillId="2" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="2" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="11" fillId="3" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="3" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="41" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="42" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="5" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="4" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="4" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="4" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="4" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="9" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="8" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="12" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="12" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="12" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="12" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="10" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="10" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="48" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="49" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="51" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="52" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="22" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="22" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="26" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="38" fontId="26" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="26" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="26" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="38" fontId="26" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="26" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="38" fontId="26" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="26" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="38" fontId="26" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="50" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="16" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="26" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="25" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="14" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="13" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="2" fontId="9" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="33" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="33" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="45" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="0" fontId="45" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="45" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="45" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="2" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="2" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="2" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="2" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="2" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="29" fillId="2" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="30" fillId="2" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="2" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="2" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="31" fillId="2" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="32" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="32" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="29" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="29" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="33" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="33" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="30" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="30" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="34" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="34" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="31" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="31" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="29" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="29" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="30" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="30" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="31" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="31" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="32" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="32" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="33" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="33" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="34" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="34" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="27" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="0" fontId="27" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="10" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="32" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="32" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="32" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="32" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="32" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="32" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="46" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="2" fontId="46" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="2" fontId="46" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="46" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="46" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="2" fontId="46" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="2" fontId="46" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="2" fontId="46" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="2" fontId="46" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="13" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="17" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="18" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="19" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="14" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="16" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="27" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="30" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="18" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="19" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="27" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="20" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="30" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="30" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="30" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="30" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="30" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="2" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="2" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="2" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="2" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="17" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="18" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="27" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="27" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="18" fillId="0" fontId="27" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="18" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="13" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="25" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="14" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="16" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="26" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="21" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="22" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="23" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="25" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="28" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="24" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="16" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="26" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="4" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="4" fontId="12" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="12" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="12" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="12" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="12" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="12" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="12" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="12" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="18" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="20" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="21" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="22" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="22" fillId="0" fontId="27" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="22" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="0" fontId="27" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="4" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="20" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="20" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="20" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="10" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="2" fontId="5" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="2" fontId="43" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="2" fontId="43" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="43" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="43" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="4" fontId="10" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="10" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="10" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="10" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="10" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="10" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="18" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="20" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="38" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="38" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="38" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="38" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="38" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="38" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="2" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="2" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="2" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="3" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="3" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="26" fillId="3" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="3" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="42" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="42" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="51" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="50" fillId="2" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="51" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="51" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="29" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="3" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="2" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="50" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="50" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="52" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="52" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="51" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="51" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="53" fillId="3" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="53" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="50" fillId="0" fontId="26" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="50" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="30" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="33" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="30" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="31" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="34" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="31" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="44" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="44" fillId="0" fontId="45" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="44" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="32" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="44" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="44" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="38" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="38" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="2" fontId="46" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="47" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="48" fillId="0" fontId="47" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="47" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="48" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="35" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyProtection="1" borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="38" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyProtection="1" borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="18" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="27" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="46" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="24" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="26" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="43" fillId="0" fontId="30" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="37" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="4" fontId="12" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="12" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="12" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="12" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="12" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="44" fillId="4" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="44" fillId="2" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="38" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="38" fillId="2" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="41" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="0" fontId="27" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="18" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="39" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="40" fillId="0" fontId="27" numFmtId="38" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="40" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="3" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="10" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="22" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="167" fontId="22" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="2" fontId="5" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="4" fontId="10" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="10" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="10" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="10" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="38" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="37" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="36" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="2" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="35" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="35" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="36" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="36" fillId="3" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="標準" xfId="0"/>
-    <cellStyle builtinId="6" name="桁区切り" xfId="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>6</col>
@@ -3114,24 +3114,24 @@
       <nvPicPr>
         <cNvPr id="45" name="図 44"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="628650" y="533402"/>
           <a:ext cx="1323975" cy="485774"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3460,27 +3460,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A2:EM272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100">
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="EO199" sqref="EO199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="136" min="1" style="57" width="1.375"/>
-    <col customWidth="1" max="140" min="137" style="57" width="2.625"/>
-    <col customWidth="1" max="143" min="141" style="57" width="2.5"/>
-    <col customWidth="1" max="152" min="144" style="57" width="2.5"/>
-    <col customWidth="1" max="16384" min="153" style="57" width="9"/>
+    <col width="1.375" customWidth="1" style="57" min="1" max="136"/>
+    <col width="2.625" customWidth="1" style="57" min="137" max="140"/>
+    <col width="2.5" customWidth="1" style="57" min="141" max="143"/>
+    <col width="2.5" customWidth="1" style="57" min="144" max="152"/>
+    <col width="9" customWidth="1" style="57" min="153" max="16384"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="2" s="57">
+    <row r="2" customFormat="1" s="57">
       <c r="A2" s="57" t="n">
         <v>1</v>
       </c>
@@ -3882,7 +3882,7 @@
       <c r="EI2" s="57" t="n"/>
       <c r="EJ2" s="57" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="38.25" r="3" s="57">
+    <row r="3" ht="38.25" customFormat="1" customHeight="1" s="57">
       <c r="AD3" s="207" t="inlineStr">
         <is>
           <t>健　康　保　険
@@ -3904,7 +3904,7 @@
       <c r="EI3" s="57" t="n"/>
       <c r="EJ3" s="57" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24.75" r="4" s="57">
+    <row r="4" ht="24.75" customFormat="1" customHeight="1" s="57">
       <c r="AD4" s="209" t="inlineStr">
         <is>
           <t>厚生年金保険</t>
@@ -3922,10 +3922,10 @@
       <c r="EI4" s="57" t="n"/>
       <c r="EJ4" s="57" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="14.25" r="5" s="57">
+    <row r="5" ht="14.25" customFormat="1" customHeight="1" s="57">
       <c r="EG5" s="211" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.35" r="6" s="57">
+    <row r="6" ht="16.35" customFormat="1" customHeight="1" s="57">
       <c r="B6" s="95" t="n"/>
       <c r="C6" s="95" t="n"/>
       <c r="D6" s="95" t="n"/>
@@ -3971,13 +3971,13 @@
       <c r="EI6" s="84" t="n"/>
       <c r="EJ6" s="84" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="7" s="57">
+    <row r="7" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="EG7" s="57" t="n"/>
       <c r="EH7" s="57" t="n"/>
       <c r="EI7" s="57" t="n"/>
       <c r="EJ7" s="57" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="8" s="57">
+    <row r="8" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G8" s="545" t="inlineStr">
         <is>
           <t>事 業 所
@@ -3998,14 +3998,14 @@
       <c r="S8" s="546" t="n"/>
       <c r="T8" s="551" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>事</t>
         </is>
       </c>
       <c r="U8" s="552" t="n"/>
       <c r="V8" s="553" t="n"/>
       <c r="W8" s="554" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>業</t>
         </is>
       </c>
       <c r="X8" s="552" t="n"/>
@@ -4018,21 +4018,21 @@
       <c r="AA8" s="547" t="n"/>
       <c r="AB8" s="557" t="inlineStr">
         <is>
-          <t>ニ</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AC8" s="552" t="n"/>
       <c r="AD8" s="553" t="n"/>
       <c r="AE8" s="558" t="inlineStr">
         <is>
-          <t>ホ</t>
+          <t>o</t>
         </is>
       </c>
       <c r="AF8" s="552" t="n"/>
       <c r="AG8" s="553" t="n"/>
       <c r="AH8" s="559" t="inlineStr">
         <is>
-          <t>ヘ</t>
+          <t>n</t>
         </is>
       </c>
       <c r="AI8" s="552" t="n"/>
@@ -4055,7 +4055,7 @@
       <c r="AU8" s="546" t="n"/>
       <c r="AV8" s="562" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>事</t>
         </is>
       </c>
       <c r="AW8" s="552" t="n"/>
@@ -4063,7 +4063,7 @@
       <c r="AY8" s="553" t="n"/>
       <c r="AZ8" s="551" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>業</t>
         </is>
       </c>
       <c r="BA8" s="552" t="n"/>
@@ -4071,7 +4071,7 @@
       <c r="BC8" s="553" t="n"/>
       <c r="BD8" s="551" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>所</t>
         </is>
       </c>
       <c r="BE8" s="552" t="n"/>
@@ -4079,7 +4079,7 @@
       <c r="BG8" s="553" t="n"/>
       <c r="BH8" s="551" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>番</t>
         </is>
       </c>
       <c r="BI8" s="552" t="n"/>
@@ -4087,7 +4087,7 @@
       <c r="BK8" s="553" t="n"/>
       <c r="BL8" s="554" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>号</t>
         </is>
       </c>
       <c r="BM8" s="552" t="n"/>
@@ -4098,7 +4098,7 @@
       <c r="EI8" s="57" t="n"/>
       <c r="EJ8" s="57" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="9" s="57">
+    <row r="9" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G9" s="563" t="n"/>
       <c r="M9" s="564" t="n"/>
       <c r="N9" s="563" t="n"/>
@@ -4154,7 +4154,7 @@
       <c r="EI9" s="57" t="n"/>
       <c r="EJ9" s="57" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="10" s="57">
+    <row r="10" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G10" s="563" t="n"/>
       <c r="M10" s="564" t="n"/>
       <c r="N10" s="563" t="n"/>
@@ -4210,7 +4210,7 @@
       <c r="EI10" s="57" t="n"/>
       <c r="EJ10" s="57" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="11" s="57">
+    <row r="11" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G11" s="563" t="n"/>
       <c r="M11" s="564" t="n"/>
       <c r="N11" s="563" t="n"/>
@@ -4266,7 +4266,7 @@
       <c r="EI11" s="57" t="n"/>
       <c r="EJ11" s="57" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="12" s="57">
+    <row r="12" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G12" s="563" t="n"/>
       <c r="M12" s="564" t="n"/>
       <c r="N12" s="563" t="n"/>
@@ -4322,7 +4322,7 @@
       <c r="EI12" s="57" t="n"/>
       <c r="EJ12" s="57" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="13" s="57">
+    <row r="13" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G13" s="570" t="n"/>
       <c r="H13" s="571" t="n"/>
       <c r="I13" s="571" t="n"/>
@@ -4392,7 +4392,7 @@
       <c r="EI13" s="57" t="n"/>
       <c r="EJ13" s="57" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="14" s="57">
+    <row r="14" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="M14" s="90" t="n"/>
       <c r="N14" s="90" t="n"/>
       <c r="O14" s="90" t="n"/>
@@ -4464,7 +4464,7 @@
       <c r="EI14" s="57" t="n"/>
       <c r="EJ14" s="57" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="15" s="57">
+    <row r="15" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G15" s="101" t="n"/>
       <c r="H15" s="102" t="n"/>
       <c r="I15" s="102" t="n"/>
@@ -4535,7 +4535,7 @@
       <c r="EI15" s="57" t="n"/>
       <c r="EJ15" s="57" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="16" s="57">
+    <row r="16" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G16" s="104" t="n"/>
       <c r="H16" s="105" t="n"/>
       <c r="I16" s="105" t="n"/>
@@ -4573,7 +4573,7 @@
       <c r="EI16" s="57" t="n"/>
       <c r="EJ16" s="57" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="17" s="57">
+    <row r="17" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G17" s="104" t="n"/>
       <c r="H17" s="105" t="n"/>
       <c r="I17" s="105" t="n"/>
@@ -4588,7 +4588,7 @@
       </c>
       <c r="R17" s="217" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>郵便番号</t>
         </is>
       </c>
       <c r="S17" s="544" t="n"/>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="AA17" s="217" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AB17" s="544" t="n"/>
@@ -4648,7 +4648,7 @@
       <c r="BN17" s="14" t="n"/>
       <c r="BO17" s="8" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="18" s="57">
+    <row r="18" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G18" s="579" t="inlineStr">
         <is>
           <t>事業所
@@ -4705,7 +4705,7 @@
       <c r="BN18" s="14" t="n"/>
       <c r="BO18" s="8" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="19" s="57">
+    <row r="19" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G19" s="563" t="n"/>
       <c r="M19" s="564" t="n"/>
       <c r="R19" s="544" t="n"/>
@@ -4751,12 +4751,12 @@
       <c r="BN19" s="14" t="n"/>
       <c r="BO19" s="8" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="20" s="57">
+    <row r="20" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G20" s="563" t="n"/>
       <c r="M20" s="564" t="n"/>
       <c r="N20" s="580" t="inlineStr">
         <is>
-          <t>神奈川県横浜市赤坂1-1-1</t>
+          <t>住所</t>
         </is>
       </c>
       <c r="O20" s="544" t="n"/>
@@ -4813,7 +4813,7 @@
       <c r="BN20" s="544" t="n"/>
       <c r="BO20" s="568" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="21" s="57">
+    <row r="21" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G21" s="563" t="n"/>
       <c r="M21" s="564" t="n"/>
       <c r="N21" s="569" t="n"/>
@@ -4871,7 +4871,7 @@
       <c r="BN21" s="544" t="n"/>
       <c r="BO21" s="568" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="22" s="57">
+    <row r="22" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G22" s="563" t="n"/>
       <c r="M22" s="564" t="n"/>
       <c r="N22" s="569" t="n"/>
@@ -4929,7 +4929,7 @@
       <c r="BN22" s="544" t="n"/>
       <c r="BO22" s="568" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="23" s="57">
+    <row r="23" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G23" s="563" t="n"/>
       <c r="M23" s="564" t="n"/>
       <c r="N23" s="569" t="n"/>
@@ -4987,7 +4987,7 @@
       <c r="BN23" s="544" t="n"/>
       <c r="BO23" s="568" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="24" s="57">
+    <row r="24" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G24" s="563" t="n"/>
       <c r="M24" s="564" t="n"/>
       <c r="N24" s="569" t="n"/>
@@ -5045,7 +5045,7 @@
       <c r="BN24" s="544" t="n"/>
       <c r="BO24" s="568" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="25" s="57">
+    <row r="25" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G25" s="563" t="n"/>
       <c r="M25" s="564" t="n"/>
       <c r="N25" s="569" t="n"/>
@@ -5103,7 +5103,7 @@
       <c r="BN25" s="544" t="n"/>
       <c r="BO25" s="568" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="26" s="57">
+    <row r="26" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G26" s="563" t="n"/>
       <c r="M26" s="564" t="n"/>
       <c r="N26" s="569" t="n"/>
@@ -5161,7 +5161,7 @@
       <c r="BN26" s="544" t="n"/>
       <c r="BO26" s="568" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="27" s="57">
+    <row r="27" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G27" s="563" t="n"/>
       <c r="M27" s="564" t="n"/>
       <c r="N27" s="569" t="n"/>
@@ -5219,7 +5219,7 @@
       <c r="BN27" s="544" t="n"/>
       <c r="BO27" s="568" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="28" s="57">
+    <row r="28" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G28" s="563" t="n"/>
       <c r="M28" s="564" t="n"/>
       <c r="N28" s="569" t="n"/>
@@ -5277,7 +5277,7 @@
       <c r="BN28" s="544" t="n"/>
       <c r="BO28" s="568" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="29" s="57">
+    <row r="29" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G29" s="563" t="n"/>
       <c r="M29" s="564" t="n"/>
       <c r="N29" s="569" t="n"/>
@@ -5335,7 +5335,7 @@
       <c r="BN29" s="544" t="n"/>
       <c r="BO29" s="568" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="30" s="57">
+    <row r="30" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G30" s="563" t="n"/>
       <c r="M30" s="564" t="n"/>
       <c r="N30" s="569" t="n"/>
@@ -5393,7 +5393,7 @@
       <c r="BN30" s="544" t="n"/>
       <c r="BO30" s="568" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="31" s="57">
+    <row r="31" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G31" s="579" t="inlineStr">
         <is>
           <t>事業所
@@ -5403,7 +5403,7 @@
       <c r="M31" s="564" t="n"/>
       <c r="N31" s="581" t="inlineStr">
         <is>
-          <t>株式会社架空コングロマリット</t>
+          <t>事業所名称</t>
         </is>
       </c>
       <c r="O31" s="544" t="n"/>
@@ -5460,7 +5460,7 @@
       <c r="BN31" s="544" t="n"/>
       <c r="BO31" s="568" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="32" s="57">
+    <row r="32" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G32" s="563" t="n"/>
       <c r="M32" s="564" t="n"/>
       <c r="N32" s="569" t="n"/>
@@ -5518,7 +5518,7 @@
       <c r="BN32" s="544" t="n"/>
       <c r="BO32" s="568" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="33" s="57">
+    <row r="33" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G33" s="563" t="n"/>
       <c r="M33" s="564" t="n"/>
       <c r="N33" s="569" t="n"/>
@@ -5576,7 +5576,7 @@
       <c r="BN33" s="544" t="n"/>
       <c r="BO33" s="568" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="34" s="57">
+    <row r="34" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G34" s="563" t="n"/>
       <c r="M34" s="564" t="n"/>
       <c r="N34" s="569" t="n"/>
@@ -5634,7 +5634,7 @@
       <c r="BN34" s="544" t="n"/>
       <c r="BO34" s="568" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="35" s="57">
+    <row r="35" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G35" s="563" t="n"/>
       <c r="M35" s="564" t="n"/>
       <c r="N35" s="569" t="n"/>
@@ -5713,7 +5713,7 @@
       <c r="CI35" s="57" t="n"/>
       <c r="CJ35" s="57" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="36" s="57">
+    <row r="36" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G36" s="563" t="n"/>
       <c r="M36" s="564" t="n"/>
       <c r="N36" s="569" t="n"/>
@@ -5812,7 +5812,7 @@
       <c r="CY36" s="584" t="n"/>
       <c r="CZ36" s="584" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="37" s="57">
+    <row r="37" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G37" s="563" t="n"/>
       <c r="M37" s="564" t="n"/>
       <c r="N37" s="569" t="n"/>
@@ -5884,7 +5884,7 @@
       <c r="CY37" s="584" t="n"/>
       <c r="CZ37" s="584" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="38" s="57">
+    <row r="38" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G38" s="563" t="n"/>
       <c r="M38" s="564" t="n"/>
       <c r="N38" s="569" t="n"/>
@@ -5956,7 +5956,7 @@
       <c r="CY38" s="584" t="n"/>
       <c r="CZ38" s="584" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="39" s="57">
+    <row r="39" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G39" s="563" t="n"/>
       <c r="M39" s="564" t="n"/>
       <c r="N39" s="569" t="n"/>
@@ -6051,7 +6051,7 @@
       <c r="CY39" s="584" t="n"/>
       <c r="CZ39" s="584" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="40" s="57">
+    <row r="40" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G40" s="579" t="inlineStr">
         <is>
           <t>事業主
@@ -6183,7 +6183,7 @@
       <c r="EA40" s="57" t="n"/>
       <c r="EB40" s="57" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="41" s="57">
+    <row r="41" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G41" s="563" t="n"/>
       <c r="M41" s="564" t="n"/>
       <c r="N41" s="569" t="n"/>
@@ -6286,7 +6286,7 @@
       <c r="EA41" s="57" t="n"/>
       <c r="EB41" s="57" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="42" s="57">
+    <row r="42" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G42" s="563" t="n"/>
       <c r="M42" s="564" t="n"/>
       <c r="N42" s="569" t="n"/>
@@ -6389,7 +6389,7 @@
       <c r="EA42" s="57" t="n"/>
       <c r="EB42" s="57" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="43" s="57">
+    <row r="43" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G43" s="563" t="n"/>
       <c r="M43" s="564" t="n"/>
       <c r="N43" s="569" t="n"/>
@@ -6512,7 +6512,7 @@
       <c r="EA43" s="57" t="n"/>
       <c r="EB43" s="57" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="44" s="57">
+    <row r="44" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G44" s="563" t="n"/>
       <c r="M44" s="564" t="n"/>
       <c r="N44" s="569" t="n"/>
@@ -6635,7 +6635,7 @@
       <c r="EA44" s="57" t="n"/>
       <c r="EB44" s="57" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="45" s="57">
+    <row r="45" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G45" s="563" t="n"/>
       <c r="M45" s="564" t="n"/>
       <c r="N45" s="569" t="n"/>
@@ -6758,7 +6758,7 @@
       <c r="EA45" s="57" t="n"/>
       <c r="EB45" s="57" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="46" s="57">
+    <row r="46" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G46" s="563" t="n"/>
       <c r="M46" s="564" t="n"/>
       <c r="N46" s="569" t="n"/>
@@ -6881,7 +6881,7 @@
       <c r="EA46" s="24" t="n"/>
       <c r="EB46" s="24" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="47" s="57">
+    <row r="47" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G47" s="563" t="n"/>
       <c r="M47" s="564" t="n"/>
       <c r="N47" s="569" t="n"/>
@@ -7004,7 +7004,7 @@
       <c r="EA47" s="24" t="n"/>
       <c r="EB47" s="24" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="48" s="57">
+    <row r="48" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G48" s="563" t="n"/>
       <c r="M48" s="564" t="n"/>
       <c r="N48" s="569" t="n"/>
@@ -7127,7 +7127,7 @@
       <c r="EA48" s="24" t="n"/>
       <c r="EB48" s="24" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="49" s="57">
+    <row r="49" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G49" s="589" t="inlineStr">
         <is>
           <t>電話番号</t>
@@ -7144,7 +7144,7 @@
       <c r="U49" s="61" t="n"/>
       <c r="V49" s="287" t="inlineStr">
         <is>
-          <t>042</t>
+          <t>電話番号</t>
         </is>
       </c>
       <c r="W49" s="544" t="n"/>
@@ -7163,7 +7163,7 @@
       </c>
       <c r="AH49" s="287" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AI49" s="544" t="n"/>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="AX49" s="287" t="inlineStr">
         <is>
-          <t>2222</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AY49" s="544" t="n"/>
@@ -7272,7 +7272,7 @@
       <c r="EA49" s="24" t="n"/>
       <c r="EB49" s="24" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="50" s="57">
+    <row r="50" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G50" s="563" t="n"/>
       <c r="M50" s="564" t="n"/>
       <c r="N50" s="61" t="n"/>
@@ -7391,7 +7391,7 @@
       <c r="EA50" s="24" t="n"/>
       <c r="EB50" s="24" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="51" s="57">
+    <row r="51" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G51" s="563" t="n"/>
       <c r="M51" s="564" t="n"/>
       <c r="N51" s="61" t="n"/>
@@ -7510,7 +7510,7 @@
       <c r="EA51" s="24" t="n"/>
       <c r="EB51" s="24" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="52" s="57">
+    <row r="52" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G52" s="570" t="n"/>
       <c r="H52" s="571" t="n"/>
       <c r="I52" s="571" t="n"/>
@@ -7638,7 +7638,7 @@
       <c r="EA52" s="24" t="n"/>
       <c r="EB52" s="24" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="53" s="57">
+    <row r="53" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="G53" s="29" t="n"/>
       <c r="H53" s="29" t="n"/>
       <c r="I53" s="29" t="n"/>
@@ -7767,12 +7767,12 @@
       <c r="EB53" s="24" t="n"/>
       <c r="EC53" s="24" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6" r="54" s="57">
+    <row r="54" ht="6" customFormat="1" customHeight="1" s="57">
       <c r="EA54" s="57" t="n"/>
       <c r="EB54" s="57" t="n"/>
       <c r="EC54" s="57" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="55" s="57">
+    <row r="55" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="A55" s="312" t="n"/>
       <c r="G55" s="181" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
       <c r="AA55" s="121" t="n"/>
       <c r="AB55" s="591" t="inlineStr">
         <is>
-          <t>カネコ</t>
+          <t>クウジョウ</t>
         </is>
       </c>
       <c r="AC55" s="552" t="n"/>
@@ -7834,7 +7834,7 @@
       <c r="AY55" s="592" t="n"/>
       <c r="AZ55" s="593" t="inlineStr">
         <is>
-          <t>ケイタ</t>
+          <t>ジョリン</t>
         </is>
       </c>
       <c r="BA55" s="552" t="n"/>
@@ -7884,28 +7884,28 @@
       <c r="CI55" s="546" t="n"/>
       <c r="CJ55" s="595" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="CK55" s="552" t="n"/>
       <c r="CL55" s="592" t="n"/>
       <c r="CM55" s="596" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="CN55" s="552" t="n"/>
       <c r="CO55" s="555" t="n"/>
       <c r="CP55" s="595" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CQ55" s="552" t="n"/>
       <c r="CR55" s="592" t="n"/>
       <c r="CS55" s="596" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="CT55" s="552" t="n"/>
@@ -7964,7 +7964,7 @@
       <c r="EB55" s="32" t="n"/>
       <c r="EC55" s="32" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="56" s="57">
+    <row r="56" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="G56" s="563" t="n"/>
       <c r="I56" s="184" t="n"/>
       <c r="J56" s="184" t="n"/>
@@ -8061,7 +8061,7 @@
       <c r="EB56" s="32" t="n"/>
       <c r="EC56" s="32" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="57" s="57">
+    <row r="57" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="G57" s="600" t="inlineStr">
         <is>
           <t>被保険者
@@ -8162,7 +8162,7 @@
       <c r="EB57" s="32" t="n"/>
       <c r="EC57" s="32" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="58" s="57">
+    <row r="58" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="G58" s="563" t="n"/>
       <c r="M58" s="564" t="n"/>
       <c r="N58" s="563" t="n"/>
@@ -8171,7 +8171,7 @@
       <c r="AA58" s="564" t="n"/>
       <c r="AB58" s="606" t="inlineStr">
         <is>
-          <t>金子</t>
+          <t>空条</t>
         </is>
       </c>
       <c r="AC58" s="607" t="n"/>
@@ -8199,7 +8199,7 @@
       <c r="AY58" s="608" t="n"/>
       <c r="AZ58" s="609" t="inlineStr">
         <is>
-          <t>恵太</t>
+          <t>徐倫</t>
         </is>
       </c>
       <c r="BA58" s="607" t="n"/>
@@ -8254,7 +8254,7 @@
       <c r="EB58" s="32" t="n"/>
       <c r="EC58" s="32" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="59" s="57">
+    <row r="59" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="G59" s="563" t="n"/>
       <c r="M59" s="564" t="n"/>
       <c r="N59" s="563" t="n"/>
@@ -8338,7 +8338,7 @@
       <c r="EB59" s="32" t="n"/>
       <c r="EC59" s="32" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="60" s="57">
+    <row r="60" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="G60" s="563" t="n"/>
       <c r="M60" s="564" t="n"/>
       <c r="N60" s="563" t="n"/>
@@ -8422,7 +8422,7 @@
       <c r="EB60" s="32" t="n"/>
       <c r="EC60" s="32" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="61" s="57">
+    <row r="61" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="G61" s="563" t="n"/>
       <c r="M61" s="564" t="n"/>
       <c r="N61" s="563" t="n"/>
@@ -8506,7 +8506,7 @@
       <c r="EB61" s="32" t="n"/>
       <c r="EC61" s="32" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="62" s="57">
+    <row r="62" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="G62" s="563" t="n"/>
       <c r="M62" s="564" t="n"/>
       <c r="N62" s="563" t="n"/>
@@ -8590,7 +8590,7 @@
       <c r="EB62" s="32" t="n"/>
       <c r="EC62" s="32" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="63" s="57">
+    <row r="63" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="G63" s="563" t="n"/>
       <c r="M63" s="564" t="n"/>
       <c r="N63" s="563" t="n"/>
@@ -8674,7 +8674,7 @@
       <c r="EB63" s="32" t="n"/>
       <c r="EC63" s="32" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="64" s="57">
+    <row r="64" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="G64" s="570" t="n"/>
       <c r="H64" s="571" t="n"/>
       <c r="I64" s="571" t="n"/>
@@ -8803,7 +8803,7 @@
       <c r="EB64" s="32" t="n"/>
       <c r="EC64" s="32" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="65" s="85">
+    <row r="65" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="G65" s="181" t="inlineStr">
         <is>
           <t>⑤</t>
@@ -8839,7 +8839,7 @@
       <c r="AA65" s="125" t="n"/>
       <c r="AB65" s="595" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC65" s="552" t="n"/>
@@ -8847,7 +8847,7 @@
       <c r="AE65" s="592" t="n"/>
       <c r="AF65" s="614" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG65" s="552" t="n"/>
@@ -8855,7 +8855,7 @@
       <c r="AI65" s="592" t="n"/>
       <c r="AJ65" s="614" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AK65" s="552" t="n"/>
@@ -8863,7 +8863,7 @@
       <c r="AM65" s="592" t="n"/>
       <c r="AN65" s="596" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO65" s="552" t="n"/>
@@ -8871,7 +8871,7 @@
       <c r="AQ65" s="555" t="n"/>
       <c r="AR65" s="595" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AS65" s="552" t="n"/>
@@ -8879,7 +8879,7 @@
       <c r="AU65" s="592" t="n"/>
       <c r="AV65" s="614" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AW65" s="552" t="n"/>
@@ -8887,7 +8887,7 @@
       <c r="AY65" s="592" t="n"/>
       <c r="AZ65" s="614" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="BA65" s="552" t="n"/>
@@ -8895,7 +8895,7 @@
       <c r="BC65" s="592" t="n"/>
       <c r="BD65" s="596" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="BE65" s="552" t="n"/>
@@ -8903,7 +8903,7 @@
       <c r="BG65" s="555" t="n"/>
       <c r="BH65" s="595" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="BI65" s="552" t="n"/>
@@ -8911,7 +8911,7 @@
       <c r="BK65" s="592" t="n"/>
       <c r="BL65" s="614" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="BM65" s="552" t="n"/>
@@ -8919,7 +8919,7 @@
       <c r="BO65" s="592" t="n"/>
       <c r="BP65" s="614" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="BQ65" s="552" t="n"/>
@@ -8927,7 +8927,7 @@
       <c r="BS65" s="592" t="n"/>
       <c r="BT65" s="596" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="BU65" s="552" t="n"/>
@@ -8976,7 +8976,7 @@
       <c r="CR65" s="592" t="n"/>
       <c r="CS65" s="596" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="CT65" s="552" t="n"/>
@@ -9043,7 +9043,7 @@
       <c r="EL65" s="85" t="n"/>
       <c r="EM65" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="66" s="85">
+    <row r="66" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="G66" s="563" t="n"/>
       <c r="I66" s="184" t="n"/>
       <c r="J66" s="184" t="n"/>
@@ -9147,7 +9147,7 @@
       <c r="EL66" s="85" t="n"/>
       <c r="EM66" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="67" s="85">
+    <row r="67" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="G67" s="600" t="inlineStr">
         <is>
           <t>取　得
@@ -9259,7 +9259,7 @@
       <c r="EL67" s="85" t="n"/>
       <c r="EM67" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="68" s="85">
+    <row r="68" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="G68" s="563" t="n"/>
       <c r="M68" s="564" t="n"/>
       <c r="N68" s="621" t="inlineStr">
@@ -9354,7 +9354,7 @@
       <c r="EL68" s="85" t="n"/>
       <c r="EM68" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="69" s="85">
+    <row r="69" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="G69" s="563" t="n"/>
       <c r="M69" s="564" t="n"/>
       <c r="N69" s="563" t="n"/>
@@ -9445,7 +9445,7 @@
       <c r="EL69" s="85" t="n"/>
       <c r="EM69" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="70" s="85">
+    <row r="70" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="G70" s="563" t="n"/>
       <c r="M70" s="564" t="n"/>
       <c r="N70" s="563" t="n"/>
@@ -9541,7 +9541,7 @@
       <c r="EL70" s="85" t="n"/>
       <c r="EM70" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="71" s="85">
+    <row r="71" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="G71" s="563" t="n"/>
       <c r="M71" s="564" t="n"/>
       <c r="N71" s="623" t="inlineStr">
@@ -9636,7 +9636,7 @@
       <c r="EL71" s="85" t="n"/>
       <c r="EM71" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="72" s="85">
+    <row r="72" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="G72" s="563" t="n"/>
       <c r="M72" s="564" t="n"/>
       <c r="N72" s="563" t="n"/>
@@ -9727,7 +9727,7 @@
       <c r="EL72" s="85" t="n"/>
       <c r="EM72" s="85" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="73">
+    <row r="73" ht="6.75" customHeight="1">
       <c r="G73" s="570" t="n"/>
       <c r="H73" s="571" t="n"/>
       <c r="I73" s="571" t="n"/>
@@ -9853,7 +9853,7 @@
       <c r="EB73" s="35" t="n"/>
       <c r="EC73" s="35" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="74" s="43">
+    <row r="74" ht="6.75" customFormat="1" customHeight="1" s="43">
       <c r="G74" s="181" t="inlineStr">
         <is>
           <t>⑨</t>
@@ -9875,7 +9875,7 @@
       <c r="Q74" s="546" t="n"/>
       <c r="R74" s="546" t="n"/>
       <c r="S74" s="625" t="n">
-        <v>340000</v>
+        <v>120033</v>
       </c>
       <c r="T74" s="552" t="n"/>
       <c r="U74" s="552" t="n"/>
@@ -10011,7 +10011,7 @@
       <c r="EL74" s="43" t="n"/>
       <c r="EM74" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="75" s="43">
+    <row r="75" ht="6.75" customFormat="1" customHeight="1" s="43">
       <c r="G75" s="563" t="n"/>
       <c r="I75" s="184" t="n"/>
       <c r="J75" s="184" t="n"/>
@@ -10092,7 +10092,7 @@
       <c r="EL75" s="43" t="n"/>
       <c r="EM75" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="76" s="43">
+    <row r="76" ht="6.75" customFormat="1" customHeight="1" s="43">
       <c r="G76" s="117" t="n"/>
       <c r="H76" s="202" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
       <c r="EL76" s="43" t="n"/>
       <c r="EM76" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="77" s="43">
+    <row r="77" ht="6.75" customFormat="1" customHeight="1" s="43">
       <c r="G77" s="117" t="n"/>
       <c r="M77" s="116" t="n"/>
       <c r="N77" s="626" t="n"/>
@@ -10281,7 +10281,7 @@
       <c r="EL77" s="43" t="n"/>
       <c r="EM77" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="78">
+    <row r="78" ht="6.75" customHeight="1">
       <c r="G78" s="117" t="n"/>
       <c r="M78" s="116" t="n"/>
       <c r="N78" s="629" t="inlineStr">
@@ -10357,7 +10357,7 @@
       <c r="EB78" s="39" t="n"/>
       <c r="EC78" s="39" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="79">
+    <row r="79" ht="6.75" customHeight="1">
       <c r="G79" s="117" t="n"/>
       <c r="M79" s="116" t="n"/>
       <c r="N79" s="563" t="n"/>
@@ -10462,7 +10462,7 @@
       <c r="EB79" s="39" t="n"/>
       <c r="EC79" s="39" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="80">
+    <row r="80" ht="6.75" customHeight="1">
       <c r="G80" s="117" t="n"/>
       <c r="M80" s="116" t="n"/>
       <c r="N80" s="563" t="n"/>
@@ -10558,7 +10558,7 @@
       <c r="EB80" s="39" t="n"/>
       <c r="EC80" s="39" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="81" s="57">
+    <row r="81" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="G81" s="118" t="n"/>
       <c r="H81" s="571" t="n"/>
       <c r="I81" s="571" t="n"/>
@@ -10686,7 +10686,7 @@
       <c r="EB81" s="39" t="n"/>
       <c r="EC81" s="39" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="82" s="57">
+    <row r="82" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="G82" s="181" t="inlineStr">
         <is>
           <t>⑪</t>
@@ -10833,7 +10833,7 @@
       <c r="EB82" s="43" t="n"/>
       <c r="EC82" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="83" s="57">
+    <row r="83" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="G83" s="563" t="n"/>
       <c r="I83" s="184" t="n"/>
       <c r="J83" s="184" t="n"/>
@@ -10919,7 +10919,7 @@
       <c r="EB83" s="43" t="n"/>
       <c r="EC83" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="84" s="57">
+    <row r="84" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="G84" s="600" t="inlineStr">
         <is>
           <t>住　所</t>
@@ -11049,7 +11049,7 @@
       <c r="EB84" s="43" t="n"/>
       <c r="EC84" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="85" s="57">
+    <row r="85" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="G85" s="563" t="n"/>
       <c r="M85" s="564" t="n"/>
       <c r="N85" s="563" t="n"/>
@@ -11166,7 +11166,7 @@
       <c r="EB85" s="43" t="n"/>
       <c r="EC85" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="86" s="57">
+    <row r="86" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="G86" s="563" t="n"/>
       <c r="M86" s="564" t="n"/>
       <c r="N86" s="464" t="n"/>
@@ -11286,7 +11286,7 @@
       <c r="EB86" s="43" t="n"/>
       <c r="EC86" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="87" s="57">
+    <row r="87" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="G87" s="563" t="n"/>
       <c r="M87" s="564" t="n"/>
       <c r="N87" s="569" t="n"/>
@@ -11406,7 +11406,7 @@
       <c r="EB87" s="43" t="n"/>
       <c r="EC87" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="88" s="57">
+    <row r="88" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="G88" s="570" t="n"/>
       <c r="H88" s="571" t="n"/>
       <c r="I88" s="571" t="n"/>
@@ -11535,7 +11535,7 @@
       <c r="EB88" s="43" t="n"/>
       <c r="EC88" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="89" s="57">
+    <row r="89" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="G89" s="128" t="n"/>
       <c r="H89" s="128" t="n"/>
       <c r="I89" s="128" t="n"/>
@@ -11664,7 +11664,7 @@
       <c r="EB89" s="57" t="n"/>
       <c r="EC89" s="57" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="90" s="57">
+    <row r="90" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="A90" s="312" t="n"/>
       <c r="G90" s="181" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
       <c r="EB90" s="32" t="n"/>
       <c r="EC90" s="32" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="91" s="57">
+    <row r="91" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="A91" s="312" t="n"/>
       <c r="G91" s="563" t="n"/>
       <c r="I91" s="184" t="n"/>
@@ -11922,7 +11922,7 @@
       <c r="EB91" s="32" t="n"/>
       <c r="EC91" s="32" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="92" s="57">
+    <row r="92" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="A92" s="312" t="n"/>
       <c r="G92" s="600" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
       <c r="EB92" s="32" t="n"/>
       <c r="EC92" s="32" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="93" s="57">
+    <row r="93" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="A93" s="312" t="n"/>
       <c r="G93" s="563" t="n"/>
       <c r="M93" s="564" t="n"/>
@@ -12109,7 +12109,7 @@
       <c r="EB93" s="32" t="n"/>
       <c r="EC93" s="32" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="94" s="57">
+    <row r="94" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="A94" s="312" t="n"/>
       <c r="G94" s="563" t="n"/>
       <c r="M94" s="564" t="n"/>
@@ -12194,7 +12194,7 @@
       <c r="EB94" s="32" t="n"/>
       <c r="EC94" s="32" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="95" s="57">
+    <row r="95" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="A95" s="312" t="n"/>
       <c r="G95" s="563" t="n"/>
       <c r="M95" s="564" t="n"/>
@@ -12279,7 +12279,7 @@
       <c r="EB95" s="32" t="n"/>
       <c r="EC95" s="32" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="96" s="57">
+    <row r="96" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="A96" s="312" t="n"/>
       <c r="G96" s="563" t="n"/>
       <c r="M96" s="564" t="n"/>
@@ -12364,7 +12364,7 @@
       <c r="EB96" s="32" t="n"/>
       <c r="EC96" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="97">
+    <row r="97" ht="6.75" customHeight="1">
       <c r="A97" s="312" t="n"/>
       <c r="G97" s="563" t="n"/>
       <c r="M97" s="564" t="n"/>
@@ -12449,7 +12449,7 @@
       <c r="EB97" s="32" t="n"/>
       <c r="EC97" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="98">
+    <row r="98" ht="6.75" customHeight="1">
       <c r="A98" s="312" t="n"/>
       <c r="G98" s="563" t="n"/>
       <c r="M98" s="564" t="n"/>
@@ -12534,7 +12534,7 @@
       <c r="EB98" s="32" t="n"/>
       <c r="EC98" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="99">
+    <row r="99" ht="6.75" customHeight="1">
       <c r="A99" s="312" t="n"/>
       <c r="G99" s="570" t="n"/>
       <c r="H99" s="571" t="n"/>
@@ -12664,7 +12664,7 @@
       <c r="EB99" s="32" t="n"/>
       <c r="EC99" s="32" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="100" s="85">
+    <row r="100" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="A100" s="312" t="n"/>
       <c r="G100" s="181" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
       <c r="EL100" s="85" t="n"/>
       <c r="EM100" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="101" s="85">
+    <row r="101" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="A101" s="312" t="n"/>
       <c r="G101" s="563" t="n"/>
       <c r="I101" s="184" t="n"/>
@@ -12938,7 +12938,7 @@
       <c r="EL101" s="85" t="n"/>
       <c r="EM101" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="102" s="85">
+    <row r="102" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="A102" s="312" t="n"/>
       <c r="G102" s="600" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
       <c r="EL102" s="85" t="n"/>
       <c r="EM102" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="103" s="85">
+    <row r="103" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="A103" s="312" t="n"/>
       <c r="G103" s="563" t="n"/>
       <c r="M103" s="564" t="n"/>
@@ -13147,7 +13147,7 @@
       <c r="EL103" s="85" t="n"/>
       <c r="EM103" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="104" s="85">
+    <row r="104" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="A104" s="312" t="n"/>
       <c r="G104" s="563" t="n"/>
       <c r="M104" s="564" t="n"/>
@@ -13239,7 +13239,7 @@
       <c r="EL104" s="85" t="n"/>
       <c r="EM104" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="105" s="85">
+    <row r="105" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="A105" s="312" t="n"/>
       <c r="G105" s="563" t="n"/>
       <c r="M105" s="564" t="n"/>
@@ -13336,7 +13336,7 @@
       <c r="EL105" s="85" t="n"/>
       <c r="EM105" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="106" s="85">
+    <row r="106" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="A106" s="312" t="n"/>
       <c r="G106" s="563" t="n"/>
       <c r="M106" s="564" t="n"/>
@@ -13432,7 +13432,7 @@
       <c r="EL106" s="85" t="n"/>
       <c r="EM106" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="107" s="85">
+    <row r="107" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="A107" s="312" t="n"/>
       <c r="G107" s="563" t="n"/>
       <c r="M107" s="564" t="n"/>
@@ -13524,7 +13524,7 @@
       <c r="EL107" s="85" t="n"/>
       <c r="EM107" s="85" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="108">
+    <row r="108" ht="6.75" customHeight="1">
       <c r="A108" s="312" t="n"/>
       <c r="G108" s="570" t="n"/>
       <c r="H108" s="571" t="n"/>
@@ -13651,7 +13651,7 @@
       <c r="EB108" s="35" t="n"/>
       <c r="EC108" s="35" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="109" s="43">
+    <row r="109" ht="6.75" customFormat="1" customHeight="1" s="43">
       <c r="A109" s="312" t="n"/>
       <c r="G109" s="181" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
       <c r="EL109" s="43" t="n"/>
       <c r="EM109" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="110" s="43">
+    <row r="110" ht="6.75" customFormat="1" customHeight="1" s="43">
       <c r="A110" s="312" t="n"/>
       <c r="G110" s="563" t="n"/>
       <c r="I110" s="184" t="n"/>
@@ -13890,7 +13890,7 @@
       <c r="EL110" s="43" t="n"/>
       <c r="EM110" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="111" s="43">
+    <row r="111" ht="6.75" customFormat="1" customHeight="1" s="43">
       <c r="A111" s="312" t="n"/>
       <c r="G111" s="117" t="n"/>
       <c r="H111" s="202" t="inlineStr">
@@ -13991,7 +13991,7 @@
       <c r="EL111" s="43" t="n"/>
       <c r="EM111" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="112" s="43">
+    <row r="112" ht="6.75" customFormat="1" customHeight="1" s="43">
       <c r="A112" s="312" t="n"/>
       <c r="G112" s="117" t="n"/>
       <c r="M112" s="116" t="n"/>
@@ -14081,7 +14081,7 @@
       <c r="EL112" s="43" t="n"/>
       <c r="EM112" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="113" s="57">
+    <row r="113" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="A113" s="312" t="n"/>
       <c r="G113" s="117" t="n"/>
       <c r="M113" s="116" t="n"/>
@@ -14159,7 +14159,7 @@
       <c r="EB113" s="39" t="n"/>
       <c r="EC113" s="39" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="114" s="57">
+    <row r="114" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="A114" s="312" t="n"/>
       <c r="G114" s="117" t="n"/>
       <c r="M114" s="116" t="n"/>
@@ -14266,7 +14266,7 @@
       <c r="EB114" s="39" t="n"/>
       <c r="EC114" s="39" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="115" s="57">
+    <row r="115" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="A115" s="312" t="n"/>
       <c r="G115" s="117" t="n"/>
       <c r="M115" s="116" t="n"/>
@@ -14364,7 +14364,7 @@
       <c r="EB115" s="39" t="n"/>
       <c r="EC115" s="39" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="116" s="57">
+    <row r="116" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="A116" s="312" t="n"/>
       <c r="G116" s="118" t="n"/>
       <c r="H116" s="571" t="n"/>
@@ -14494,7 +14494,7 @@
       <c r="EB116" s="39" t="n"/>
       <c r="EC116" s="39" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="117" s="57">
+    <row r="117" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="A117" s="312" t="n"/>
       <c r="G117" s="181" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
       <c r="EB117" s="43" t="n"/>
       <c r="EC117" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="118" s="57">
+    <row r="118" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="A118" s="312" t="n"/>
       <c r="G118" s="563" t="n"/>
       <c r="I118" s="184" t="n"/>
@@ -14729,7 +14729,7 @@
       <c r="EB118" s="43" t="n"/>
       <c r="EC118" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="119" s="57">
+    <row r="119" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="A119" s="312" t="n"/>
       <c r="G119" s="600" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
       <c r="EB119" s="43" t="n"/>
       <c r="EC119" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="120" s="57">
+    <row r="120" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="A120" s="312" t="n"/>
       <c r="G120" s="563" t="n"/>
       <c r="M120" s="564" t="n"/>
@@ -14978,7 +14978,7 @@
       <c r="EB120" s="43" t="n"/>
       <c r="EC120" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="121" s="57">
+    <row r="121" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="A121" s="312" t="n"/>
       <c r="G121" s="563" t="n"/>
       <c r="M121" s="564" t="n"/>
@@ -15099,7 +15099,7 @@
       <c r="EB121" s="43" t="n"/>
       <c r="EC121" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="122" s="57">
+    <row r="122" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="A122" s="312" t="n"/>
       <c r="G122" s="563" t="n"/>
       <c r="M122" s="564" t="n"/>
@@ -15220,7 +15220,7 @@
       <c r="EB122" s="43" t="n"/>
       <c r="EC122" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="123" s="57">
+    <row r="123" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="A123" s="312" t="n"/>
       <c r="G123" s="570" t="n"/>
       <c r="H123" s="571" t="n"/>
@@ -15350,7 +15350,7 @@
       <c r="EB123" s="43" t="n"/>
       <c r="EC123" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="124" s="57">
+    <row r="124" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="DN124" s="52" t="n"/>
       <c r="DO124" s="52" t="n"/>
       <c r="DP124" s="52" t="n"/>
@@ -15368,7 +15368,7 @@
       <c r="EB124" s="57" t="n"/>
       <c r="EC124" s="57" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="125" s="57">
+    <row r="125" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="A125" s="312" t="n"/>
       <c r="G125" s="181" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
       <c r="EB125" s="32" t="n"/>
       <c r="EC125" s="32" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="126" s="57">
+    <row r="126" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="A126" s="312" t="n"/>
       <c r="G126" s="563" t="n"/>
       <c r="I126" s="184" t="n"/>
@@ -15626,7 +15626,7 @@
       <c r="EB126" s="32" t="n"/>
       <c r="EC126" s="32" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="127" s="57">
+    <row r="127" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="A127" s="312" t="n"/>
       <c r="G127" s="600" t="inlineStr">
         <is>
@@ -15728,7 +15728,7 @@
       <c r="EB127" s="32" t="n"/>
       <c r="EC127" s="32" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="128" s="57">
+    <row r="128" ht="6.75" customFormat="1" customHeight="1" s="57">
       <c r="A128" s="312" t="n"/>
       <c r="G128" s="563" t="n"/>
       <c r="M128" s="564" t="n"/>
@@ -15813,7 +15813,7 @@
       <c r="EB128" s="32" t="n"/>
       <c r="EC128" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="129">
+    <row r="129" ht="6.75" customHeight="1">
       <c r="A129" s="312" t="n"/>
       <c r="G129" s="563" t="n"/>
       <c r="M129" s="564" t="n"/>
@@ -15898,7 +15898,7 @@
       <c r="EB129" s="32" t="n"/>
       <c r="EC129" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="130">
+    <row r="130" ht="6.75" customHeight="1">
       <c r="A130" s="312" t="n"/>
       <c r="G130" s="563" t="n"/>
       <c r="M130" s="564" t="n"/>
@@ -15983,7 +15983,7 @@
       <c r="EB130" s="32" t="n"/>
       <c r="EC130" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="131">
+    <row r="131" ht="6.75" customHeight="1">
       <c r="A131" s="312" t="n"/>
       <c r="G131" s="563" t="n"/>
       <c r="M131" s="564" t="n"/>
@@ -16068,7 +16068,7 @@
       <c r="EB131" s="32" t="n"/>
       <c r="EC131" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="132">
+    <row r="132" ht="6.75" customHeight="1">
       <c r="A132" s="312" t="n"/>
       <c r="G132" s="563" t="n"/>
       <c r="M132" s="564" t="n"/>
@@ -16153,7 +16153,7 @@
       <c r="EB132" s="32" t="n"/>
       <c r="EC132" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="133">
+    <row r="133" ht="6.75" customHeight="1">
       <c r="A133" s="312" t="n"/>
       <c r="G133" s="563" t="n"/>
       <c r="M133" s="564" t="n"/>
@@ -16238,7 +16238,7 @@
       <c r="EB133" s="32" t="n"/>
       <c r="EC133" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="134">
+    <row r="134" ht="6.75" customHeight="1">
       <c r="A134" s="312" t="n"/>
       <c r="G134" s="570" t="n"/>
       <c r="H134" s="571" t="n"/>
@@ -16368,7 +16368,7 @@
       <c r="EB134" s="32" t="n"/>
       <c r="EC134" s="32" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="135" s="85">
+    <row r="135" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="A135" s="312" t="n"/>
       <c r="G135" s="181" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       <c r="EL135" s="85" t="n"/>
       <c r="EM135" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="136" s="85">
+    <row r="136" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="A136" s="312" t="n"/>
       <c r="G136" s="563" t="n"/>
       <c r="I136" s="184" t="n"/>
@@ -16642,7 +16642,7 @@
       <c r="EL136" s="85" t="n"/>
       <c r="EM136" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="137" s="85">
+    <row r="137" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="A137" s="312" t="n"/>
       <c r="G137" s="600" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
       <c r="EL137" s="85" t="n"/>
       <c r="EM137" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="138" s="85">
+    <row r="138" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="A138" s="312" t="n"/>
       <c r="G138" s="563" t="n"/>
       <c r="M138" s="564" t="n"/>
@@ -16851,7 +16851,7 @@
       <c r="EL138" s="85" t="n"/>
       <c r="EM138" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="139" s="85">
+    <row r="139" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="A139" s="312" t="n"/>
       <c r="G139" s="563" t="n"/>
       <c r="M139" s="564" t="n"/>
@@ -16943,7 +16943,7 @@
       <c r="EL139" s="85" t="n"/>
       <c r="EM139" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="140" s="85">
+    <row r="140" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="A140" s="312" t="n"/>
       <c r="G140" s="563" t="n"/>
       <c r="M140" s="564" t="n"/>
@@ -17040,7 +17040,7 @@
       <c r="EL140" s="85" t="n"/>
       <c r="EM140" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="141" s="85">
+    <row r="141" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="A141" s="312" t="n"/>
       <c r="G141" s="563" t="n"/>
       <c r="M141" s="564" t="n"/>
@@ -17136,7 +17136,7 @@
       <c r="EL141" s="85" t="n"/>
       <c r="EM141" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="142" s="85">
+    <row r="142" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="A142" s="312" t="n"/>
       <c r="G142" s="563" t="n"/>
       <c r="M142" s="564" t="n"/>
@@ -17228,7 +17228,7 @@
       <c r="EL142" s="85" t="n"/>
       <c r="EM142" s="85" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="143">
+    <row r="143" ht="6.75" customHeight="1">
       <c r="A143" s="312" t="n"/>
       <c r="G143" s="570" t="n"/>
       <c r="H143" s="571" t="n"/>
@@ -17355,7 +17355,7 @@
       <c r="EB143" s="35" t="n"/>
       <c r="EC143" s="35" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="144" s="43">
+    <row r="144" ht="6.75" customFormat="1" customHeight="1" s="43">
       <c r="A144" s="312" t="n"/>
       <c r="G144" s="181" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
       <c r="EL144" s="43" t="n"/>
       <c r="EM144" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="145" s="43">
+    <row r="145" ht="6.75" customFormat="1" customHeight="1" s="43">
       <c r="A145" s="312" t="n"/>
       <c r="G145" s="563" t="n"/>
       <c r="I145" s="184" t="n"/>
@@ -17594,7 +17594,7 @@
       <c r="EL145" s="43" t="n"/>
       <c r="EM145" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="146" s="43">
+    <row r="146" ht="6.75" customFormat="1" customHeight="1" s="43">
       <c r="A146" s="312" t="n"/>
       <c r="G146" s="117" t="n"/>
       <c r="H146" s="202" t="inlineStr">
@@ -17695,7 +17695,7 @@
       <c r="EL146" s="43" t="n"/>
       <c r="EM146" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="147" s="43">
+    <row r="147" ht="6.75" customFormat="1" customHeight="1" s="43">
       <c r="A147" s="312" t="n"/>
       <c r="G147" s="117" t="n"/>
       <c r="M147" s="116" t="n"/>
@@ -17785,7 +17785,7 @@
       <c r="EL147" s="43" t="n"/>
       <c r="EM147" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="148">
+    <row r="148" ht="6.75" customHeight="1">
       <c r="A148" s="312" t="n"/>
       <c r="G148" s="117" t="n"/>
       <c r="M148" s="116" t="n"/>
@@ -17863,7 +17863,7 @@
       <c r="EB148" s="39" t="n"/>
       <c r="EC148" s="39" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="149">
+    <row r="149" ht="6.75" customHeight="1">
       <c r="A149" s="312" t="n"/>
       <c r="G149" s="117" t="n"/>
       <c r="M149" s="116" t="n"/>
@@ -17970,7 +17970,7 @@
       <c r="EB149" s="39" t="n"/>
       <c r="EC149" s="39" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="150">
+    <row r="150" ht="6.75" customHeight="1">
       <c r="A150" s="312" t="n"/>
       <c r="G150" s="117" t="n"/>
       <c r="M150" s="116" t="n"/>
@@ -18068,7 +18068,7 @@
       <c r="EB150" s="39" t="n"/>
       <c r="EC150" s="39" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="151">
+    <row r="151" ht="6.75" customHeight="1">
       <c r="A151" s="312" t="n"/>
       <c r="G151" s="118" t="n"/>
       <c r="H151" s="571" t="n"/>
@@ -18198,7 +18198,7 @@
       <c r="EB151" s="39" t="n"/>
       <c r="EC151" s="39" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="152">
+    <row r="152" ht="6.75" customHeight="1">
       <c r="A152" s="312" t="n"/>
       <c r="G152" s="181" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
       <c r="EB152" s="43" t="n"/>
       <c r="EC152" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="153">
+    <row r="153" ht="6.75" customHeight="1">
       <c r="A153" s="312" t="n"/>
       <c r="G153" s="563" t="n"/>
       <c r="I153" s="184" t="n"/>
@@ -18433,7 +18433,7 @@
       <c r="EB153" s="43" t="n"/>
       <c r="EC153" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="154">
+    <row r="154" ht="6.75" customHeight="1">
       <c r="A154" s="312" t="n"/>
       <c r="G154" s="600" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
       <c r="EB154" s="43" t="n"/>
       <c r="EC154" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="155">
+    <row r="155" ht="6.75" customHeight="1">
       <c r="A155" s="312" t="n"/>
       <c r="G155" s="563" t="n"/>
       <c r="M155" s="564" t="n"/>
@@ -18682,7 +18682,7 @@
       <c r="EB155" s="43" t="n"/>
       <c r="EC155" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="156">
+    <row r="156" ht="6.75" customHeight="1">
       <c r="A156" s="312" t="n"/>
       <c r="G156" s="563" t="n"/>
       <c r="M156" s="564" t="n"/>
@@ -18803,7 +18803,7 @@
       <c r="EB156" s="43" t="n"/>
       <c r="EC156" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="157">
+    <row r="157" ht="6.75" customHeight="1">
       <c r="A157" s="312" t="n"/>
       <c r="G157" s="563" t="n"/>
       <c r="M157" s="564" t="n"/>
@@ -18924,7 +18924,7 @@
       <c r="EB157" s="43" t="n"/>
       <c r="EC157" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="158">
+    <row r="158" ht="6.75" customHeight="1">
       <c r="A158" s="312" t="n"/>
       <c r="G158" s="570" t="n"/>
       <c r="H158" s="571" t="n"/>
@@ -19054,7 +19054,7 @@
       <c r="EB158" s="43" t="n"/>
       <c r="EC158" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="159">
+    <row r="159" ht="6.75" customHeight="1">
       <c r="DN159" s="52" t="n"/>
       <c r="DO159" s="52" t="n"/>
       <c r="DP159" s="52" t="n"/>
@@ -19072,7 +19072,7 @@
       <c r="EB159" s="57" t="n"/>
       <c r="EC159" s="57" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="160">
+    <row r="160" ht="6.75" customHeight="1">
       <c r="A160" s="312" t="n"/>
       <c r="G160" s="181" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
       <c r="EB160" s="32" t="n"/>
       <c r="EC160" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="161">
+    <row r="161" ht="6.75" customHeight="1">
       <c r="A161" s="312" t="n"/>
       <c r="G161" s="563" t="n"/>
       <c r="I161" s="184" t="n"/>
@@ -19330,7 +19330,7 @@
       <c r="EB161" s="32" t="n"/>
       <c r="EC161" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="162">
+    <row r="162" ht="6.75" customHeight="1">
       <c r="A162" s="312" t="n"/>
       <c r="G162" s="600" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
       <c r="EB162" s="32" t="n"/>
       <c r="EC162" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="163">
+    <row r="163" ht="6.75" customHeight="1">
       <c r="A163" s="312" t="n"/>
       <c r="G163" s="563" t="n"/>
       <c r="M163" s="564" t="n"/>
@@ -19517,7 +19517,7 @@
       <c r="EB163" s="32" t="n"/>
       <c r="EC163" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="164">
+    <row r="164" ht="6.75" customHeight="1">
       <c r="A164" s="312" t="n"/>
       <c r="G164" s="563" t="n"/>
       <c r="M164" s="564" t="n"/>
@@ -19602,7 +19602,7 @@
       <c r="EB164" s="32" t="n"/>
       <c r="EC164" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="165">
+    <row r="165" ht="6.75" customHeight="1">
       <c r="A165" s="312" t="n"/>
       <c r="G165" s="563" t="n"/>
       <c r="M165" s="564" t="n"/>
@@ -19687,7 +19687,7 @@
       <c r="EB165" s="32" t="n"/>
       <c r="EC165" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="166">
+    <row r="166" ht="6.75" customHeight="1">
       <c r="A166" s="312" t="n"/>
       <c r="G166" s="563" t="n"/>
       <c r="M166" s="564" t="n"/>
@@ -19772,7 +19772,7 @@
       <c r="EB166" s="32" t="n"/>
       <c r="EC166" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="167">
+    <row r="167" ht="6.75" customHeight="1">
       <c r="A167" s="312" t="n"/>
       <c r="G167" s="563" t="n"/>
       <c r="M167" s="564" t="n"/>
@@ -19857,7 +19857,7 @@
       <c r="EB167" s="32" t="n"/>
       <c r="EC167" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="168">
+    <row r="168" ht="6.75" customHeight="1">
       <c r="A168" s="312" t="n"/>
       <c r="G168" s="563" t="n"/>
       <c r="M168" s="564" t="n"/>
@@ -19942,7 +19942,7 @@
       <c r="EB168" s="32" t="n"/>
       <c r="EC168" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="169">
+    <row r="169" ht="6.75" customHeight="1">
       <c r="A169" s="312" t="n"/>
       <c r="G169" s="570" t="n"/>
       <c r="H169" s="571" t="n"/>
@@ -20072,7 +20072,7 @@
       <c r="EB169" s="32" t="n"/>
       <c r="EC169" s="32" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="170" s="85">
+    <row r="170" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="A170" s="312" t="n"/>
       <c r="G170" s="181" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
       <c r="EL170" s="85" t="n"/>
       <c r="EM170" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="171" s="85">
+    <row r="171" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="A171" s="312" t="n"/>
       <c r="G171" s="563" t="n"/>
       <c r="I171" s="184" t="n"/>
@@ -20346,7 +20346,7 @@
       <c r="EL171" s="85" t="n"/>
       <c r="EM171" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="172" s="85">
+    <row r="172" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="A172" s="312" t="n"/>
       <c r="G172" s="600" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
       <c r="EL172" s="85" t="n"/>
       <c r="EM172" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="173" s="85">
+    <row r="173" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="A173" s="312" t="n"/>
       <c r="G173" s="563" t="n"/>
       <c r="M173" s="564" t="n"/>
@@ -20555,7 +20555,7 @@
       <c r="EL173" s="85" t="n"/>
       <c r="EM173" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="174" s="85">
+    <row r="174" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="A174" s="312" t="n"/>
       <c r="G174" s="563" t="n"/>
       <c r="M174" s="564" t="n"/>
@@ -20647,7 +20647,7 @@
       <c r="EL174" s="85" t="n"/>
       <c r="EM174" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="175" s="85">
+    <row r="175" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="A175" s="312" t="n"/>
       <c r="G175" s="563" t="n"/>
       <c r="M175" s="564" t="n"/>
@@ -20744,7 +20744,7 @@
       <c r="EL175" s="85" t="n"/>
       <c r="EM175" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="176" s="85">
+    <row r="176" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="A176" s="312" t="n"/>
       <c r="G176" s="563" t="n"/>
       <c r="M176" s="564" t="n"/>
@@ -20840,7 +20840,7 @@
       <c r="EL176" s="85" t="n"/>
       <c r="EM176" s="85" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="177" s="85">
+    <row r="177" ht="6.75" customFormat="1" customHeight="1" s="85">
       <c r="A177" s="312" t="n"/>
       <c r="G177" s="563" t="n"/>
       <c r="M177" s="564" t="n"/>
@@ -20932,7 +20932,7 @@
       <c r="EL177" s="85" t="n"/>
       <c r="EM177" s="85" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="178">
+    <row r="178" ht="6.75" customHeight="1">
       <c r="A178" s="312" t="n"/>
       <c r="G178" s="570" t="n"/>
       <c r="H178" s="571" t="n"/>
@@ -21059,7 +21059,7 @@
       <c r="EB178" s="35" t="n"/>
       <c r="EC178" s="35" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="179" s="43">
+    <row r="179" ht="6.75" customFormat="1" customHeight="1" s="43">
       <c r="A179" s="312" t="n"/>
       <c r="G179" s="181" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
       <c r="EL179" s="43" t="n"/>
       <c r="EM179" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="180" s="43">
+    <row r="180" ht="6.75" customFormat="1" customHeight="1" s="43">
       <c r="A180" s="312" t="n"/>
       <c r="G180" s="563" t="n"/>
       <c r="I180" s="184" t="n"/>
@@ -21298,7 +21298,7 @@
       <c r="EL180" s="43" t="n"/>
       <c r="EM180" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="181" s="43">
+    <row r="181" ht="6.75" customFormat="1" customHeight="1" s="43">
       <c r="A181" s="312" t="n"/>
       <c r="G181" s="117" t="n"/>
       <c r="H181" s="202" t="inlineStr">
@@ -21399,7 +21399,7 @@
       <c r="EL181" s="43" t="n"/>
       <c r="EM181" s="43" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="6.75" r="182" s="43">
+    <row r="182" ht="6.75" customFormat="1" customHeight="1" s="43">
       <c r="A182" s="312" t="n"/>
       <c r="G182" s="117" t="n"/>
       <c r="M182" s="116" t="n"/>
@@ -21489,7 +21489,7 @@
       <c r="EL182" s="43" t="n"/>
       <c r="EM182" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="183">
+    <row r="183" ht="6.75" customHeight="1">
       <c r="A183" s="312" t="n"/>
       <c r="G183" s="117" t="n"/>
       <c r="M183" s="116" t="n"/>
@@ -21567,7 +21567,7 @@
       <c r="EB183" s="39" t="n"/>
       <c r="EC183" s="39" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="184">
+    <row r="184" ht="6.75" customHeight="1">
       <c r="A184" s="312" t="n"/>
       <c r="G184" s="117" t="n"/>
       <c r="M184" s="116" t="n"/>
@@ -21674,7 +21674,7 @@
       <c r="EB184" s="39" t="n"/>
       <c r="EC184" s="39" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="185">
+    <row r="185" ht="6.75" customHeight="1">
       <c r="A185" s="312" t="n"/>
       <c r="G185" s="117" t="n"/>
       <c r="M185" s="116" t="n"/>
@@ -21772,7 +21772,7 @@
       <c r="EB185" s="39" t="n"/>
       <c r="EC185" s="39" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="186">
+    <row r="186" ht="6.75" customHeight="1">
       <c r="A186" s="312" t="n"/>
       <c r="G186" s="118" t="n"/>
       <c r="H186" s="571" t="n"/>
@@ -21902,7 +21902,7 @@
       <c r="EB186" s="39" t="n"/>
       <c r="EC186" s="39" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="187">
+    <row r="187" ht="6.75" customHeight="1">
       <c r="A187" s="312" t="n"/>
       <c r="G187" s="181" t="inlineStr">
         <is>
@@ -22050,7 +22050,7 @@
       <c r="EB187" s="43" t="n"/>
       <c r="EC187" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="188">
+    <row r="188" ht="6.75" customHeight="1">
       <c r="A188" s="312" t="n"/>
       <c r="G188" s="563" t="n"/>
       <c r="I188" s="184" t="n"/>
@@ -22137,7 +22137,7 @@
       <c r="EB188" s="43" t="n"/>
       <c r="EC188" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="189">
+    <row r="189" ht="6.75" customHeight="1">
       <c r="A189" s="312" t="n"/>
       <c r="G189" s="600" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
       <c r="EB189" s="43" t="n"/>
       <c r="EC189" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="190">
+    <row r="190" ht="6.75" customHeight="1">
       <c r="A190" s="312" t="n"/>
       <c r="G190" s="563" t="n"/>
       <c r="M190" s="564" t="n"/>
@@ -22386,7 +22386,7 @@
       <c r="EB190" s="43" t="n"/>
       <c r="EC190" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="191">
+    <row r="191" ht="6.75" customHeight="1">
       <c r="A191" s="312" t="n"/>
       <c r="G191" s="563" t="n"/>
       <c r="M191" s="564" t="n"/>
@@ -22507,7 +22507,7 @@
       <c r="EB191" s="43" t="n"/>
       <c r="EC191" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="192">
+    <row r="192" ht="6.75" customHeight="1">
       <c r="A192" s="312" t="n"/>
       <c r="G192" s="563" t="n"/>
       <c r="M192" s="564" t="n"/>
@@ -22628,7 +22628,7 @@
       <c r="EB192" s="43" t="n"/>
       <c r="EC192" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="193">
+    <row r="193" ht="6.75" customHeight="1">
       <c r="A193" s="312" t="n"/>
       <c r="G193" s="570" t="n"/>
       <c r="H193" s="571" t="n"/>
@@ -22758,7 +22758,7 @@
       <c r="EB193" s="43" t="n"/>
       <c r="EC193" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="194">
+    <row r="194" ht="6.75" customHeight="1">
       <c r="DN194" s="22" t="n"/>
       <c r="DO194" s="22" t="n"/>
       <c r="DP194" s="22" t="n"/>
@@ -22773,7 +22773,7 @@
       <c r="DY194" s="22" t="n"/>
       <c r="DZ194" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="6.75" r="195">
+    <row r="195" ht="6.75" customHeight="1">
       <c r="DN195" s="22" t="n"/>
       <c r="DO195" s="22" t="n"/>
       <c r="DP195" s="22" t="n"/>
@@ -22788,37 +22788,37 @@
       <c r="DY195" s="22" t="n"/>
       <c r="DZ195" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="197">
+    <row r="197" ht="24" customHeight="1">
       <c r="E197" s="493" t="inlineStr">
         <is>
           <t>協会けんぽご加入の事業所様へ</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="198">
+    <row r="198" ht="24" customHeight="1">
       <c r="E198" s="493" t="inlineStr">
         <is>
           <t>※　７０歳以上被用者該当届のみ提出の場合は、「⑩備考」欄の「１.７０歳以上被用者該当」</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="199">
+    <row r="199" ht="24" customHeight="1">
       <c r="E199" s="493" t="inlineStr">
         <is>
           <t xml:space="preserve">　　および「５.その他」に○をし、「５.その他」の（　）内に「該当届のみ」とご記入ください（この場合、</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="200">
+    <row r="200" ht="24" customHeight="1">
       <c r="E200" s="493" t="inlineStr">
         <is>
           <t xml:space="preserve">　　健康保険被保険者証の発行はありません）。</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="201"/>
-    <row customHeight="1" ht="24" r="202"/>
-    <row customFormat="1" customHeight="1" ht="24" r="203" s="86">
+    <row r="201" ht="24" customHeight="1"/>
+    <row r="202" ht="24" customHeight="1"/>
+    <row r="203" ht="24" customFormat="1" customHeight="1" s="86">
       <c r="B203" s="164" t="inlineStr">
         <is>
           <t>この届書は 「従業員を採用した場合」、「60歳以上の方で退職後に継続して再雇用した場合」 にご提出いただくものです。</t>
@@ -22960,7 +22960,7 @@
       <c r="EL203" s="86" t="n"/>
       <c r="EM203" s="86" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="204" s="86">
+    <row r="204" ht="24" customFormat="1" customHeight="1" s="86">
       <c r="B204" s="68" t="n"/>
       <c r="C204" s="83" t="n"/>
       <c r="D204" s="83" t="n"/>
@@ -23098,7 +23098,7 @@
       <c r="EL204" s="86" t="n"/>
       <c r="EM204" s="86" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="205" s="87">
+    <row r="205" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B205" s="494" t="inlineStr">
         <is>
           <t>・70歳以上の方について提出する場合は、「⑩備考」欄の「1.70歳以上被用者該当」を○で囲んでください。</t>
@@ -23112,7 +23112,7 @@
       <c r="EL205" s="87" t="n"/>
       <c r="EM205" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="206" s="87">
+    <row r="206" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B206" s="494" t="inlineStr">
         <is>
           <t>・次の場合は下記の別様式での届出をお願いします。</t>
@@ -23126,7 +23126,7 @@
       <c r="EL206" s="87" t="n"/>
       <c r="EM206" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="207" s="87">
+    <row r="207" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B207" s="494" t="inlineStr">
         <is>
           <t xml:space="preserve">　　従業員等が在職中に70歳に到達した場合→『70歳到達届』（資格喪失届・70歳以上被用者該当届）</t>
@@ -23140,7 +23140,7 @@
       <c r="EL207" s="87" t="n"/>
       <c r="EM207" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="208" s="87">
+    <row r="208" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B208" s="494" t="inlineStr">
         <is>
           <t xml:space="preserve">　　国民健康保険組合に加入する従業員を採用した場合→『被保険者資格取得届（国保組合用）』</t>
@@ -23154,7 +23154,7 @@
       <c r="EL208" s="87" t="n"/>
       <c r="EM208" s="87" t="n"/>
     </row>
-    <row customHeight="1" ht="11.25" r="209">
+    <row r="209" ht="11.25" customHeight="1">
       <c r="B209" s="69" t="n"/>
       <c r="C209" s="69" t="n"/>
       <c r="D209" s="69" t="n"/>
@@ -23285,7 +23285,7 @@
       <c r="DY209" s="69" t="n"/>
       <c r="DZ209" s="69" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="210" s="86">
+    <row r="210" ht="24" customFormat="1" customHeight="1" s="86">
       <c r="B210" s="153" t="inlineStr">
         <is>
           <t>記入方法</t>
@@ -23427,7 +23427,7 @@
       <c r="EL210" s="86" t="n"/>
       <c r="EM210" s="86" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="211" s="87">
+    <row r="211" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B211" s="495" t="inlineStr">
         <is>
           <t>提出者記入欄</t>
@@ -23451,7 +23451,7 @@
       <c r="EL211" s="87" t="n"/>
       <c r="EM211" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="212" s="87">
+    <row r="212" ht="22.5" customFormat="1" customHeight="1" s="87">
       <c r="B212" s="495" t="inlineStr">
         <is>
           <t xml:space="preserve">　   　　　　　　　　　　　　　</t>
@@ -23553,7 +23553,7 @@
       <c r="EL212" s="87" t="n"/>
       <c r="EM212" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="12" r="213" s="87">
+    <row r="213" ht="12" customFormat="1" customHeight="1" s="87">
       <c r="B213" s="495" t="n"/>
       <c r="V213" s="70" t="n"/>
       <c r="W213" s="570" t="n"/>
@@ -23611,7 +23611,7 @@
       <c r="EL213" s="87" t="n"/>
       <c r="EM213" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="214" s="87">
+    <row r="214" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B214" s="495" t="inlineStr">
         <is>
           <t>①被保険者整理番号</t>
@@ -23635,7 +23635,7 @@
       <c r="EL214" s="87" t="n"/>
       <c r="EM214" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="215" s="87">
+    <row r="215" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B215" s="495" t="inlineStr">
         <is>
           <t>②氏名</t>
@@ -23659,7 +23659,7 @@
       <c r="EL215" s="87" t="n"/>
       <c r="EM215" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="216" s="87">
+    <row r="216" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B216" s="495" t="inlineStr">
         <is>
           <t>③生年月日</t>
@@ -23683,7 +23683,7 @@
       <c r="EL216" s="87" t="n"/>
       <c r="EM216" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="217" s="87">
+    <row r="217" ht="16.5" customFormat="1" customHeight="1" s="87">
       <c r="B217" s="495" t="n"/>
       <c r="V217" s="70" t="n"/>
       <c r="W217" s="496" t="n"/>
@@ -23787,7 +23787,7 @@
       <c r="EL217" s="87" t="n"/>
       <c r="EM217" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="218" s="87">
+    <row r="218" ht="16.5" customFormat="1" customHeight="1" s="87">
       <c r="B218" s="495" t="inlineStr">
         <is>
           <t xml:space="preserve">　</t>
@@ -23868,7 +23868,7 @@
       <c r="EL218" s="87" t="n"/>
       <c r="EM218" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="219" s="87">
+    <row r="219" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B219" s="495" t="inlineStr">
         <is>
           <t>④種別</t>
@@ -23892,7 +23892,7 @@
       <c r="EL219" s="87" t="n"/>
       <c r="EM219" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="220" s="87">
+    <row r="220" ht="15" customFormat="1" customHeight="1" s="87">
       <c r="B220" s="495" t="n"/>
       <c r="V220" s="70" t="n"/>
       <c r="W220" s="496" t="n"/>
@@ -24023,7 +24023,7 @@
       <c r="EL220" s="87" t="n"/>
       <c r="EM220" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="221" s="87">
+    <row r="221" ht="15" customFormat="1" customHeight="1" s="87">
       <c r="B221" s="495" t="n"/>
       <c r="V221" s="70" t="n"/>
       <c r="W221" s="496" t="n"/>
@@ -24152,7 +24152,7 @@
       <c r="EL221" s="87" t="n"/>
       <c r="EM221" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="222" s="87">
+    <row r="222" ht="15" customFormat="1" customHeight="1" s="87">
       <c r="B222" s="495" t="n"/>
       <c r="V222" s="70" t="n"/>
       <c r="W222" s="496" t="n"/>
@@ -24281,7 +24281,7 @@
       <c r="EL222" s="87" t="n"/>
       <c r="EM222" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="223" s="87">
+    <row r="223" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B223" s="495" t="inlineStr">
         <is>
           <t>⑤取得区分</t>
@@ -24305,7 +24305,7 @@
       <c r="EL223" s="87" t="n"/>
       <c r="EM223" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="224" s="87">
+    <row r="224" ht="15" customFormat="1" customHeight="1" s="87">
       <c r="B224" s="495" t="n"/>
       <c r="V224" s="70" t="n"/>
       <c r="W224" s="496" t="n"/>
@@ -24432,7 +24432,7 @@
       <c r="EL224" s="87" t="n"/>
       <c r="EM224" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="225" s="87">
+    <row r="225" ht="15" customFormat="1" customHeight="1" s="87">
       <c r="B225" s="495" t="n"/>
       <c r="V225" s="70" t="n"/>
       <c r="W225" s="496" t="n"/>
@@ -24559,7 +24559,7 @@
       <c r="EL225" s="87" t="n"/>
       <c r="EM225" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="226" s="87">
+    <row r="226" ht="15" customFormat="1" customHeight="1" s="87">
       <c r="B226" s="495" t="n"/>
       <c r="V226" s="70" t="n"/>
       <c r="W226" s="496" t="n"/>
@@ -24686,7 +24686,7 @@
       <c r="EL226" s="87" t="n"/>
       <c r="EM226" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="227" s="87">
+    <row r="227" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B227" s="495" t="inlineStr">
         <is>
           <t>⑥個人番号</t>
@@ -24710,7 +24710,7 @@
       <c r="EL227" s="87" t="n"/>
       <c r="EM227" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="228" s="87">
+    <row r="228" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B228" s="495" t="inlineStr">
         <is>
           <t>[基礎年金番号]</t>
@@ -24730,7 +24730,7 @@
       <c r="EL228" s="87" t="n"/>
       <c r="EM228" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="229" s="87">
+    <row r="229" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B229" s="495" t="inlineStr">
         <is>
           <t>⑦取得（該当）年月日</t>
@@ -24754,7 +24754,7 @@
       <c r="EL229" s="87" t="n"/>
       <c r="EM229" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="230" s="87">
+    <row r="230" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B230" s="495" t="n"/>
       <c r="V230" s="70" t="n"/>
       <c r="W230" s="496" t="inlineStr">
@@ -24770,7 +24770,7 @@
       <c r="EL230" s="87" t="n"/>
       <c r="EM230" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="231" s="87">
+    <row r="231" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B231" s="495" t="inlineStr">
         <is>
           <t>⑧被扶養者</t>
@@ -24794,7 +24794,7 @@
       <c r="EL231" s="87" t="n"/>
       <c r="EM231" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="232" s="87">
+    <row r="232" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B232" s="495" t="n"/>
       <c r="V232" s="70" t="n"/>
       <c r="W232" s="496" t="inlineStr">
@@ -24810,7 +24810,7 @@
       <c r="EL232" s="87" t="n"/>
       <c r="EM232" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="233" s="88">
+    <row r="233" ht="24" customFormat="1" customHeight="1" s="88">
       <c r="B233" s="495" t="inlineStr">
         <is>
           <t>⑨報酬月額</t>
@@ -24834,7 +24834,7 @@
       <c r="EL233" s="88" t="n"/>
       <c r="EM233" s="88" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="234" s="89">
+    <row r="234" ht="15" customFormat="1" customHeight="1" s="89">
       <c r="B234" s="539" t="n"/>
       <c r="V234" s="82" t="n"/>
       <c r="W234" s="540" t="inlineStr">
@@ -24850,7 +24850,7 @@
       <c r="EL234" s="89" t="n"/>
       <c r="EM234" s="89" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="235" s="89">
+    <row r="235" ht="15" customFormat="1" customHeight="1" s="89">
       <c r="B235" s="539" t="n"/>
       <c r="V235" s="82" t="n"/>
       <c r="W235" s="540" t="inlineStr">
@@ -24866,7 +24866,7 @@
       <c r="EL235" s="89" t="n"/>
       <c r="EM235" s="89" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="236" s="89">
+    <row r="236" ht="15" customFormat="1" customHeight="1" s="89">
       <c r="B236" s="539" t="n"/>
       <c r="V236" s="82" t="n"/>
       <c r="W236" s="540" t="inlineStr">
@@ -24882,7 +24882,7 @@
       <c r="EL236" s="89" t="n"/>
       <c r="EM236" s="89" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="237" s="89">
+    <row r="237" ht="15.75" customFormat="1" customHeight="1" s="89">
       <c r="B237" s="539" t="n"/>
       <c r="V237" s="82" t="n"/>
       <c r="W237" s="540" t="inlineStr">
@@ -24898,7 +24898,7 @@
       <c r="EL237" s="89" t="n"/>
       <c r="EM237" s="89" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="238" s="87">
+    <row r="238" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B238" s="495" t="n"/>
       <c r="V238" s="70" t="n"/>
       <c r="W238" s="496" t="inlineStr">
@@ -24914,7 +24914,7 @@
       <c r="EL238" s="87" t="n"/>
       <c r="EM238" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="239" s="87">
+    <row r="239" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B239" s="495" t="n"/>
       <c r="V239" s="70" t="n"/>
       <c r="W239" s="496" t="inlineStr">
@@ -24930,7 +24930,7 @@
       <c r="EL239" s="87" t="n"/>
       <c r="EM239" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="240" s="87">
+    <row r="240" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B240" s="495" t="n"/>
       <c r="C240" s="495" t="n"/>
       <c r="D240" s="495" t="n"/>
@@ -24965,7 +24965,7 @@
       <c r="EL240" s="87" t="n"/>
       <c r="EM240" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="241" s="87">
+    <row r="241" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B241" s="495" t="inlineStr">
         <is>
           <t>⑩備考</t>
@@ -24989,7 +24989,7 @@
       <c r="EL241" s="87" t="n"/>
       <c r="EM241" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="242" s="87">
+    <row r="242" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B242" s="495" t="inlineStr">
         <is>
           <t xml:space="preserve">　　　　　　　　　　　</t>
@@ -25009,7 +25009,7 @@
       <c r="EL242" s="87" t="n"/>
       <c r="EM242" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="243" s="87">
+    <row r="243" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B243" s="495" t="inlineStr">
         <is>
           <t xml:space="preserve">　</t>
@@ -25029,7 +25029,7 @@
       <c r="EL243" s="87" t="n"/>
       <c r="EM243" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="244" s="87">
+    <row r="244" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B244" s="495" t="inlineStr">
         <is>
           <t xml:space="preserve">　　　　　　　　　　　</t>
@@ -25049,7 +25049,7 @@
       <c r="EL244" s="87" t="n"/>
       <c r="EM244" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="245" s="87">
+    <row r="245" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B245" s="495" t="n"/>
       <c r="C245" s="495" t="n"/>
       <c r="D245" s="495" t="n"/>
@@ -25084,7 +25084,7 @@
       <c r="EL245" s="87" t="n"/>
       <c r="EM245" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="246" s="87">
+    <row r="246" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B246" s="495" t="inlineStr">
         <is>
           <t xml:space="preserve">　　　　　　　　　　　　</t>
@@ -25104,7 +25104,7 @@
       <c r="EL246" s="87" t="n"/>
       <c r="EM246" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="247" s="87">
+    <row r="247" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B247" s="495" t="inlineStr">
         <is>
           <t xml:space="preserve">　　　　　　　　　　</t>
@@ -25124,7 +25124,7 @@
       <c r="EL247" s="87" t="n"/>
       <c r="EM247" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="248" s="87">
+    <row r="248" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B248" s="495" t="inlineStr">
         <is>
           <t>⑪住所</t>
@@ -25148,7 +25148,7 @@
       <c r="EL248" s="87" t="n"/>
       <c r="EM248" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="249" s="87">
+    <row r="249" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B249" s="495" t="n"/>
       <c r="V249" s="495" t="n"/>
       <c r="W249" s="495" t="inlineStr">
@@ -25164,7 +25164,7 @@
       <c r="EL249" s="87" t="n"/>
       <c r="EM249" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="250" s="87">
+    <row r="250" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B250" s="495" t="n"/>
       <c r="V250" s="495" t="n"/>
       <c r="W250" s="495" t="inlineStr">
@@ -25180,7 +25180,7 @@
       <c r="EL250" s="87" t="n"/>
       <c r="EM250" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="251" s="87">
+    <row r="251" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B251" s="495" t="n"/>
       <c r="V251" s="495" t="n"/>
       <c r="W251" s="495" t="inlineStr">
@@ -25196,7 +25196,7 @@
       <c r="EL251" s="87" t="n"/>
       <c r="EM251" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="252" s="86">
+    <row r="252" ht="24" customFormat="1" customHeight="1" s="86">
       <c r="B252" s="541" t="inlineStr">
         <is>
           <t>添付書類</t>
@@ -25329,7 +25329,7 @@
       <c r="EL252" s="86" t="n"/>
       <c r="EM252" s="86" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="253" s="87">
+    <row r="253" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B253" s="542" t="inlineStr">
         <is>
           <t xml:space="preserve">　・60歳以上の方で退職後の継続再雇用の場合</t>
@@ -25343,7 +25343,7 @@
       <c r="EL253" s="87" t="n"/>
       <c r="EM253" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="254" s="87">
+    <row r="254" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B254" s="542" t="inlineStr">
         <is>
           <t xml:space="preserve">　　　ア.就業規則・退職辞令のコピー等退職日が確認できる書類、および継続して再雇用されたことが確認できる雇用契約書のコピー</t>
@@ -25357,7 +25357,7 @@
       <c r="EL254" s="87" t="n"/>
       <c r="EM254" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="255" s="87">
+    <row r="255" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B255" s="542" t="inlineStr">
         <is>
           <t xml:space="preserve">　　　イ.上記「ア」の書類が添付できない場合、事業主の証明書（退職日、再雇用日が記載されているもの）等</t>
@@ -25371,7 +25371,7 @@
       <c r="EL255" s="87" t="n"/>
       <c r="EM255" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="256" s="86">
+    <row r="256" ht="24" customFormat="1" customHeight="1" s="86">
       <c r="B256" s="152" t="inlineStr">
         <is>
           <t xml:space="preserve">お知らせ　</t>
@@ -25513,7 +25513,7 @@
       <c r="EL256" s="86" t="n"/>
       <c r="EM256" s="86" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="257" s="87">
+    <row r="257" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B257" s="495" t="inlineStr">
         <is>
           <t xml:space="preserve">　・マイナンバー制度の導入に伴い、日本年金機構では原則として住民票上の氏名および住所で年金記録を管理することにしています。住民票住所以外</t>
@@ -25527,7 +25527,7 @@
       <c r="EL257" s="87" t="n"/>
       <c r="EM257" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="258" s="87">
+    <row r="258" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B258" s="495" t="inlineStr">
         <is>
           <t xml:space="preserve">　　の居所等にねんきん定期便等の日本年金機構からの各種お知らせ等の送付をご希望の場合は、別途『住所変更届』をご提出ください。</t>
@@ -25541,7 +25541,7 @@
       <c r="EL258" s="87" t="n"/>
       <c r="EM258" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="259" s="87">
+    <row r="259" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B259" s="495" t="inlineStr">
         <is>
           <t xml:space="preserve">　・この『被保険者資格取得届・70歳以上被用者該当届』を提出し、資格取得の確認および標準報酬月額が決定されると、『資格取得確認および標準</t>
@@ -25555,7 +25555,7 @@
       <c r="EL259" s="87" t="n"/>
       <c r="EM259" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="260" s="87">
+    <row r="260" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B260" s="495" t="inlineStr">
         <is>
           <t xml:space="preserve">　　報酬決定通知書』・『70歳以上被用者該当および標準報酬月額相当額のお知らせ』（70歳以上被用者に該当する場合）が事業所に送付されますので、</t>
@@ -25569,7 +25569,7 @@
       <c r="EL260" s="87" t="n"/>
       <c r="EM260" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="261" s="87">
+    <row r="261" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B261" s="495" t="inlineStr">
         <is>
           <t xml:space="preserve">　　事業主は通知内容を被保険者に通知してください。</t>
@@ -25583,7 +25583,7 @@
       <c r="EL261" s="87" t="n"/>
       <c r="EM261" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="262" s="87">
+    <row r="262" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B262" s="495" t="inlineStr">
         <is>
           <t xml:space="preserve">  ・「短時間労働者」とは、国・地方公共団体・特定適用事業所等において使用される、以下の全ての要件を満たした場合に被保険者となります。</t>
@@ -25597,7 +25597,7 @@
       <c r="EL262" s="87" t="n"/>
       <c r="EM262" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="263" s="87">
+    <row r="263" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B263" s="495" t="inlineStr">
         <is>
           <t xml:space="preserve">　　　ア.週の所定労働時間が20時間以上であること。　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</t>
@@ -25611,7 +25611,7 @@
       <c r="EL263" s="87" t="n"/>
       <c r="EM263" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="264" s="87">
+    <row r="264" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B264" s="495" t="inlineStr">
         <is>
           <t xml:space="preserve">　　　イ.雇用見込期間が1年以上であること（雇用期間が1年未満であるが、雇用契約書等でその契約が更新される旨または更新される場合がある旨</t>
@@ -25625,7 +25625,7 @@
       <c r="EL264" s="87" t="n"/>
       <c r="EM264" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="265" s="87">
+    <row r="265" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B265" s="495" t="inlineStr">
         <is>
           <t xml:space="preserve"> 　　　　明示されている場合を含む）。</t>
@@ -25639,7 +25639,7 @@
       <c r="EL265" s="87" t="n"/>
       <c r="EM265" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="266" s="87">
+    <row r="266" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B266" s="495" t="inlineStr">
         <is>
           <t xml:space="preserve">　　　ウ.賃金の月額が88,000円（年額106万円相当）以上であること。ただし、①臨時に支払われる賃金（結婚手当等）および1月を超える期間ごと</t>
@@ -25653,7 +25653,7 @@
       <c r="EL266" s="87" t="n"/>
       <c r="EM266" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="267" s="87">
+    <row r="267" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B267" s="495" t="inlineStr">
         <is>
           <t xml:space="preserve"> 　　　　に支払われる賃金（賞与等）、②所定時間外労働等に対して支払われる賃金（割増賃金等）、③最低賃金法において算入しないことを定め</t>
@@ -25667,7 +25667,7 @@
       <c r="EL267" s="87" t="n"/>
       <c r="EM267" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="268" s="87">
+    <row r="268" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B268" s="495" t="inlineStr">
         <is>
           <t xml:space="preserve"> 　　　　る賃金（精皆勤手当、通勤手当および家族手当）を除く。</t>
@@ -25681,7 +25681,7 @@
       <c r="EL268" s="87" t="n"/>
       <c r="EM268" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="269" s="87">
+    <row r="269" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B269" s="495" t="inlineStr">
         <is>
           <t xml:space="preserve">　　　エ.学生でないこと。</t>
@@ -25695,7 +25695,7 @@
       <c r="EL269" s="87" t="n"/>
       <c r="EM269" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="270" s="87">
+    <row r="270" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B270" s="495" t="inlineStr">
         <is>
           <t xml:space="preserve"> 　　　　※令和4年10月より、イ.雇用見込期間が1年以上であることは、要件から除かれます。</t>
@@ -25709,7 +25709,7 @@
       <c r="EL270" s="87" t="n"/>
       <c r="EM270" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="271" s="87">
+    <row r="271" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B271" s="495" t="inlineStr">
         <is>
           <t xml:space="preserve"> 　　　　※上記ア～エの要件を満たしていても、1週間の所定労働時間および1カ月の所定労働日数が正社員の4分の3以上の従業員については、通常</t>
@@ -25723,7 +25723,7 @@
       <c r="EL271" s="87" t="n"/>
       <c r="EM271" s="87" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="272" s="87">
+    <row r="272" ht="24" customFormat="1" customHeight="1" s="87">
       <c r="B272" s="495" t="inlineStr">
         <is>
           <t xml:space="preserve">  　　　 　の被保険者となります。</t>
@@ -25738,7 +25738,7 @@
       <c r="EM272" s="87" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="0" formatColumns="1" formatRows="1" hashValue="mDJGlAQqIgviFJrSog06xetd1Dfb18mMhwB8m9+CjMOetJ0MIRXOED6hCasTZKvTVvc+EHDa6O1iP/c0swujFg==" insertColumns="1" insertHyperlinks="1" insertRows="1" objects="0" pivotTables="1" saltValue="QbTWfxSXWtPAA0583XT0XQ==" scenarios="1" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1" spinCount="100000"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" algorithmName="SHA-512" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="1" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="0" saltValue="QbTWfxSXWtPAA0583XT0XQ==" formatRows="1" sort="1" spinCount="100000" hashValue="mDJGlAQqIgviFJrSog06xetd1Dfb18mMhwB8m9+CjMOetJ0MIRXOED6hCasTZKvTVvc+EHDa6O1iP/c0swujFg=="/>
   <mergeCells count="550">
     <mergeCell ref="BU149:BW151"/>
     <mergeCell ref="BU184:BW186"/>
@@ -26292,18 +26292,18 @@
     <mergeCell ref="P154:S155"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" imeMode="fullKatakana" showErrorMessage="1" showInputMessage="1" sqref="AB55:BW57 AB90:BW92 AB125:BW127 AB160:BW162 AF154:CU155 AF189:CU190 AF119:CU120 AF84:CU85"/>
-    <dataValidation allowBlank="1" imeMode="halfAlpha" showErrorMessage="1" showInputMessage="1" sqref="AX49:BG52 J6:M6 P6:T6 W6:AA6 P189:S190 V189:Z190 AV8:BO13 R17:X19 AA17:AJ19 V49:AE52 AH49:AU52 AB65:BW73 CJ55:DA73 S74:AO81 AT78:BT81 P84:S85 V84:Z85 AB100:BW108 CJ90:DA108 AT113:BT116 S109:AO116 P119:S120 V119:Z120 AB135:BW143 CJ125:DA143 S144:AO151 AT148:BT151 P154:S155 V154:Z155 AB170:BW178 CJ160:DA178 S179:AO186 AT183:BT186"/>
+    <dataValidation sqref="AB55:BW57 AB90:BW92 AB125:BW127 AB160:BW162 AF154:CU155 AF189:CU190 AF119:CU120 AF84:CU85" showErrorMessage="1" showInputMessage="1" allowBlank="1" imeMode="fullKatakana"/>
+    <dataValidation sqref="AX49:BG52 J6:M6 P6:T6 W6:AA6 P189:S190 V189:Z190 AV8:BO13 R17:X19 AA17:AJ19 V49:AE52 AH49:AU52 AB65:BW73 CJ55:DA73 S74:AO81 AT78:BT81 P84:S85 V84:Z85 AB100:BW108 CJ90:DA108 AT113:BT116 S109:AO116 P119:S120 V119:Z120 AB135:BW143 CJ125:DA143 S144:AO151 AT148:BT151 P154:S155 V154:Z155 AB170:BW178 CJ160:DA178 S179:AO186 AT183:BT186" showErrorMessage="1" showInputMessage="1" allowBlank="1" imeMode="halfAlpha"/>
   </dataValidations>
-  <pageMargins bottom="0" footer="0" header="0" left="0" right="0" top="0"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" scale="55"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="201" man="1" max="16383" min="0"/>
+    <brk id="201" min="0" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
-    <brk id="131" man="1" max="270" min="0"/>
-    <brk id="133" man="1" max="1048575" min="0"/>
+    <brk id="131" min="0" max="270" man="1"/>
+    <brk id="133" min="0" max="1048575" man="1"/>
   </colBreaks>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/shaho_filled.xlsx
+++ b/shaho_filled.xlsx
@@ -3998,14 +3998,14 @@
       <c r="S8" s="546" t="n"/>
       <c r="T8" s="551" t="inlineStr">
         <is>
-          <t>事</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U8" s="552" t="n"/>
       <c r="V8" s="553" t="n"/>
       <c r="W8" s="554" t="inlineStr">
         <is>
-          <t>業</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X8" s="552" t="n"/>
@@ -4018,21 +4018,21 @@
       <c r="AA8" s="547" t="n"/>
       <c r="AB8" s="557" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>イ</t>
         </is>
       </c>
       <c r="AC8" s="552" t="n"/>
       <c r="AD8" s="553" t="n"/>
       <c r="AE8" s="558" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>ロ</t>
         </is>
       </c>
       <c r="AF8" s="552" t="n"/>
       <c r="AG8" s="553" t="n"/>
       <c r="AH8" s="559" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>ハ</t>
         </is>
       </c>
       <c r="AI8" s="552" t="n"/>
@@ -4055,7 +4055,7 @@
       <c r="AU8" s="546" t="n"/>
       <c r="AV8" s="562" t="inlineStr">
         <is>
-          <t>事</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AW8" s="552" t="n"/>
@@ -4063,7 +4063,7 @@
       <c r="AY8" s="553" t="n"/>
       <c r="AZ8" s="551" t="inlineStr">
         <is>
-          <t>業</t>
+          <t>5</t>
         </is>
       </c>
       <c r="BA8" s="552" t="n"/>
@@ -4071,7 +4071,7 @@
       <c r="BC8" s="553" t="n"/>
       <c r="BD8" s="551" t="inlineStr">
         <is>
-          <t>所</t>
+          <t>5</t>
         </is>
       </c>
       <c r="BE8" s="552" t="n"/>
@@ -4079,7 +4079,7 @@
       <c r="BG8" s="553" t="n"/>
       <c r="BH8" s="551" t="inlineStr">
         <is>
-          <t>番</t>
+          <t>5</t>
         </is>
       </c>
       <c r="BI8" s="552" t="n"/>
@@ -4087,7 +4087,7 @@
       <c r="BK8" s="553" t="n"/>
       <c r="BL8" s="554" t="inlineStr">
         <is>
-          <t>号</t>
+          <t>5</t>
         </is>
       </c>
       <c r="BM8" s="552" t="n"/>
@@ -4588,7 +4588,7 @@
       </c>
       <c r="R17" s="217" t="inlineStr">
         <is>
-          <t>郵便番号</t>
+          <t>111</t>
         </is>
       </c>
       <c r="S17" s="544" t="n"/>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="AA17" s="217" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="AB17" s="544" t="n"/>
@@ -4756,7 +4756,7 @@
       <c r="M20" s="564" t="n"/>
       <c r="N20" s="580" t="inlineStr">
         <is>
-          <t>住所</t>
+          <t>東京都港区みなとみらい100-100-100</t>
         </is>
       </c>
       <c r="O20" s="544" t="n"/>
@@ -5403,7 +5403,7 @@
       <c r="M31" s="564" t="n"/>
       <c r="N31" s="581" t="inlineStr">
         <is>
-          <t>事業所名称</t>
+          <t>株式会社AERIAL CONGLOMERATE</t>
         </is>
       </c>
       <c r="O31" s="544" t="n"/>
@@ -7144,7 +7144,7 @@
       <c r="U49" s="61" t="n"/>
       <c r="V49" s="287" t="inlineStr">
         <is>
-          <t>電話番号</t>
+          <t>03</t>
         </is>
       </c>
       <c r="W49" s="544" t="n"/>
@@ -7163,7 +7163,7 @@
       </c>
       <c r="AH49" s="287" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="AI49" s="544" t="n"/>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="AX49" s="287" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="AY49" s="544" t="n"/>
@@ -7834,7 +7834,7 @@
       <c r="AY55" s="592" t="n"/>
       <c r="AZ55" s="593" t="inlineStr">
         <is>
-          <t>ジョリン</t>
+          <t>ジョウタロウ</t>
         </is>
       </c>
       <c r="BA55" s="552" t="n"/>
@@ -7884,42 +7884,42 @@
       <c r="CI55" s="546" t="n"/>
       <c r="CJ55" s="595" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="CK55" s="552" t="n"/>
       <c r="CL55" s="592" t="n"/>
       <c r="CM55" s="596" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CN55" s="552" t="n"/>
       <c r="CO55" s="555" t="n"/>
       <c r="CP55" s="595" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="CQ55" s="552" t="n"/>
       <c r="CR55" s="592" t="n"/>
       <c r="CS55" s="596" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CT55" s="552" t="n"/>
       <c r="CU55" s="555" t="n"/>
       <c r="CV55" s="595" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="CW55" s="552" t="n"/>
       <c r="CX55" s="592" t="n"/>
       <c r="CY55" s="596" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CZ55" s="552" t="n"/>
@@ -8199,7 +8199,7 @@
       <c r="AY58" s="608" t="n"/>
       <c r="AZ58" s="609" t="inlineStr">
         <is>
-          <t>徐倫</t>
+          <t>承太郎</t>
         </is>
       </c>
       <c r="BA58" s="607" t="n"/>
@@ -8839,7 +8839,7 @@
       <c r="AA65" s="125" t="n"/>
       <c r="AB65" s="595" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC65" s="552" t="n"/>
@@ -8847,7 +8847,7 @@
       <c r="AE65" s="592" t="n"/>
       <c r="AF65" s="614" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AG65" s="552" t="n"/>
@@ -8855,7 +8855,7 @@
       <c r="AI65" s="592" t="n"/>
       <c r="AJ65" s="614" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AK65" s="552" t="n"/>
@@ -8863,7 +8863,7 @@
       <c r="AM65" s="592" t="n"/>
       <c r="AN65" s="596" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO65" s="552" t="n"/>
@@ -8871,7 +8871,7 @@
       <c r="AQ65" s="555" t="n"/>
       <c r="AR65" s="595" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AS65" s="552" t="n"/>
@@ -8879,7 +8879,7 @@
       <c r="AU65" s="592" t="n"/>
       <c r="AV65" s="614" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AW65" s="552" t="n"/>
@@ -8887,7 +8887,7 @@
       <c r="AY65" s="592" t="n"/>
       <c r="AZ65" s="614" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BA65" s="552" t="n"/>
@@ -8895,7 +8895,7 @@
       <c r="BC65" s="592" t="n"/>
       <c r="BD65" s="596" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BE65" s="552" t="n"/>
@@ -8903,7 +8903,7 @@
       <c r="BG65" s="555" t="n"/>
       <c r="BH65" s="595" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="BI65" s="552" t="n"/>
@@ -8911,7 +8911,7 @@
       <c r="BK65" s="592" t="n"/>
       <c r="BL65" s="614" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="BM65" s="552" t="n"/>
@@ -8919,7 +8919,7 @@
       <c r="BO65" s="592" t="n"/>
       <c r="BP65" s="614" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="BQ65" s="552" t="n"/>
@@ -8927,7 +8927,7 @@
       <c r="BS65" s="592" t="n"/>
       <c r="BT65" s="596" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="BU65" s="552" t="n"/>
@@ -8962,7 +8962,7 @@
       <c r="CL65" s="592" t="n"/>
       <c r="CM65" s="596" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>04</t>
         </is>
       </c>
       <c r="CN65" s="552" t="n"/>
@@ -8976,7 +8976,7 @@
       <c r="CR65" s="592" t="n"/>
       <c r="CS65" s="596" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>04</t>
         </is>
       </c>
       <c r="CT65" s="552" t="n"/>
@@ -8990,7 +8990,7 @@
       <c r="CX65" s="592" t="n"/>
       <c r="CY65" s="596" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>01</t>
         </is>
       </c>
       <c r="CZ65" s="552" t="n"/>
@@ -9875,7 +9875,7 @@
       <c r="Q74" s="546" t="n"/>
       <c r="R74" s="546" t="n"/>
       <c r="S74" s="625" t="n">
-        <v>120033</v>
+        <v>340018</v>
       </c>
       <c r="T74" s="552" t="n"/>
       <c r="U74" s="552" t="n"/>
